--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C924"/>
+  <dimension ref="A1:C943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -11616,7 +11616,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="866">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="871">
@@ -12136,7 +12136,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="906">
@@ -12149,7 +12149,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="907">
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="909">
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="910">
@@ -12240,7 +12240,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="914">
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -12279,7 +12279,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="917">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="918">
@@ -12301,11 +12301,11 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -12314,11 +12314,11 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C919" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="920">
@@ -12327,24 +12327,24 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C920" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C921" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="922">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C922" t="n">
@@ -12366,11 +12366,11 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C923" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -12379,11 +12379,258 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C924" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>44149</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>44149</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>44149</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>44149</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>44149</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C943"/>
+  <dimension ref="A1:C950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="834">
@@ -11317,7 +11317,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="843">
@@ -12058,7 +12058,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="900">
@@ -12123,7 +12123,7 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="905">
@@ -12409,7 +12409,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="927">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C927" t="n">
@@ -12431,11 +12431,11 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C928" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -12444,11 +12444,11 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C929" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -12457,24 +12457,24 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C930" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C931" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="932">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C932" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -12496,11 +12496,11 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C933" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -12509,37 +12509,37 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C934" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C935" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="937">
@@ -12548,11 +12548,11 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -12561,11 +12561,11 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C938" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -12574,37 +12574,37 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C939" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C940" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C941" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="942">
@@ -12613,11 +12613,11 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C942" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -12626,11 +12626,102 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C943" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C950"/>
+  <dimension ref="A1:C960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11694,7 +11694,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="901">
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="910">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="918">
@@ -12409,7 +12409,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="927">
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="930">
@@ -12461,7 +12461,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="931">
@@ -12500,7 +12500,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934">
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="936">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="937">
@@ -12578,7 +12578,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -12591,7 +12591,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="941">
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="942">
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="945">
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="946">
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="947">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C948" t="n">
@@ -12704,11 +12704,11 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C949" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="950">
@@ -12717,11 +12717,141 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C950" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>44152</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C952" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>44152</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>44152</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>44152</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C960"/>
+  <dimension ref="A1:C970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12058,7 +12058,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="900">
@@ -12240,7 +12240,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="914">
@@ -12474,7 +12474,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="932">
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="946">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="951">
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="952">
@@ -12743,11 +12743,11 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C952" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -12756,11 +12756,11 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C953" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -12769,11 +12769,11 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C954" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="955">
@@ -12782,24 +12782,24 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C955" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C956" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="957">
@@ -12808,11 +12808,11 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C957" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -12821,11 +12821,11 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C958" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -12834,11 +12834,11 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C959" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="960">
@@ -12847,11 +12847,141 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C960" t="n">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C966" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C970"/>
+  <dimension ref="A1:C973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="871">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="898">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="901">
@@ -12266,7 +12266,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916">
@@ -12474,7 +12474,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="932">
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="942">
@@ -12630,7 +12630,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="946">
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="947">
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="952">
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="966">
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="967">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="968">
@@ -12955,7 +12955,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="969">
@@ -12968,7 +12968,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="970">
@@ -12981,6 +12981,45 @@
         </is>
       </c>
       <c r="C970" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>44156</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>44156</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>44156</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
         <v>12</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C973"/>
+  <dimension ref="A1:C983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10277,7 +10277,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="763">
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="875">
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="942">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -12799,7 +12799,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="957">
@@ -12825,7 +12825,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="961">
@@ -12864,7 +12864,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="962">
@@ -12877,7 +12877,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -12903,7 +12903,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="965">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="968">
@@ -12951,11 +12951,11 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C968" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
@@ -12964,11 +12964,11 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C969" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="970">
@@ -12977,24 +12977,24 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C970" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C971" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="972">
@@ -13003,11 +13003,11 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C972" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973">
@@ -13016,11 +13016,141 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C973" t="n">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>44156</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>44156</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C980" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C983"/>
+  <dimension ref="A1:C986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="921">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="926">
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="942">
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="961">
@@ -12864,7 +12864,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="962">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="968">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="972">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="976">
@@ -13085,7 +13085,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="979">
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="980">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="981">
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="982">
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="983">
@@ -13150,7 +13150,46 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>17</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>44159</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>44159</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>44159</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C986"/>
+  <dimension ref="A1:C996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="824">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="871">
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="952">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="972">
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="980">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="981">
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="984">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C985" t="n">
@@ -13185,10 +13185,140 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C986" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>44159</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C994" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>44161</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
         <v>15</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C996"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="835">
@@ -12799,7 +12799,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="957">
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="966">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="976">
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="983">
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="984">
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="986">
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="987">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="988">
@@ -13241,7 +13241,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="991">
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="992">
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="993">
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="994">
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="995">
@@ -13306,7 +13306,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="996">
@@ -13319,7 +13319,59 @@
         </is>
       </c>
       <c r="C996" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="971">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="976">
@@ -13319,7 +13319,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="997">
@@ -13345,7 +13345,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="999">
@@ -13358,7 +13358,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1000">
@@ -13371,7 +13371,46 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>10</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>44163</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>44163</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>44163</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1003"/>
+  <dimension ref="A1:C1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="988">
@@ -13358,7 +13358,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1000">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1001">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1001" t="n">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1002" t="n">
@@ -13406,11 +13406,102 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>44163</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>44163</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>44163</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1008" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1010"/>
+  <dimension ref="A1:C1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="861">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="871">
@@ -12240,7 +12240,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="914">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="918">
@@ -12383,7 +12383,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="925">
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="947">
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="952">
@@ -12799,7 +12799,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="957">
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="966">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="968">
@@ -12955,7 +12955,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="971">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="972">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="976">
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="980">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="981">
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="984">
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="986">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="988">
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="992">
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="993">
@@ -13276,11 +13276,11 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C993" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -13289,11 +13289,11 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C994" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="995">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C995" t="n">
@@ -13315,24 +13315,24 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C996" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C997" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="998">
@@ -13341,11 +13341,11 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C998" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -13354,11 +13354,11 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C999" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1000">
@@ -13367,24 +13367,24 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1002">
@@ -13393,11 +13393,11 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1003" t="n">
@@ -13419,11 +13419,11 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -13432,11 +13432,11 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1006">
@@ -13445,24 +13445,24 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1008">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1008" t="n">
@@ -13484,11 +13484,11 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1010">
@@ -13497,11 +13497,89 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>0-19</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1016"/>
+  <dimension ref="A1:C1020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="967">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="968">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="972">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="976">
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="980">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="981">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="988">
@@ -13241,7 +13241,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="991">
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="992">
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="993">
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="998">
@@ -13358,7 +13358,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1000">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1001">
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1002">
@@ -13436,7 +13436,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1006">
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1007">
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1008">
@@ -13475,7 +13475,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1010">
@@ -13501,7 +13501,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1011">
@@ -13514,7 +13514,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1012">
@@ -13553,7 +13553,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1015">
@@ -13566,7 +13566,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1016">
@@ -13579,7 +13579,59 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>15</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1020"/>
+  <dimension ref="A1:C1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="971">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="988">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C988" t="n">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C989" t="n">
@@ -13237,11 +13237,11 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C990" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991">
@@ -13250,11 +13250,11 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C991" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="992">
@@ -13263,24 +13263,24 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C992" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C993" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="994">
@@ -13289,11 +13289,11 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C994" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -13302,11 +13302,11 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C995" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="996">
@@ -13315,11 +13315,11 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C996" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="997">
@@ -13328,24 +13328,24 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C997" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C998" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="999">
@@ -13354,11 +13354,11 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C999" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1000">
@@ -13367,11 +13367,11 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1001">
@@ -13380,24 +13380,24 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1003">
@@ -13406,11 +13406,11 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004">
@@ -13419,11 +13419,11 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -13432,11 +13432,11 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006">
@@ -13445,11 +13445,11 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1007">
@@ -13458,24 +13458,24 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1009">
@@ -13484,11 +13484,11 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -13497,11 +13497,11 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1011">
@@ -13510,24 +13510,24 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1013">
@@ -13536,11 +13536,11 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>0-19</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014">
@@ -13549,11 +13549,11 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -13562,11 +13562,11 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1016">
@@ -13575,24 +13575,24 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1018">
@@ -13601,11 +13601,11 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>0-19</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -13614,11 +13614,11 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -13627,11 +13627,219 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>17</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1022" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1028" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1029" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1030" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1031" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1032" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1033" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1034" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1035" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1036" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1036"/>
+  <dimension ref="A1:C1041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12903,7 +12903,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="965">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1026">
@@ -13709,7 +13709,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1027">
@@ -13774,7 +13774,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1032">
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1033">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1033" t="n">
@@ -13809,11 +13809,11 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035">
@@ -13822,11 +13822,11 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -13835,11 +13835,76 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>21</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>44170</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>44170</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>44170</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1053"/>
+  <dimension ref="A1:C1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12136,7 +12136,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="906">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="918">
@@ -12474,7 +12474,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="932">
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="952">
@@ -12799,7 +12799,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="957">
@@ -12838,7 +12838,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="960">
@@ -12864,7 +12864,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="962">
@@ -13033,7 +13033,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="975">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="976">
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="980">
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="981">
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="983">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="998">
@@ -13345,7 +13345,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="999">
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1002">
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1003">
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1008">
@@ -13475,7 +13475,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1009">
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1020">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1026">
@@ -13761,7 +13761,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1031">
@@ -13774,7 +13774,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1032">
@@ -13839,7 +13839,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1037">
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1038">
@@ -13861,11 +13861,11 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -13874,11 +13874,11 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1040">
@@ -13887,11 +13887,11 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1041">
@@ -13900,24 +13900,24 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043">
@@ -13926,11 +13926,11 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1044">
@@ -13939,11 +13939,11 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1045">
@@ -13952,37 +13952,37 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -13991,11 +13991,11 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -14004,11 +14004,11 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1050">
@@ -14017,11 +14017,11 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1051">
@@ -14030,37 +14030,63 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1055"/>
+  <dimension ref="A1:C1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13003,11 +13003,11 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C972" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="973">
@@ -13016,11 +13016,11 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C973" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="974">
@@ -13029,24 +13029,24 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C974" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C975" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976">
@@ -13055,11 +13055,11 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977">
@@ -13068,11 +13068,11 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C977" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="978">
@@ -13081,11 +13081,11 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C978" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="979">
@@ -13094,24 +13094,24 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C979" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C980" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="981">
@@ -13120,11 +13120,11 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C981" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="982">
@@ -13133,24 +13133,24 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C982" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C983" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C984" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="985">
@@ -13172,11 +13172,11 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C985" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="986">
@@ -13185,24 +13185,24 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C986" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C987" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C988" t="n">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C989" t="n">
@@ -13237,11 +13237,11 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C990" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="991">
@@ -13250,11 +13250,11 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C991" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="992">
@@ -13263,24 +13263,24 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C992" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C993" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -13289,11 +13289,11 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C994" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="995">
@@ -13302,11 +13302,11 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C995" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="996">
@@ -13315,11 +13315,11 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C996" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="997">
@@ -13328,24 +13328,24 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C997" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C998" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="999">
@@ -13354,11 +13354,11 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C999" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1000">
@@ -13367,11 +13367,11 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1001">
@@ -13380,24 +13380,24 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -13406,11 +13406,11 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -13419,11 +13419,11 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -13432,11 +13432,11 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1006">
@@ -13445,11 +13445,11 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1007">
@@ -13458,24 +13458,24 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -13484,11 +13484,11 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1010">
@@ -13497,11 +13497,11 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1011">
@@ -13510,24 +13510,24 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -13536,11 +13536,11 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1014">
@@ -13549,11 +13549,11 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1015">
@@ -13562,24 +13562,24 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -13588,11 +13588,11 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -13601,11 +13601,11 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1019">
@@ -13614,11 +13614,11 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1020">
@@ -13627,24 +13627,24 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -13653,11 +13653,11 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1023">
@@ -13666,11 +13666,11 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1024">
@@ -13679,11 +13679,11 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1025">
@@ -13692,24 +13692,24 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027">
@@ -13718,7 +13718,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1027" t="n">
@@ -13731,11 +13731,11 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1029">
@@ -13744,11 +13744,11 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1030">
@@ -13757,24 +13757,24 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -13796,11 +13796,11 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -13809,11 +13809,11 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1035">
@@ -13822,11 +13822,11 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1036">
@@ -13835,24 +13835,24 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -13861,11 +13861,11 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1039">
@@ -13874,11 +13874,11 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1040">
@@ -13887,24 +13887,24 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1044">
@@ -13956,7 +13956,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1046">
@@ -14008,7 +14008,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1050">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1051">
@@ -14034,7 +14034,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1052">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>0-19</t>
         </is>
       </c>
       <c r="C1052" t="n">
@@ -14056,11 +14056,11 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -14069,11 +14069,11 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -14082,11 +14082,89 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>17</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1061"/>
+  <dimension ref="A1:C1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12461,7 +12461,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="931">
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1002">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1036">
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1049">
@@ -14034,7 +14034,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1052">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1052" t="n">
@@ -14056,11 +14056,11 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -14069,11 +14069,11 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1055">
@@ -14082,11 +14082,11 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1056">
@@ -14095,24 +14095,24 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>0-19</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -14138,7 +14138,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1060">
@@ -14151,7 +14151,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1061">
@@ -14164,7 +14164,59 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>23</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1065"/>
+  <dimension ref="A1:C1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="973">
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="980">
@@ -13215,7 +13215,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989">
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1008">
@@ -13514,7 +13514,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1012">
@@ -13631,7 +13631,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1021">
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1025">
@@ -13761,7 +13761,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1031">
@@ -13839,7 +13839,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1037">
@@ -13891,7 +13891,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1041">
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1044">
@@ -13956,7 +13956,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1046">
@@ -14108,11 +14108,11 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -14121,11 +14121,11 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1059">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1060">
@@ -14147,24 +14147,24 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1063">
@@ -14190,7 +14190,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1064">
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1065">
@@ -14216,7 +14216,124 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>11</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>30-39</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>44177</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>44177</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>44177</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1074"/>
+  <dimension ref="A1:C1083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10078,11 +10078,11 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -10091,11 +10091,11 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -10104,24 +10104,24 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -10130,11 +10130,11 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -10143,11 +10143,11 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="753">
@@ -10156,24 +10156,24 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -10182,11 +10182,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="756">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C756" t="n">
@@ -10208,24 +10208,24 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -10234,11 +10234,11 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -10247,11 +10247,11 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -10260,24 +10260,24 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763">
@@ -10286,11 +10286,11 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="764">
@@ -10299,24 +10299,24 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C766" t="n">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C767" t="n">
@@ -10351,11 +10351,11 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -10364,24 +10364,24 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C769" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -10390,11 +10390,11 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="772">
@@ -10403,24 +10403,24 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -10429,11 +10429,11 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="775">
@@ -10442,24 +10442,24 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -10468,11 +10468,11 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="778">
@@ -10481,24 +10481,24 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C780" t="n">
@@ -10520,11 +10520,11 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -10533,24 +10533,24 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -10559,11 +10559,11 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="785">
@@ -10572,24 +10572,24 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C787" t="n">
@@ -10611,11 +10611,11 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="789">
@@ -10624,24 +10624,24 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -10650,11 +10650,11 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="792">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="793">
@@ -10676,24 +10676,24 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -10702,11 +10702,11 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -10715,11 +10715,11 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="797">
@@ -10728,24 +10728,24 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -10767,11 +10767,11 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="801">
@@ -10780,11 +10780,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="802">
@@ -10793,24 +10793,24 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C804" t="n">
@@ -10832,11 +10832,11 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="806">
@@ -10845,11 +10845,11 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="807">
@@ -10858,24 +10858,24 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -10884,11 +10884,11 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -10897,11 +10897,11 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -10910,11 +10910,11 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="812">
@@ -10923,24 +10923,24 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="814">
@@ -10949,11 +10949,11 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="815">
@@ -10962,24 +10962,24 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C817" t="n">
@@ -11001,11 +11001,11 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="819">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C819" t="n">
@@ -11023,15 +11023,15 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C821" t="n">
@@ -11053,11 +11053,11 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="823">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C823" t="n">
@@ -11079,24 +11079,24 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826">
@@ -11105,11 +11105,11 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -11118,11 +11118,11 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -11144,24 +11144,24 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -11170,11 +11170,11 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832">
@@ -11183,11 +11183,11 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="833">
@@ -11196,24 +11196,24 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C835" t="n">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="837">
@@ -11248,24 +11248,24 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C837" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -11274,11 +11274,11 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -11300,11 +11300,11 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="842">
@@ -11313,24 +11313,24 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -11352,11 +11352,11 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="846">
@@ -11365,11 +11365,11 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="847">
@@ -11378,24 +11378,24 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -11404,11 +11404,11 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -11430,11 +11430,11 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="852">
@@ -11443,11 +11443,11 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="853">
@@ -11456,24 +11456,24 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C855" t="n">
@@ -11495,11 +11495,11 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857">
@@ -11508,11 +11508,11 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="858">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -11534,24 +11534,24 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -11599,11 +11599,11 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="865">
@@ -11612,24 +11612,24 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C866" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -11638,11 +11638,11 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C867" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="868">
@@ -11651,11 +11651,11 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="869">
@@ -11664,24 +11664,24 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C870" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -11690,11 +11690,11 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C871" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="872">
@@ -11703,11 +11703,11 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="873">
@@ -11716,11 +11716,11 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C873" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="874">
@@ -11729,24 +11729,24 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C874" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C875" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="876">
@@ -11755,11 +11755,11 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C876" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="877">
@@ -11768,11 +11768,11 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C877" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="878">
@@ -11781,24 +11781,24 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C878" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C879" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -11820,11 +11820,11 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="882">
@@ -11833,11 +11833,11 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C882" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="883">
@@ -11846,24 +11846,24 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -11872,11 +11872,11 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -11885,11 +11885,11 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C886" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="887">
@@ -11898,11 +11898,11 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889">
@@ -11924,24 +11924,24 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -11950,11 +11950,11 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="892">
@@ -11963,11 +11963,11 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C892" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -11976,24 +11976,24 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C893" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="895">
@@ -12002,11 +12002,11 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="896">
@@ -12015,24 +12015,24 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C896" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -12041,11 +12041,11 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="899">
@@ -12054,24 +12054,24 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C900" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -12080,11 +12080,11 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="902">
@@ -12093,11 +12093,11 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C902" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="903">
@@ -12106,11 +12106,11 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C903" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="904">
@@ -12119,24 +12119,24 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C905" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="906">
@@ -12145,11 +12145,11 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C906" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="907">
@@ -12158,11 +12158,11 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C907" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="908">
@@ -12171,24 +12171,24 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C908" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C909" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910">
@@ -12197,11 +12197,11 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C910" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="911">
@@ -12210,11 +12210,11 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C911" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="912">
@@ -12223,24 +12223,24 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C912" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C913" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -12249,11 +12249,11 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C914" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="915">
@@ -12262,11 +12262,11 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C915" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="916">
@@ -12275,24 +12275,24 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C916" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C917" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -12301,11 +12301,11 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="919">
@@ -12314,11 +12314,11 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C919" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="920">
@@ -12327,24 +12327,24 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C920" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C921" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -12353,11 +12353,11 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C922" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -12366,11 +12366,11 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C923" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="924">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C924" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="925">
@@ -12392,24 +12392,24 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C925" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C926" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C927" t="n">
@@ -12431,11 +12431,11 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C928" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="929">
@@ -12444,11 +12444,11 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C929" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="930">
@@ -12457,24 +12457,24 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C930" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C931" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -12483,11 +12483,11 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C932" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933">
@@ -12496,11 +12496,11 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C933" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="934">
@@ -12509,11 +12509,11 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C934" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="935">
@@ -12522,24 +12522,24 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C935" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C936" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -12548,11 +12548,11 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C937" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C938" t="n">
@@ -12574,11 +12574,11 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C939" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="940">
@@ -12587,24 +12587,24 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C940" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C941" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -12613,11 +12613,11 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C942" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -12626,11 +12626,11 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C943" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="944">
@@ -12639,11 +12639,11 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C944" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="945">
@@ -12652,24 +12652,24 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C945" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C946" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947">
@@ -12678,11 +12678,11 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948">
@@ -12691,11 +12691,11 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C948" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="949">
@@ -12704,11 +12704,11 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C949" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="950">
@@ -12717,24 +12717,24 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C950" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>20-29</t>
         </is>
       </c>
       <c r="C951" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -12743,11 +12743,11 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C952" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -12756,11 +12756,11 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C953" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="954">
@@ -12769,11 +12769,11 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C954" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="955">
@@ -12782,24 +12782,24 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C955" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C956" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C957" t="n">
@@ -12821,11 +12821,11 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C958" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="959">
@@ -12834,11 +12834,11 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C959" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="960">
@@ -12847,24 +12847,24 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C960" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C961" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C962" t="n">
@@ -12886,11 +12886,11 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C963" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="964">
@@ -12899,11 +12899,11 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C964" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="965">
@@ -12912,11 +12912,11 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C965" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="966">
@@ -12925,24 +12925,24 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C966" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C967" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968">
@@ -12951,11 +12951,11 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C968" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="969">
@@ -12964,11 +12964,11 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C969" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="970">
@@ -12977,24 +12977,24 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C970" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C971" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="972">
@@ -13003,11 +13003,11 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C972" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="973">
@@ -13016,24 +13016,24 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C973" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C974" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975">
@@ -13042,11 +13042,11 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C975" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -13055,11 +13055,11 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C976" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="977">
@@ -13068,11 +13068,11 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C977" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="978">
@@ -13081,24 +13081,24 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C978" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C979" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="980">
@@ -13107,11 +13107,11 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C980" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="981">
@@ -13120,24 +13120,24 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C981" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C982" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -13146,11 +13146,11 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C983" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="984">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C984" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="985">
@@ -13172,24 +13172,24 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C985" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C986" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -13198,11 +13198,11 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C987" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988">
@@ -13211,11 +13211,11 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C988" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989">
@@ -13224,11 +13224,11 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C989" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="990">
@@ -13237,11 +13237,11 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C990" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="991">
@@ -13250,24 +13250,24 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C991" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C992" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -13276,11 +13276,11 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C993" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="994">
@@ -13289,11 +13289,11 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C994" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="995">
@@ -13302,11 +13302,11 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C995" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="996">
@@ -13315,24 +13315,24 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C996" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C997" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="998">
@@ -13341,11 +13341,11 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C998" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="999">
@@ -13354,11 +13354,11 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C999" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1000">
@@ -13367,24 +13367,24 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -13393,11 +13393,11 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003">
@@ -13406,11 +13406,11 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -13419,11 +13419,11 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1005">
@@ -13432,11 +13432,11 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1006">
@@ -13445,24 +13445,24 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008">
@@ -13471,11 +13471,11 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1009">
@@ -13484,11 +13484,11 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1010">
@@ -13497,24 +13497,24 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -13523,11 +13523,11 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1013">
@@ -13536,11 +13536,11 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1014">
@@ -13549,24 +13549,24 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -13575,11 +13575,11 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -13588,11 +13588,11 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1018">
@@ -13601,11 +13601,11 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1019">
@@ -13614,24 +13614,24 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021">
@@ -13640,11 +13640,11 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1022">
@@ -13653,11 +13653,11 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1023">
@@ -13666,11 +13666,11 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1024">
@@ -13679,24 +13679,24 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1026" t="n">
@@ -13718,11 +13718,11 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1028">
@@ -13731,11 +13731,11 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1029">
@@ -13744,24 +13744,24 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -13770,11 +13770,11 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1032" t="n">
@@ -13796,11 +13796,11 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1034">
@@ -13809,11 +13809,11 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1035">
@@ -13822,24 +13822,24 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037">
@@ -13848,11 +13848,11 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1038">
@@ -13861,11 +13861,11 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1039">
@@ -13874,24 +13874,24 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -13900,11 +13900,11 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>20-29</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1042">
@@ -13913,11 +13913,11 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1043">
@@ -13926,37 +13926,37 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -13965,11 +13965,11 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1047">
@@ -13978,11 +13978,11 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1048">
@@ -13991,11 +13991,11 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1049">
@@ -14004,37 +14004,37 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -14043,11 +14043,11 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1053">
@@ -14056,11 +14056,11 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1054">
@@ -14069,37 +14069,37 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1057">
@@ -14108,11 +14108,11 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1058">
@@ -14121,37 +14121,37 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1061">
@@ -14160,11 +14160,11 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1062">
@@ -14173,11 +14173,11 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1063">
@@ -14186,37 +14186,37 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -14225,11 +14225,11 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>30-39</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1067">
@@ -14238,11 +14238,11 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>40-49</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1068">
@@ -14251,11 +14251,11 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1069">
@@ -14264,37 +14264,37 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1072">
@@ -14303,11 +14303,11 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1073">
@@ -14316,24 +14316,141 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>80+</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="C1074" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>40-49</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1083"/>
+  <dimension ref="A1:C1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="961">
@@ -13085,7 +13085,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="979">
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="982">
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="986">
@@ -13241,7 +13241,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="991">
@@ -13345,7 +13345,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="999">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1001">
@@ -13501,7 +13501,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1011">
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1014">
@@ -13553,7 +13553,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1015">
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1020">
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1025">
@@ -13735,7 +13735,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1029">
@@ -13748,7 +13748,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1030">
@@ -13813,7 +13813,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1035">
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1040">
@@ -13930,7 +13930,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1044">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1048">
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1055">
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1058">
@@ -14125,7 +14125,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1059">
@@ -14138,7 +14138,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1063">
@@ -14190,7 +14190,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1064">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1069">
@@ -14268,7 +14268,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1070">
@@ -14294,7 +14294,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1072">
@@ -14307,7 +14307,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1073">
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1074">
@@ -14372,7 +14372,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1078">
@@ -14385,7 +14385,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1079">
@@ -14398,7 +14398,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1080">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>50-59</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>60-69</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="C1081" t="n">
@@ -14433,11 +14433,11 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>70-79</t>
+          <t>60-69</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1083">
@@ -14446,11 +14446,76 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>80+</t>
+          <t>70-79</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>14</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>50-59</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>60-69</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>70-79</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>80+</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1094"/>
+  <dimension ref="A1:C1101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11114,7 +11114,7 @@
         <v>5</v>
       </c>
       <c r="C973">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11125,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="C974">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11202,7 +11202,7 @@
         <v>5</v>
       </c>
       <c r="C981">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11323,7 +11323,7 @@
         <v>3</v>
       </c>
       <c r="C992">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11378,7 +11378,7 @@
         <v>3</v>
       </c>
       <c r="C997">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11422,7 +11422,7 @@
         <v>3</v>
       </c>
       <c r="C1001">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11576,7 +11576,7 @@
         <v>3</v>
       </c>
       <c r="C1015">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11631,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="C1020">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11807,7 +11807,7 @@
         <v>3</v>
       </c>
       <c r="C1036">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -12027,7 +12027,7 @@
         <v>6</v>
       </c>
       <c r="C1056">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
@@ -12038,7 +12038,7 @@
         <v>4</v>
       </c>
       <c r="C1057">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12060,7 +12060,7 @@
         <v>3</v>
       </c>
       <c r="C1059">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12148,7 +12148,7 @@
         <v>6</v>
       </c>
       <c r="C1067">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12159,7 +12159,7 @@
         <v>4</v>
       </c>
       <c r="C1068">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
@@ -12214,7 +12214,7 @@
         <v>5</v>
       </c>
       <c r="C1073">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12225,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="C1074">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12335,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="C1084">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12346,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="C1085">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12379,7 +12379,7 @@
         <v>4</v>
       </c>
       <c r="C1088">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1089" spans="1:3">
@@ -12390,7 +12390,7 @@
         <v>5</v>
       </c>
       <c r="C1089">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1090" spans="1:3">
@@ -12401,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="C1090">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12409,7 +12409,7 @@
         <v>44181</v>
       </c>
       <c r="B1091" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1091">
         <v>1</v>
@@ -12420,10 +12420,10 @@
         <v>44181</v>
       </c>
       <c r="B1092" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1092">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -12431,10 +12431,10 @@
         <v>44181</v>
       </c>
       <c r="B1093" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1093">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1094" spans="1:3">
@@ -12442,10 +12442,87 @@
         <v>44181</v>
       </c>
       <c r="B1094" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1094">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
+      <c r="A1095" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1095">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c r="A1096" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1096">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
+      <c r="A1097" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
+      <c r="A1098" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1098">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c r="A1099" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1099">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
+      <c r="A1100" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3">
+      <c r="A1101" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1101">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1101"/>
+  <dimension ref="A1:C1120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6956,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="C595">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -10355,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="C904">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10531,7 +10531,7 @@
         <v>3</v>
       </c>
       <c r="C920">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10586,7 +10586,7 @@
         <v>3</v>
       </c>
       <c r="C925">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10641,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="C930">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10806,7 +10806,7 @@
         <v>3</v>
       </c>
       <c r="C945">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -11070,7 +11070,7 @@
         <v>4</v>
       </c>
       <c r="C969">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11125,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="C974">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11169,7 +11169,7 @@
         <v>5</v>
       </c>
       <c r="C978">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11257,7 +11257,7 @@
         <v>3</v>
       </c>
       <c r="C986">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11334,7 +11334,7 @@
         <v>8</v>
       </c>
       <c r="C993">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11631,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="C1020">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11686,7 +11686,7 @@
         <v>3</v>
       </c>
       <c r="C1025">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11741,7 +11741,7 @@
         <v>3</v>
       </c>
       <c r="C1030">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11851,7 +11851,7 @@
         <v>3</v>
       </c>
       <c r="C1040">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11950,7 +11950,7 @@
         <v>5</v>
       </c>
       <c r="C1049">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -11961,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="C1050">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11994,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="C1053">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -12016,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="C1055">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12038,7 +12038,7 @@
         <v>4</v>
       </c>
       <c r="C1057">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12060,7 +12060,7 @@
         <v>3</v>
       </c>
       <c r="C1059">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12082,7 +12082,7 @@
         <v>6</v>
       </c>
       <c r="C1061">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12093,7 +12093,7 @@
         <v>4</v>
       </c>
       <c r="C1062">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
@@ -12104,7 +12104,7 @@
         <v>5</v>
       </c>
       <c r="C1063">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12115,7 +12115,7 @@
         <v>3</v>
       </c>
       <c r="C1064">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12181,7 +12181,7 @@
         <v>3</v>
       </c>
       <c r="C1070">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -12214,7 +12214,7 @@
         <v>5</v>
       </c>
       <c r="C1073">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12225,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="C1074">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12280,7 +12280,7 @@
         <v>5</v>
       </c>
       <c r="C1079">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1080" spans="1:3">
@@ -12291,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="C1080">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
@@ -12324,7 +12324,7 @@
         <v>4</v>
       </c>
       <c r="C1083">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1084" spans="1:3">
@@ -12346,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="C1085">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12401,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="C1090">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12412,7 +12412,7 @@
         <v>7</v>
       </c>
       <c r="C1091">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:3">
@@ -12445,7 +12445,7 @@
         <v>4</v>
       </c>
       <c r="C1094">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1095" spans="1:3">
@@ -12456,7 +12456,7 @@
         <v>5</v>
       </c>
       <c r="C1095">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12467,7 +12467,7 @@
         <v>3</v>
       </c>
       <c r="C1096">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
@@ -12475,7 +12475,7 @@
         <v>44182</v>
       </c>
       <c r="B1097" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1097">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>6</v>
       </c>
       <c r="C1098">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
@@ -12500,7 +12500,7 @@
         <v>4</v>
       </c>
       <c r="C1099">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
@@ -12511,7 +12511,7 @@
         <v>5</v>
       </c>
       <c r="C1100">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12522,7 +12522,216 @@
         <v>3</v>
       </c>
       <c r="C1101">
-        <v>12</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
+      <c r="A1102" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3">
+      <c r="A1103" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
+      <c r="A1104" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
+      <c r="A1105" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1105">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
+      <c r="A1106" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
+      <c r="A1107" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3">
+      <c r="A1108" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3">
+      <c r="A1109" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1109">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3">
+      <c r="A1110" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3">
+      <c r="A1111" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3">
+      <c r="A1112" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1112">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3">
+      <c r="A1113" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1113">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3">
+      <c r="A1114" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3">
+      <c r="A1115" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3">
+      <c r="A1116" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1116">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3">
+      <c r="A1117" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
+      <c r="A1118" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
+      <c r="A1119" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
+      <c r="A1120" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1120">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1120"/>
+  <dimension ref="A1:C1126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11323,7 +11323,7 @@
         <v>3</v>
       </c>
       <c r="C992">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11895,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="C1044">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -12049,7 +12049,7 @@
         <v>5</v>
       </c>
       <c r="C1058">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12258,7 +12258,7 @@
         <v>6</v>
       </c>
       <c r="C1077">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:3">
@@ -12335,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="C1084">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12346,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="C1085">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12456,7 +12456,7 @@
         <v>5</v>
       </c>
       <c r="C1095">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12467,7 +12467,7 @@
         <v>3</v>
       </c>
       <c r="C1096">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
@@ -12500,7 +12500,7 @@
         <v>4</v>
       </c>
       <c r="C1099">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
@@ -12555,7 +12555,7 @@
         <v>5</v>
       </c>
       <c r="C1104">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12566,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="C1105">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
@@ -12588,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="C1107">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -12610,7 +12610,7 @@
         <v>3</v>
       </c>
       <c r="C1109">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
@@ -12654,7 +12654,7 @@
         <v>3</v>
       </c>
       <c r="C1113">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12676,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="C1115">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12687,7 +12687,7 @@
         <v>5</v>
       </c>
       <c r="C1116">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12698,7 +12698,7 @@
         <v>3</v>
       </c>
       <c r="C1117">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12706,10 +12706,10 @@
         <v>44187</v>
       </c>
       <c r="B1118" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12717,10 +12717,10 @@
         <v>44187</v>
       </c>
       <c r="B1119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1119">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
@@ -12728,10 +12728,76 @@
         <v>44187</v>
       </c>
       <c r="B1120" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1120">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
+      <c r="A1121" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
+      <c r="A1122" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
+      <c r="A1123" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c r="A1124" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
+      <c r="A1125" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1125">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
+      <c r="A1126" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1126">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1126"/>
+  <dimension ref="A1:C1152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11378,7 +11378,7 @@
         <v>3</v>
       </c>
       <c r="C997">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11895,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="C1044">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -12016,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="C1055">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12082,7 +12082,7 @@
         <v>6</v>
       </c>
       <c r="C1061">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12115,7 +12115,7 @@
         <v>3</v>
       </c>
       <c r="C1064">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12291,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="C1080">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
@@ -12346,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="C1085">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12368,7 +12368,7 @@
         <v>6</v>
       </c>
       <c r="C1087">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
@@ -12401,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="C1090">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12456,7 +12456,7 @@
         <v>5</v>
       </c>
       <c r="C1095">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12467,7 +12467,7 @@
         <v>3</v>
       </c>
       <c r="C1096">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
@@ -12511,7 +12511,7 @@
         <v>5</v>
       </c>
       <c r="C1100">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12522,7 +12522,7 @@
         <v>3</v>
       </c>
       <c r="C1101">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
@@ -12544,7 +12544,7 @@
         <v>4</v>
       </c>
       <c r="C1103">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12555,7 +12555,7 @@
         <v>5</v>
       </c>
       <c r="C1104">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12566,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="C1105">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
@@ -12588,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="C1107">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -12599,7 +12599,7 @@
         <v>5</v>
       </c>
       <c r="C1108">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12610,7 +12610,7 @@
         <v>3</v>
       </c>
       <c r="C1109">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
@@ -12643,7 +12643,7 @@
         <v>5</v>
       </c>
       <c r="C1112">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -12654,7 +12654,7 @@
         <v>3</v>
       </c>
       <c r="C1113">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12676,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="C1115">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12687,7 +12687,7 @@
         <v>5</v>
       </c>
       <c r="C1116">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12698,7 +12698,7 @@
         <v>3</v>
       </c>
       <c r="C1117">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12731,7 +12731,7 @@
         <v>6</v>
       </c>
       <c r="C1120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -12753,7 +12753,7 @@
         <v>5</v>
       </c>
       <c r="C1122">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12764,7 +12764,7 @@
         <v>3</v>
       </c>
       <c r="C1123">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -12772,7 +12772,7 @@
         <v>44188</v>
       </c>
       <c r="B1124" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1124">
         <v>1</v>
@@ -12783,10 +12783,10 @@
         <v>44188</v>
       </c>
       <c r="B1125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1125">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
@@ -12794,10 +12794,296 @@
         <v>44188</v>
       </c>
       <c r="B1126" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1126">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
+      <c r="A1127" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
+      <c r="A1128" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
+      <c r="A1129" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1129">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3">
+      <c r="A1130" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3">
+      <c r="A1131" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3">
+      <c r="A1132" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3">
+      <c r="A1133" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1133">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3">
+      <c r="A1134" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3">
+      <c r="A1135" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3">
+      <c r="A1136" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3">
+      <c r="A1137" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3">
+      <c r="A1138" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1138">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3">
+      <c r="A1139" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3">
+      <c r="A1140" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3">
+      <c r="A1141" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
+      <c r="A1142" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3">
+      <c r="A1143" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3">
+      <c r="A1144" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3">
+      <c r="A1145" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3">
+      <c r="A1146" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1146">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3">
+      <c r="A1147" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3">
+      <c r="A1148" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3">
+      <c r="A1149" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3">
+      <c r="A1150" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3">
+      <c r="A1151" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3">
+      <c r="A1152" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1152">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1152"/>
+  <dimension ref="A1:C1157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8562,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="C741">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -9354,7 +9354,7 @@
         <v>4</v>
       </c>
       <c r="C813">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -10443,7 +10443,7 @@
         <v>3</v>
       </c>
       <c r="C912">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -11807,7 +11807,7 @@
         <v>3</v>
       </c>
       <c r="C1036">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11895,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="C1044">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11961,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="C1050">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11994,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="C1053">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -12346,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="C1085">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12401,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="C1090">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12687,7 +12687,7 @@
         <v>5</v>
       </c>
       <c r="C1116">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12698,7 +12698,7 @@
         <v>3</v>
       </c>
       <c r="C1117">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12753,7 +12753,7 @@
         <v>5</v>
       </c>
       <c r="C1122">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12819,7 +12819,7 @@
         <v>5</v>
       </c>
       <c r="C1128">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -12830,7 +12830,7 @@
         <v>3</v>
       </c>
       <c r="C1129">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -12852,7 +12852,7 @@
         <v>4</v>
       </c>
       <c r="C1131">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -12863,7 +12863,7 @@
         <v>5</v>
       </c>
       <c r="C1132">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -12874,7 +12874,7 @@
         <v>3</v>
       </c>
       <c r="C1133">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -12907,7 +12907,7 @@
         <v>4</v>
       </c>
       <c r="C1136">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
@@ -12929,7 +12929,7 @@
         <v>3</v>
       </c>
       <c r="C1138">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
@@ -12940,7 +12940,7 @@
         <v>6</v>
       </c>
       <c r="C1139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
@@ -12951,7 +12951,7 @@
         <v>4</v>
       </c>
       <c r="C1140">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
@@ -12962,7 +12962,7 @@
         <v>5</v>
       </c>
       <c r="C1141">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -12973,7 +12973,7 @@
         <v>3</v>
       </c>
       <c r="C1142">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -12995,7 +12995,7 @@
         <v>6</v>
       </c>
       <c r="C1144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -13006,7 +13006,7 @@
         <v>4</v>
       </c>
       <c r="C1145">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
@@ -13017,7 +13017,7 @@
         <v>5</v>
       </c>
       <c r="C1146">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -13028,7 +13028,7 @@
         <v>3</v>
       </c>
       <c r="C1147">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
@@ -13039,7 +13039,7 @@
         <v>8</v>
       </c>
       <c r="C1148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:3">
@@ -13050,7 +13050,7 @@
         <v>6</v>
       </c>
       <c r="C1149">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
@@ -13061,7 +13061,7 @@
         <v>4</v>
       </c>
       <c r="C1150">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1151" spans="1:3">
@@ -13072,7 +13072,7 @@
         <v>5</v>
       </c>
       <c r="C1151">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1152" spans="1:3">
@@ -13083,7 +13083,62 @@
         <v>3</v>
       </c>
       <c r="C1152">
-        <v>13</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3">
+      <c r="A1153" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3">
+      <c r="A1154" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3">
+      <c r="A1155" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3">
+      <c r="A1156" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3">
+      <c r="A1157" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1157">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1157"/>
+  <dimension ref="A1:C1215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6010,7 +6010,7 @@
         <v>3</v>
       </c>
       <c r="C509">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8903,7 +8903,7 @@
         <v>3</v>
       </c>
       <c r="C772">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9090,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="C789">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9277,7 +9277,7 @@
         <v>5</v>
       </c>
       <c r="C806">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9288,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="C807">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9376,7 +9376,7 @@
         <v>3</v>
       </c>
       <c r="C815">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9563,7 +9563,7 @@
         <v>5</v>
       </c>
       <c r="C832">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9574,7 +9574,7 @@
         <v>3</v>
       </c>
       <c r="C833">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -10069,7 +10069,7 @@
         <v>3</v>
       </c>
       <c r="C878">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10817,7 +10817,7 @@
         <v>7</v>
       </c>
       <c r="C946">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -11180,7 +11180,7 @@
         <v>3</v>
       </c>
       <c r="C979">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11323,7 +11323,7 @@
         <v>3</v>
       </c>
       <c r="C992">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11510,7 +11510,7 @@
         <v>4</v>
       </c>
       <c r="C1009">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11576,7 +11576,7 @@
         <v>3</v>
       </c>
       <c r="C1015">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11620,7 +11620,7 @@
         <v>5</v>
       </c>
       <c r="C1019">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11796,7 +11796,7 @@
         <v>5</v>
       </c>
       <c r="C1035">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
@@ -11807,7 +11807,7 @@
         <v>3</v>
       </c>
       <c r="C1036">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11851,7 +11851,7 @@
         <v>3</v>
       </c>
       <c r="C1040">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11895,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="C1044">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11961,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="C1050">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11994,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="C1053">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -12016,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="C1055">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12060,7 +12060,7 @@
         <v>3</v>
       </c>
       <c r="C1059">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12104,7 +12104,7 @@
         <v>5</v>
       </c>
       <c r="C1063">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12170,7 +12170,7 @@
         <v>5</v>
       </c>
       <c r="C1069">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -12181,7 +12181,7 @@
         <v>3</v>
       </c>
       <c r="C1070">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -12214,7 +12214,7 @@
         <v>5</v>
       </c>
       <c r="C1073">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12225,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="C1074">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12291,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="C1080">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
@@ -12335,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="C1084">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12401,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="C1090">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12456,7 +12456,7 @@
         <v>5</v>
       </c>
       <c r="C1095">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12467,7 +12467,7 @@
         <v>3</v>
       </c>
       <c r="C1096">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
@@ -12489,7 +12489,7 @@
         <v>6</v>
       </c>
       <c r="C1098">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
@@ -12511,7 +12511,7 @@
         <v>5</v>
       </c>
       <c r="C1100">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12522,7 +12522,7 @@
         <v>3</v>
       </c>
       <c r="C1101">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
@@ -12555,7 +12555,7 @@
         <v>5</v>
       </c>
       <c r="C1104">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12566,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="C1105">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
@@ -12577,7 +12577,7 @@
         <v>6</v>
       </c>
       <c r="C1106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
@@ -12599,7 +12599,7 @@
         <v>5</v>
       </c>
       <c r="C1108">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12610,7 +12610,7 @@
         <v>3</v>
       </c>
       <c r="C1109">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
@@ -12618,10 +12618,10 @@
         <v>44185</v>
       </c>
       <c r="B1110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12629,10 +12629,10 @@
         <v>44185</v>
       </c>
       <c r="B1111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1111">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12640,10 +12640,10 @@
         <v>44185</v>
       </c>
       <c r="B1112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1112">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -12651,21 +12651,21 @@
         <v>44185</v>
       </c>
       <c r="B1113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1113">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
       <c r="A1114" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B1114" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1114">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
@@ -12673,10 +12673,10 @@
         <v>44186</v>
       </c>
       <c r="B1115" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1115">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12684,10 +12684,10 @@
         <v>44186</v>
       </c>
       <c r="B1116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1116">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12695,32 +12695,32 @@
         <v>44186</v>
       </c>
       <c r="B1117" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1117">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
       <c r="A1118" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B1118" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1118">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
       <c r="A1119" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B1119" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1119">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
@@ -12728,10 +12728,10 @@
         <v>44187</v>
       </c>
       <c r="B1120" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -12739,10 +12739,10 @@
         <v>44187</v>
       </c>
       <c r="B1121" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1121">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
@@ -12750,10 +12750,10 @@
         <v>44187</v>
       </c>
       <c r="B1122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1122">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12761,32 +12761,32 @@
         <v>44187</v>
       </c>
       <c r="B1123" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1123">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
       <c r="A1124" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B1124" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1124">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
       <c r="A1125" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B1125" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1125">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
@@ -12794,10 +12794,10 @@
         <v>44188</v>
       </c>
       <c r="B1126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12805,10 +12805,10 @@
         <v>44188</v>
       </c>
       <c r="B1127" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1127">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -12816,10 +12816,10 @@
         <v>44188</v>
       </c>
       <c r="B1128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1128">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -12827,32 +12827,32 @@
         <v>44188</v>
       </c>
       <c r="B1129" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1129">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
       <c r="A1130" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B1130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1130">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
       <c r="A1131" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B1131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1131">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -12860,10 +12860,10 @@
         <v>44189</v>
       </c>
       <c r="B1132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1132">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -12871,32 +12871,32 @@
         <v>44189</v>
       </c>
       <c r="B1133" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1133">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
       <c r="A1134" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B1134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1134">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1135" spans="1:3">
       <c r="A1135" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B1135" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1135">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
@@ -12904,10 +12904,10 @@
         <v>44190</v>
       </c>
       <c r="B1136" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1136">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
@@ -12915,10 +12915,10 @@
         <v>44190</v>
       </c>
       <c r="B1137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1137">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:3">
@@ -12926,18 +12926,18 @@
         <v>44190</v>
       </c>
       <c r="B1138" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1138">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
       <c r="A1139" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B1139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1139">
         <v>4</v>
@@ -12945,24 +12945,24 @@
     </row>
     <row r="1140" spans="1:3">
       <c r="A1140" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B1140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1140">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
       <c r="A1141" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B1141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1141">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -12970,43 +12970,43 @@
         <v>44191</v>
       </c>
       <c r="B1142" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1142">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
       <c r="A1143" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B1143" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1143">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1144" spans="1:3">
       <c r="A1144" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B1144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1144">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
       <c r="A1145" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B1145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1145">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
@@ -13014,10 +13014,10 @@
         <v>44192</v>
       </c>
       <c r="B1146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1146">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -13025,43 +13025,43 @@
         <v>44192</v>
       </c>
       <c r="B1147" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1147">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
       <c r="A1148" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B1148" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1148">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1149" spans="1:3">
       <c r="A1149" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B1149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1149">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
       <c r="A1150" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B1150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1150">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1151" spans="1:3">
@@ -13069,10 +13069,10 @@
         <v>44193</v>
       </c>
       <c r="B1151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1151">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:3">
@@ -13080,43 +13080,43 @@
         <v>44193</v>
       </c>
       <c r="B1152" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1152">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1153" spans="1:3">
       <c r="A1153" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B1153" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1153">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
       <c r="A1154" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B1154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1154">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
       <c r="A1155" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B1155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1155">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
@@ -13124,10 +13124,10 @@
         <v>44194</v>
       </c>
       <c r="B1156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1156">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13135,10 +13135,648 @@
         <v>44194</v>
       </c>
       <c r="B1157" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1157">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3">
+      <c r="A1158" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3">
+      <c r="A1159" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1159">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3">
+      <c r="A1160" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1160">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3">
+      <c r="A1161" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3">
+      <c r="A1162" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3">
+      <c r="A1163" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3">
+      <c r="A1164" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3">
+      <c r="A1165" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1165">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3">
+      <c r="A1166" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1166">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3">
+      <c r="A1167" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3">
+      <c r="A1168" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3">
+      <c r="A1169" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3">
+      <c r="A1170" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3">
+      <c r="A1171" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3">
+      <c r="A1172" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1172">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3">
+      <c r="A1173" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3">
+      <c r="A1174" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
+      <c r="A1175" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3">
+      <c r="A1176" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1176">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3">
+      <c r="A1177" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1177">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3">
+      <c r="A1178" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3">
+      <c r="A1179" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3">
+      <c r="A1180" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
+      <c r="A1181" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1181">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3">
+      <c r="A1182" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3">
+      <c r="A1183" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3">
+      <c r="A1184" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3">
+      <c r="A1185" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1185">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3">
+      <c r="A1186" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1186">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3">
+      <c r="A1187" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3">
+      <c r="A1188" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3">
+      <c r="A1189" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3">
+      <c r="A1190" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3">
+      <c r="A1191" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1191">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3">
+      <c r="A1192" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3">
+      <c r="A1193" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3">
+      <c r="A1194" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3">
+      <c r="A1195" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3">
+      <c r="A1196" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3">
+      <c r="A1197" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3">
+      <c r="A1198" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="A1199" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3">
+      <c r="A1200" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3">
+      <c r="A1201" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1201">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3">
+      <c r="A1202" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1202">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3">
+      <c r="A1203" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3">
+      <c r="A1204" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3">
+      <c r="A1205" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3">
+      <c r="A1206" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3">
+      <c r="A1207" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1207">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3">
+      <c r="A1208" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3">
+      <c r="A1209" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3">
+      <c r="A1210" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3">
+      <c r="A1211" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3">
+      <c r="A1212" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1212">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3">
+      <c r="A1213" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3">
+      <c r="A1214" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3">
+      <c r="A1215" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1215">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1215"/>
+  <dimension ref="A1:C1220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13732,7 +13732,7 @@
         <v>5</v>
       </c>
       <c r="C1211">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13743,7 +13743,7 @@
         <v>3</v>
       </c>
       <c r="C1212">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13765,7 +13765,7 @@
         <v>6</v>
       </c>
       <c r="C1214">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13773,9 +13773,64 @@
         <v>44205</v>
       </c>
       <c r="B1215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3">
+      <c r="A1216" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3">
+      <c r="A1217" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3">
+      <c r="A1218" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3">
+      <c r="A1219" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3">
+      <c r="A1220" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1220">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1220"/>
+  <dimension ref="A1:C1235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12123,7 +12123,7 @@
         <v>44176</v>
       </c>
       <c r="B1065" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1065">
         <v>1</v>
@@ -12134,10 +12134,10 @@
         <v>44176</v>
       </c>
       <c r="B1066" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1066">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
@@ -12145,10 +12145,10 @@
         <v>44176</v>
       </c>
       <c r="B1067" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1067">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12156,10 +12156,10 @@
         <v>44176</v>
       </c>
       <c r="B1068" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1068">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
@@ -12167,10 +12167,10 @@
         <v>44176</v>
       </c>
       <c r="B1069" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1069">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -12178,21 +12178,21 @@
         <v>44176</v>
       </c>
       <c r="B1070" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1070">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071" s="2">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B1071" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1071">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
@@ -12200,10 +12200,10 @@
         <v>44177</v>
       </c>
       <c r="B1072" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1072">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
@@ -12211,10 +12211,10 @@
         <v>44177</v>
       </c>
       <c r="B1073" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1073">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12222,21 +12222,21 @@
         <v>44177</v>
       </c>
       <c r="B1074" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1074">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
       <c r="A1075" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B1075" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1075">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1076" spans="1:3">
@@ -12244,10 +12244,10 @@
         <v>44178</v>
       </c>
       <c r="B1076" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1076">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:3">
@@ -12255,7 +12255,7 @@
         <v>44178</v>
       </c>
       <c r="B1077" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1077">
         <v>2</v>
@@ -12266,10 +12266,10 @@
         <v>44178</v>
       </c>
       <c r="B1078" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1078">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:3">
@@ -12277,10 +12277,10 @@
         <v>44178</v>
       </c>
       <c r="B1079" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1079">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1080" spans="1:3">
@@ -12288,21 +12288,21 @@
         <v>44178</v>
       </c>
       <c r="B1080" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1080">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
       <c r="A1081" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B1081" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1081">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1082" spans="1:3">
@@ -12310,10 +12310,10 @@
         <v>44179</v>
       </c>
       <c r="B1082" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1082">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -12321,10 +12321,10 @@
         <v>44179</v>
       </c>
       <c r="B1083" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1083">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1084" spans="1:3">
@@ -12332,10 +12332,10 @@
         <v>44179</v>
       </c>
       <c r="B1084" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1084">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12343,21 +12343,21 @@
         <v>44179</v>
       </c>
       <c r="B1085" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1085">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
       <c r="A1086" s="2">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B1086" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1086">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
@@ -12365,10 +12365,10 @@
         <v>44180</v>
       </c>
       <c r="B1087" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1087">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
@@ -12376,10 +12376,10 @@
         <v>44180</v>
       </c>
       <c r="B1088" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1088">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1089" spans="1:3">
@@ -12387,10 +12387,10 @@
         <v>44180</v>
       </c>
       <c r="B1089" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1089">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1090" spans="1:3">
@@ -12398,21 +12398,21 @@
         <v>44180</v>
       </c>
       <c r="B1090" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1090">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
       <c r="A1091" s="2">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B1091" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1091">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1092" spans="1:3">
@@ -12420,10 +12420,10 @@
         <v>44181</v>
       </c>
       <c r="B1092" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1092">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -12431,10 +12431,10 @@
         <v>44181</v>
       </c>
       <c r="B1093" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1093">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:3">
@@ -12442,10 +12442,10 @@
         <v>44181</v>
       </c>
       <c r="B1094" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1094">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1095" spans="1:3">
@@ -12453,10 +12453,10 @@
         <v>44181</v>
       </c>
       <c r="B1095" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1095">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12464,21 +12464,21 @@
         <v>44181</v>
       </c>
       <c r="B1096" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1096">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
       <c r="A1097" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B1097" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1097">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
@@ -12486,10 +12486,10 @@
         <v>44182</v>
       </c>
       <c r="B1098" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1098">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
@@ -12497,10 +12497,10 @@
         <v>44182</v>
       </c>
       <c r="B1099" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1099">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
@@ -12508,10 +12508,10 @@
         <v>44182</v>
       </c>
       <c r="B1100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1100">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12519,21 +12519,21 @@
         <v>44182</v>
       </c>
       <c r="B1101" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1101">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
       <c r="A1102" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B1102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1102">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1103" spans="1:3">
@@ -12541,10 +12541,10 @@
         <v>44183</v>
       </c>
       <c r="B1103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1103">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12552,10 +12552,10 @@
         <v>44183</v>
       </c>
       <c r="B1104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1104">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12563,21 +12563,21 @@
         <v>44183</v>
       </c>
       <c r="B1105" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1105">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
       <c r="A1106" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B1106" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1106">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
@@ -12585,10 +12585,10 @@
         <v>44184</v>
       </c>
       <c r="B1107" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1107">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -12596,10 +12596,10 @@
         <v>44184</v>
       </c>
       <c r="B1108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1108">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12607,21 +12607,21 @@
         <v>44184</v>
       </c>
       <c r="B1109" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1109">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
       <c r="A1110" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B1110" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1110">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12629,10 +12629,10 @@
         <v>44185</v>
       </c>
       <c r="B1111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12640,10 +12640,10 @@
         <v>44185</v>
       </c>
       <c r="B1112" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1112">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -12651,10 +12651,10 @@
         <v>44185</v>
       </c>
       <c r="B1113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1113">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12662,21 +12662,21 @@
         <v>44185</v>
       </c>
       <c r="B1114" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1114">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
       <c r="A1115" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B1115" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1115">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12684,10 +12684,10 @@
         <v>44186</v>
       </c>
       <c r="B1116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12695,10 +12695,10 @@
         <v>44186</v>
       </c>
       <c r="B1117" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1117">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12706,10 +12706,10 @@
         <v>44186</v>
       </c>
       <c r="B1118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1118">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12717,21 +12717,21 @@
         <v>44186</v>
       </c>
       <c r="B1119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1119">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
       <c r="A1120" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B1120" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1120">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -12739,7 +12739,7 @@
         <v>44187</v>
       </c>
       <c r="B1121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1121">
         <v>1</v>
@@ -12750,10 +12750,10 @@
         <v>44187</v>
       </c>
       <c r="B1122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12761,10 +12761,10 @@
         <v>44187</v>
       </c>
       <c r="B1123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1123">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -12772,10 +12772,10 @@
         <v>44187</v>
       </c>
       <c r="B1124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1124">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -12783,21 +12783,21 @@
         <v>44187</v>
       </c>
       <c r="B1125" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1125">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
       <c r="A1126" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B1126" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1126">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12805,10 +12805,10 @@
         <v>44188</v>
       </c>
       <c r="B1127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -12816,10 +12816,10 @@
         <v>44188</v>
       </c>
       <c r="B1128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -12827,10 +12827,10 @@
         <v>44188</v>
       </c>
       <c r="B1129" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1129">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -12838,10 +12838,10 @@
         <v>44188</v>
       </c>
       <c r="B1130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1130">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
@@ -12849,21 +12849,21 @@
         <v>44188</v>
       </c>
       <c r="B1131" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1131">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
       <c r="A1132" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B1132" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1132">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -12871,10 +12871,10 @@
         <v>44189</v>
       </c>
       <c r="B1133" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1133">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -12882,10 +12882,10 @@
         <v>44189</v>
       </c>
       <c r="B1134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1134">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1135" spans="1:3">
@@ -12893,21 +12893,21 @@
         <v>44189</v>
       </c>
       <c r="B1135" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1135">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
       <c r="A1136" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B1136" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1136">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
@@ -12915,10 +12915,10 @@
         <v>44190</v>
       </c>
       <c r="B1137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:3">
@@ -12926,10 +12926,10 @@
         <v>44190</v>
       </c>
       <c r="B1138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1138">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
@@ -12937,10 +12937,10 @@
         <v>44190</v>
       </c>
       <c r="B1139" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1139">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
@@ -12948,10 +12948,10 @@
         <v>44190</v>
       </c>
       <c r="B1140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1140">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
@@ -12959,21 +12959,21 @@
         <v>44190</v>
       </c>
       <c r="B1141" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1141">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
       <c r="A1142" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B1142" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1142">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -12981,10 +12981,10 @@
         <v>44191</v>
       </c>
       <c r="B1143" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1143">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1144" spans="1:3">
@@ -12992,10 +12992,10 @@
         <v>44191</v>
       </c>
       <c r="B1144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1144">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -13003,21 +13003,21 @@
         <v>44191</v>
       </c>
       <c r="B1145" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1145">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
       <c r="A1146" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B1146" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1146">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -13025,7 +13025,7 @@
         <v>44192</v>
       </c>
       <c r="B1147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1147">
         <v>3</v>
@@ -13036,10 +13036,10 @@
         <v>44192</v>
       </c>
       <c r="B1148" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1148">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1149" spans="1:3">
@@ -13047,10 +13047,10 @@
         <v>44192</v>
       </c>
       <c r="B1149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1149">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
@@ -13058,21 +13058,21 @@
         <v>44192</v>
       </c>
       <c r="B1150" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1150">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1151" spans="1:3">
       <c r="A1151" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B1151" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1151">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1152" spans="1:3">
@@ -13080,10 +13080,10 @@
         <v>44193</v>
       </c>
       <c r="B1152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1152">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:3">
@@ -13091,10 +13091,10 @@
         <v>44193</v>
       </c>
       <c r="B1153" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1153">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
@@ -13102,10 +13102,10 @@
         <v>44193</v>
       </c>
       <c r="B1154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1154">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
@@ -13113,21 +13113,21 @@
         <v>44193</v>
       </c>
       <c r="B1155" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1155">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
       <c r="A1156" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B1156" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1156">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13135,10 +13135,10 @@
         <v>44194</v>
       </c>
       <c r="B1157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1157">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:3">
@@ -13146,10 +13146,10 @@
         <v>44194</v>
       </c>
       <c r="B1158" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1158">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
@@ -13157,10 +13157,10 @@
         <v>44194</v>
       </c>
       <c r="B1159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1159">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -13168,21 +13168,21 @@
         <v>44194</v>
       </c>
       <c r="B1160" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1160">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
       <c r="A1161" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B1161" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1161">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
@@ -13190,7 +13190,7 @@
         <v>44195</v>
       </c>
       <c r="B1162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1162">
         <v>1</v>
@@ -13201,10 +13201,10 @@
         <v>44195</v>
       </c>
       <c r="B1163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1163">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
@@ -13212,10 +13212,10 @@
         <v>44195</v>
       </c>
       <c r="B1164" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1164">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13223,10 +13223,10 @@
         <v>44195</v>
       </c>
       <c r="B1165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1165">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
@@ -13234,21 +13234,21 @@
         <v>44195</v>
       </c>
       <c r="B1166" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1166">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
       <c r="A1167" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B1167" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1167">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
@@ -13256,7 +13256,7 @@
         <v>44196</v>
       </c>
       <c r="B1168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1168">
         <v>1</v>
@@ -13267,10 +13267,10 @@
         <v>44196</v>
       </c>
       <c r="B1169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:3">
@@ -13278,10 +13278,10 @@
         <v>44196</v>
       </c>
       <c r="B1170" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1170">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -13289,10 +13289,10 @@
         <v>44196</v>
       </c>
       <c r="B1171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1171">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13300,21 +13300,21 @@
         <v>44196</v>
       </c>
       <c r="B1172" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1172">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
       <c r="A1173" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B1173" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1173">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13322,10 +13322,10 @@
         <v>44197</v>
       </c>
       <c r="B1174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1174">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
@@ -13333,10 +13333,10 @@
         <v>44197</v>
       </c>
       <c r="B1175" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1175">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13344,10 +13344,10 @@
         <v>44197</v>
       </c>
       <c r="B1176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1176">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13355,21 +13355,21 @@
         <v>44197</v>
       </c>
       <c r="B1177" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1177">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
       <c r="A1178" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B1178" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1178">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
@@ -13377,10 +13377,10 @@
         <v>44198</v>
       </c>
       <c r="B1179" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1179">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:3">
@@ -13388,10 +13388,10 @@
         <v>44198</v>
       </c>
       <c r="B1180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1180">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
@@ -13399,21 +13399,21 @@
         <v>44198</v>
       </c>
       <c r="B1181" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1181">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
       <c r="A1182" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B1182" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1182">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -13421,10 +13421,10 @@
         <v>44199</v>
       </c>
       <c r="B1183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1183">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -13432,10 +13432,10 @@
         <v>44199</v>
       </c>
       <c r="B1184" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1184">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13443,10 +13443,10 @@
         <v>44199</v>
       </c>
       <c r="B1185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1185">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13454,21 +13454,21 @@
         <v>44199</v>
       </c>
       <c r="B1186" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1186">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
       <c r="A1187" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B1187" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1187">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
@@ -13476,10 +13476,10 @@
         <v>44200</v>
       </c>
       <c r="B1188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13487,10 +13487,10 @@
         <v>44200</v>
       </c>
       <c r="B1189" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1189">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13498,7 +13498,7 @@
         <v>44200</v>
       </c>
       <c r="B1190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1190">
         <v>20</v>
@@ -13509,21 +13509,21 @@
         <v>44200</v>
       </c>
       <c r="B1191" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1191">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
       <c r="A1192" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B1192" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1192">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
@@ -13531,10 +13531,10 @@
         <v>44201</v>
       </c>
       <c r="B1193" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1193">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13542,10 +13542,10 @@
         <v>44201</v>
       </c>
       <c r="B1194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1194">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
@@ -13553,21 +13553,21 @@
         <v>44201</v>
       </c>
       <c r="B1195" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1195">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
       <c r="A1196" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B1196" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1196">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
@@ -13575,7 +13575,7 @@
         <v>44202</v>
       </c>
       <c r="B1197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1197">
         <v>1</v>
@@ -13586,7 +13586,7 @@
         <v>44202</v>
       </c>
       <c r="B1198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1198">
         <v>1</v>
@@ -13597,10 +13597,10 @@
         <v>44202</v>
       </c>
       <c r="B1199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1199">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -13608,10 +13608,10 @@
         <v>44202</v>
       </c>
       <c r="B1200" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1200">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
@@ -13619,10 +13619,10 @@
         <v>44202</v>
       </c>
       <c r="B1201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1201">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
@@ -13630,21 +13630,21 @@
         <v>44202</v>
       </c>
       <c r="B1202" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1202">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
       <c r="A1203" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B1203" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1203">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -13652,7 +13652,7 @@
         <v>44203</v>
       </c>
       <c r="B1204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1204">
         <v>1</v>
@@ -13663,10 +13663,10 @@
         <v>44203</v>
       </c>
       <c r="B1205" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1205">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13674,10 +13674,10 @@
         <v>44203</v>
       </c>
       <c r="B1206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1206">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -13685,21 +13685,21 @@
         <v>44203</v>
       </c>
       <c r="B1207" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1207">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
       <c r="A1208" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B1208" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1208">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -13707,7 +13707,7 @@
         <v>44204</v>
       </c>
       <c r="B1209" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1209">
         <v>2</v>
@@ -13718,10 +13718,10 @@
         <v>44204</v>
       </c>
       <c r="B1210" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1210">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13729,10 +13729,10 @@
         <v>44204</v>
       </c>
       <c r="B1211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1211">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13740,21 +13740,21 @@
         <v>44204</v>
       </c>
       <c r="B1212" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1212">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
       <c r="A1213" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B1213" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1213">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13762,10 +13762,10 @@
         <v>44205</v>
       </c>
       <c r="B1214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1214">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13773,10 +13773,10 @@
         <v>44205</v>
       </c>
       <c r="B1215" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1215">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13784,10 +13784,10 @@
         <v>44205</v>
       </c>
       <c r="B1216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1216">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13795,21 +13795,21 @@
         <v>44205</v>
       </c>
       <c r="B1217" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1217">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
       <c r="A1218" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B1218" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1218">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13817,10 +13817,10 @@
         <v>44206</v>
       </c>
       <c r="B1219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13828,10 +13828,175 @@
         <v>44206</v>
       </c>
       <c r="B1220" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1220">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3">
+      <c r="A1221" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3">
+      <c r="A1222" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1222">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3">
+      <c r="A1223" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3">
+      <c r="A1224" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3">
+      <c r="A1225" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1225">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3">
+      <c r="A1226" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1226">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3">
+      <c r="A1227" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1227">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3">
+      <c r="A1228" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3">
+      <c r="A1229" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3">
+      <c r="A1230" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3">
+      <c r="A1231" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1231">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3">
+      <c r="A1232" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3">
+      <c r="A1233" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3">
+      <c r="A1234" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3">
+      <c r="A1235" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1235">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1235"/>
+  <dimension ref="A1:C1282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9948,7 +9948,7 @@
         <v>4</v>
       </c>
       <c r="C867">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -10014,7 +10014,7 @@
         <v>5</v>
       </c>
       <c r="C873">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -11928,7 +11928,7 @@
         <v>6</v>
       </c>
       <c r="C1047">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="C1091">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1092" spans="1:3">
@@ -12511,7 +12511,7 @@
         <v>4</v>
       </c>
       <c r="C1100">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12797,7 +12797,7 @@
         <v>3</v>
       </c>
       <c r="C1126">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12863,7 +12863,7 @@
         <v>3</v>
       </c>
       <c r="C1132">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -12962,7 +12962,7 @@
         <v>5</v>
       </c>
       <c r="C1141">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -13017,7 +13017,7 @@
         <v>3</v>
       </c>
       <c r="C1146">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -13080,10 +13080,10 @@
         <v>44193</v>
       </c>
       <c r="B1152" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:3">
@@ -13091,10 +13091,10 @@
         <v>44193</v>
       </c>
       <c r="B1153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1153">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
@@ -13102,10 +13102,10 @@
         <v>44193</v>
       </c>
       <c r="B1154" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1154">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
@@ -13113,10 +13113,10 @@
         <v>44193</v>
       </c>
       <c r="B1155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1155">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
@@ -13124,21 +13124,21 @@
         <v>44193</v>
       </c>
       <c r="B1156" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1156">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
       <c r="A1157" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B1157" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1157">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1158" spans="1:3">
@@ -13146,10 +13146,10 @@
         <v>44194</v>
       </c>
       <c r="B1158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1158">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
@@ -13157,10 +13157,10 @@
         <v>44194</v>
       </c>
       <c r="B1159" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1159">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -13168,10 +13168,10 @@
         <v>44194</v>
       </c>
       <c r="B1160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1160">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
@@ -13179,21 +13179,21 @@
         <v>44194</v>
       </c>
       <c r="B1161" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1161">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
       <c r="A1162" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B1162" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1162">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
@@ -13201,7 +13201,7 @@
         <v>44195</v>
       </c>
       <c r="B1163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1163">
         <v>1</v>
@@ -13212,10 +13212,10 @@
         <v>44195</v>
       </c>
       <c r="B1164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1164">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13223,10 +13223,10 @@
         <v>44195</v>
       </c>
       <c r="B1165" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1165">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
@@ -13234,10 +13234,10 @@
         <v>44195</v>
       </c>
       <c r="B1166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1166">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
@@ -13245,21 +13245,21 @@
         <v>44195</v>
       </c>
       <c r="B1167" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1167">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
       <c r="A1168" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B1168" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1168">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -13267,7 +13267,7 @@
         <v>44196</v>
       </c>
       <c r="B1169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1169">
         <v>1</v>
@@ -13278,10 +13278,10 @@
         <v>44196</v>
       </c>
       <c r="B1170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -13289,10 +13289,10 @@
         <v>44196</v>
       </c>
       <c r="B1171" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1171">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13300,10 +13300,10 @@
         <v>44196</v>
       </c>
       <c r="B1172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1172">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
@@ -13311,21 +13311,21 @@
         <v>44196</v>
       </c>
       <c r="B1173" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1173">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
       <c r="A1174" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B1174" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1174">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
@@ -13333,10 +13333,10 @@
         <v>44197</v>
       </c>
       <c r="B1175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1175">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13344,10 +13344,10 @@
         <v>44197</v>
       </c>
       <c r="B1176" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1176">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13355,10 +13355,10 @@
         <v>44197</v>
       </c>
       <c r="B1177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1177">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
@@ -13366,7 +13366,7 @@
         <v>44197</v>
       </c>
       <c r="B1178" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1178">
         <v>24</v>
@@ -13374,13 +13374,13 @@
     </row>
     <row r="1179" spans="1:3">
       <c r="A1179" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B1179" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1179">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1180" spans="1:3">
@@ -13388,10 +13388,10 @@
         <v>44198</v>
       </c>
       <c r="B1180" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1180">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
@@ -13399,10 +13399,10 @@
         <v>44198</v>
       </c>
       <c r="B1181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1181">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
@@ -13410,21 +13410,21 @@
         <v>44198</v>
       </c>
       <c r="B1182" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1182">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
       <c r="A1183" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B1183" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1183">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -13432,10 +13432,10 @@
         <v>44199</v>
       </c>
       <c r="B1184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1184">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13443,10 +13443,10 @@
         <v>44199</v>
       </c>
       <c r="B1185" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1185">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13454,10 +13454,10 @@
         <v>44199</v>
       </c>
       <c r="B1186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1186">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
@@ -13465,21 +13465,21 @@
         <v>44199</v>
       </c>
       <c r="B1187" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1187">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
       <c r="A1188" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B1188" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1188">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13487,10 +13487,10 @@
         <v>44200</v>
       </c>
       <c r="B1189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13498,10 +13498,10 @@
         <v>44200</v>
       </c>
       <c r="B1190" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1190">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -13509,10 +13509,10 @@
         <v>44200</v>
       </c>
       <c r="B1191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1191">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13520,21 +13520,21 @@
         <v>44200</v>
       </c>
       <c r="B1192" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1192">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
       <c r="A1193" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B1193" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1193">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13542,10 +13542,10 @@
         <v>44201</v>
       </c>
       <c r="B1194" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1194">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
@@ -13553,10 +13553,10 @@
         <v>44201</v>
       </c>
       <c r="B1195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1195">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
@@ -13564,21 +13564,21 @@
         <v>44201</v>
       </c>
       <c r="B1196" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1196">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
       <c r="A1197" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B1197" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1197">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -13586,7 +13586,7 @@
         <v>44202</v>
       </c>
       <c r="B1198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1198">
         <v>1</v>
@@ -13597,7 +13597,7 @@
         <v>44202</v>
       </c>
       <c r="B1199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1199">
         <v>1</v>
@@ -13608,10 +13608,10 @@
         <v>44202</v>
       </c>
       <c r="B1200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1200">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
@@ -13619,10 +13619,10 @@
         <v>44202</v>
       </c>
       <c r="B1201" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1201">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
@@ -13630,10 +13630,10 @@
         <v>44202</v>
       </c>
       <c r="B1202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1202">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
@@ -13641,21 +13641,21 @@
         <v>44202</v>
       </c>
       <c r="B1203" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1203">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
       <c r="A1204" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B1204" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1204">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1205" spans="1:3">
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="B1205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1205">
         <v>1</v>
@@ -13674,10 +13674,10 @@
         <v>44203</v>
       </c>
       <c r="B1206" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1206">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -13685,10 +13685,10 @@
         <v>44203</v>
       </c>
       <c r="B1207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1207">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
@@ -13696,21 +13696,21 @@
         <v>44203</v>
       </c>
       <c r="B1208" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1208">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
       <c r="A1209" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B1209" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1209">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
@@ -13718,10 +13718,10 @@
         <v>44204</v>
       </c>
       <c r="B1210" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13729,10 +13729,10 @@
         <v>44204</v>
       </c>
       <c r="B1211" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1211">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13740,10 +13740,10 @@
         <v>44204</v>
       </c>
       <c r="B1212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1212">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13751,21 +13751,21 @@
         <v>44204</v>
       </c>
       <c r="B1213" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1213">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
       <c r="A1214" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B1214" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1214">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13773,10 +13773,10 @@
         <v>44205</v>
       </c>
       <c r="B1215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1215">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13784,10 +13784,10 @@
         <v>44205</v>
       </c>
       <c r="B1216" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1216">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13795,10 +13795,10 @@
         <v>44205</v>
       </c>
       <c r="B1217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1217">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13806,21 +13806,21 @@
         <v>44205</v>
       </c>
       <c r="B1218" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1218">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
       <c r="A1219" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B1219" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1219">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13828,10 +13828,10 @@
         <v>44206</v>
       </c>
       <c r="B1220" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1220">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1221" spans="1:3">
@@ -13839,10 +13839,10 @@
         <v>44206</v>
       </c>
       <c r="B1221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1221">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
@@ -13850,21 +13850,21 @@
         <v>44206</v>
       </c>
       <c r="B1222" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1222">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
       <c r="A1223" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B1223" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1223">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
@@ -13872,10 +13872,10 @@
         <v>44207</v>
       </c>
       <c r="B1224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1224">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -13883,10 +13883,10 @@
         <v>44207</v>
       </c>
       <c r="B1225" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1225">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -13894,10 +13894,10 @@
         <v>44207</v>
       </c>
       <c r="B1226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1226">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -13905,21 +13905,21 @@
         <v>44207</v>
       </c>
       <c r="B1227" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1227">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
       <c r="A1228" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B1228" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1228">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13927,10 +13927,10 @@
         <v>44208</v>
       </c>
       <c r="B1229" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1229">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
@@ -13938,10 +13938,10 @@
         <v>44208</v>
       </c>
       <c r="B1230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1230">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1231" spans="1:3">
@@ -13949,21 +13949,21 @@
         <v>44208</v>
       </c>
       <c r="B1231" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1231">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1232" spans="1:3">
       <c r="A1232" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B1232" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1232">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -13971,10 +13971,10 @@
         <v>44209</v>
       </c>
       <c r="B1233" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1233">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -13982,10 +13982,10 @@
         <v>44209</v>
       </c>
       <c r="B1234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1234">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -13993,10 +13993,527 @@
         <v>44209</v>
       </c>
       <c r="B1235" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1235">
-        <v>5</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3">
+      <c r="A1236" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3">
+      <c r="A1237" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1237">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3">
+      <c r="A1238" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3">
+      <c r="A1239" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3">
+      <c r="A1240" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1240">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3">
+      <c r="A1241" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3">
+      <c r="A1242" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3">
+      <c r="A1243" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3">
+      <c r="A1244" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3">
+      <c r="A1245" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3">
+      <c r="A1246" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1246">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3">
+      <c r="A1247" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3">
+      <c r="A1248" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3">
+      <c r="A1249" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1249">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3">
+      <c r="A1250" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1250">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3">
+      <c r="A1251" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3">
+      <c r="A1252" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3">
+      <c r="A1253" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3">
+      <c r="A1254" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1254">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3">
+      <c r="A1255" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1255">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3">
+      <c r="A1256" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3">
+      <c r="A1257" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3">
+      <c r="A1258" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3">
+      <c r="A1259" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1259">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3">
+      <c r="A1260" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3">
+      <c r="A1261" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3">
+      <c r="A1262" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1262">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3">
+      <c r="A1263" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1263">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3">
+      <c r="A1264" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3">
+      <c r="A1265" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3">
+      <c r="A1266" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3">
+      <c r="A1267" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3">
+      <c r="A1268" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1268">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3">
+      <c r="A1269" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1269">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3">
+      <c r="A1270" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3">
+      <c r="A1271" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3">
+      <c r="A1272" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3">
+      <c r="A1273" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3">
+      <c r="A1274" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1274">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3">
+      <c r="A1275" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1275">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3">
+      <c r="A1276" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3">
+      <c r="A1277" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3">
+      <c r="A1278" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1278">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3">
+      <c r="A1279" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1279">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3">
+      <c r="A1280" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3">
+      <c r="A1281" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3">
+      <c r="A1282" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1282">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1311"/>
+  <dimension ref="A1:C1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -12324,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="C1083">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1084" spans="1:3">
@@ -14491,7 +14491,7 @@
         <v>6</v>
       </c>
       <c r="C1280">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14678,7 +14678,7 @@
         <v>5</v>
       </c>
       <c r="C1297">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14722,7 +14722,7 @@
         <v>4</v>
       </c>
       <c r="C1301">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14733,7 +14733,7 @@
         <v>5</v>
       </c>
       <c r="C1302">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
@@ -14766,7 +14766,7 @@
         <v>5</v>
       </c>
       <c r="C1305">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14777,7 +14777,7 @@
         <v>6</v>
       </c>
       <c r="C1306">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14788,7 +14788,7 @@
         <v>3</v>
       </c>
       <c r="C1307">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14799,7 +14799,7 @@
         <v>4</v>
       </c>
       <c r="C1308">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
@@ -14810,7 +14810,7 @@
         <v>5</v>
       </c>
       <c r="C1309">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14818,10 +14818,10 @@
         <v>44226</v>
       </c>
       <c r="B1310" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14829,10 +14829,153 @@
         <v>44226</v>
       </c>
       <c r="B1311" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1311">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3">
+      <c r="A1312" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3">
+      <c r="A1313" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1313">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3">
+      <c r="A1314" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3">
+      <c r="A1315" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3">
+      <c r="A1316" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3">
+      <c r="A1317" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3">
+      <c r="A1318" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3">
+      <c r="A1319" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3">
+      <c r="A1320" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3">
+      <c r="A1321" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3">
+      <c r="A1322" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3">
+      <c r="A1323" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3">
+      <c r="A1324" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1324">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1368"/>
+  <dimension ref="A1:C1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8925,7 +8925,7 @@
         <v>5</v>
       </c>
       <c r="C774">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -13028,7 +13028,7 @@
         <v>6</v>
       </c>
       <c r="C1147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
@@ -13193,7 +13193,7 @@
         <v>5</v>
       </c>
       <c r="C1162">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
@@ -13237,7 +13237,7 @@
         <v>5</v>
       </c>
       <c r="C1166">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
@@ -13281,7 +13281,7 @@
         <v>3</v>
       </c>
       <c r="C1170">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -13754,7 +13754,7 @@
         <v>5</v>
       </c>
       <c r="C1213">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13798,7 +13798,7 @@
         <v>4</v>
       </c>
       <c r="C1217">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13809,7 +13809,7 @@
         <v>5</v>
       </c>
       <c r="C1218">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13864,7 +13864,7 @@
         <v>4</v>
       </c>
       <c r="C1223">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
@@ -13963,7 +13963,7 @@
         <v>6</v>
       </c>
       <c r="C1232">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -14051,7 +14051,7 @@
         <v>5</v>
       </c>
       <c r="C1240">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
@@ -14139,7 +14139,7 @@
         <v>3</v>
       </c>
       <c r="C1248">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14205,7 +14205,7 @@
         <v>5</v>
       </c>
       <c r="C1254">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
@@ -14271,7 +14271,7 @@
         <v>5</v>
       </c>
       <c r="C1260">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
@@ -14370,7 +14370,7 @@
         <v>5</v>
       </c>
       <c r="C1269">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
@@ -14458,7 +14458,7 @@
         <v>4</v>
       </c>
       <c r="C1277">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14513,7 +14513,7 @@
         <v>5</v>
       </c>
       <c r="C1282">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14612,7 +14612,7 @@
         <v>5</v>
       </c>
       <c r="C1291">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14722,7 +14722,7 @@
         <v>5</v>
       </c>
       <c r="C1301">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14777,7 +14777,7 @@
         <v>4</v>
       </c>
       <c r="C1306">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14832,7 +14832,7 @@
         <v>5</v>
       </c>
       <c r="C1311">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -14876,7 +14876,7 @@
         <v>4</v>
       </c>
       <c r="C1315">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14887,7 +14887,7 @@
         <v>5</v>
       </c>
       <c r="C1316">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -14898,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="C1317">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14909,7 +14909,7 @@
         <v>3</v>
       </c>
       <c r="C1318">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14920,7 +14920,7 @@
         <v>4</v>
       </c>
       <c r="C1319">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14931,7 +14931,7 @@
         <v>5</v>
       </c>
       <c r="C1320">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -14975,7 +14975,7 @@
         <v>4</v>
       </c>
       <c r="C1324">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14986,7 +14986,7 @@
         <v>5</v>
       </c>
       <c r="C1325">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -15074,7 +15074,7 @@
         <v>3</v>
       </c>
       <c r="C1333">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15085,7 +15085,7 @@
         <v>4</v>
       </c>
       <c r="C1334">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15096,7 +15096,7 @@
         <v>5</v>
       </c>
       <c r="C1335">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15118,7 +15118,7 @@
         <v>4</v>
       </c>
       <c r="C1337">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15129,7 +15129,7 @@
         <v>5</v>
       </c>
       <c r="C1338">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="C1341">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15173,7 +15173,7 @@
         <v>5</v>
       </c>
       <c r="C1342">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15195,7 +15195,7 @@
         <v>6</v>
       </c>
       <c r="C1344">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15217,7 +15217,7 @@
         <v>4</v>
       </c>
       <c r="C1346">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15228,7 +15228,7 @@
         <v>5</v>
       </c>
       <c r="C1347">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15283,7 +15283,7 @@
         <v>5</v>
       </c>
       <c r="C1352">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15338,7 +15338,7 @@
         <v>4</v>
       </c>
       <c r="C1357">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15349,7 +15349,7 @@
         <v>5</v>
       </c>
       <c r="C1358">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15371,7 +15371,7 @@
         <v>8</v>
       </c>
       <c r="C1360">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15404,7 +15404,7 @@
         <v>4</v>
       </c>
       <c r="C1363">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15415,7 +15415,7 @@
         <v>5</v>
       </c>
       <c r="C1364">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15426,7 +15426,7 @@
         <v>6</v>
       </c>
       <c r="C1365">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15437,7 +15437,7 @@
         <v>3</v>
       </c>
       <c r="C1366">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -15448,7 +15448,7 @@
         <v>4</v>
       </c>
       <c r="C1367">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15459,7 +15459,84 @@
         <v>5</v>
       </c>
       <c r="C1368">
-        <v>6</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3">
+      <c r="A1369" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3">
+      <c r="A1370" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3">
+      <c r="A1371" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3">
+      <c r="A1372" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3">
+      <c r="A1373" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1373">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3">
+      <c r="A1374" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3">
+      <c r="A1375" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1375">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -34,10 +34,10 @@
     <t>80+</t>
   </si>
   <si>
-    <t>50-59</t>
+    <t>30-39</t>
   </si>
   <si>
-    <t>30-39</t>
+    <t>50-59</t>
   </si>
   <si>
     <t>40-49</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1375"/>
+  <dimension ref="A1:C1395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,10 +485,10 @@
         <v>43910</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -496,18 +496,18 @@
         <v>43910</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -518,21 +518,21 @@
         <v>43911</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -540,7 +540,7 @@
         <v>43912</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>43913</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -606,7 +606,7 @@
         <v>43914</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>43916</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>43919</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>43920</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43921</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>43921</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -914,7 +914,7 @@
         <v>43922</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>43924</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>43924</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>43925</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1112,7 +1112,7 @@
         <v>43926</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1156,7 +1156,7 @@
         <v>43927</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>43927</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1222,7 +1222,7 @@
         <v>43928</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>43928</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1288,7 +1288,7 @@
         <v>43929</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>43930</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1398,7 +1398,7 @@
         <v>43931</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>43932</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1497,7 +1497,7 @@
         <v>43933</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -1552,7 +1552,7 @@
         <v>43934</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>43935</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -1651,7 +1651,7 @@
         <v>43936</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>43937</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>43938</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>43939</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -1871,7 +1871,7 @@
         <v>43940</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>43941</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>43941</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>43942</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>43942</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -2036,7 +2036,7 @@
         <v>43943</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -2080,7 +2080,7 @@
         <v>43944</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>43945</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>43945</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         <v>43946</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -2234,7 +2234,7 @@
         <v>43947</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>43948</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2311,7 +2311,7 @@
         <v>43948</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -2355,7 +2355,7 @@
         <v>43949</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>43949</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>43950</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -2498,7 +2498,7 @@
         <v>43952</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -2553,7 +2553,7 @@
         <v>43953</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>43955</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -2685,7 +2685,7 @@
         <v>43956</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>43956</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>43957</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>43957</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -2817,7 +2817,7 @@
         <v>43958</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -2872,7 +2872,7 @@
         <v>43959</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -2960,7 +2960,7 @@
         <v>43961</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -3015,7 +3015,7 @@
         <v>43962</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -3081,7 +3081,7 @@
         <v>43963</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>43964</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -3180,7 +3180,7 @@
         <v>43965</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -3323,7 +3323,7 @@
         <v>43968</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>43968</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -3378,7 +3378,7 @@
         <v>43969</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C270">
         <v>3</v>
@@ -3433,7 +3433,7 @@
         <v>43970</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>43972</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>43972</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>43973</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C289">
         <v>4</v>
@@ -3631,7 +3631,7 @@
         <v>43974</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C293">
         <v>3</v>
@@ -3708,7 +3708,7 @@
         <v>43976</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -3752,7 +3752,7 @@
         <v>43977</v>
       </c>
       <c r="B304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         <v>43979</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C310">
         <v>2</v>
@@ -3862,7 +3862,7 @@
         <v>43980</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -3961,7 +3961,7 @@
         <v>43982</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>43984</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>43985</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>43987</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C344">
         <v>2</v>
@@ -4368,7 +4368,7 @@
         <v>43992</v>
       </c>
       <c r="B360" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -4412,7 +4412,7 @@
         <v>43993</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C364">
         <v>2</v>
@@ -4467,7 +4467,7 @@
         <v>43994</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -4522,7 +4522,7 @@
         <v>43995</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -4566,7 +4566,7 @@
         <v>43996</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>43997</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -4665,7 +4665,7 @@
         <v>43998</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4709,7 +4709,7 @@
         <v>43999</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>44001</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>44004</v>
       </c>
       <c r="B410" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -5039,7 +5039,7 @@
         <v>44008</v>
       </c>
       <c r="B421" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -5138,7 +5138,7 @@
         <v>44011</v>
       </c>
       <c r="B430" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C430">
         <v>2</v>
@@ -5171,7 +5171,7 @@
         <v>44012</v>
       </c>
       <c r="B433" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -5226,7 +5226,7 @@
         <v>44013</v>
       </c>
       <c r="B438" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>44014</v>
       </c>
       <c r="B442" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -5325,7 +5325,7 @@
         <v>44016</v>
       </c>
       <c r="B447" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>44018</v>
       </c>
       <c r="B453" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C453">
         <v>3</v>
@@ -5501,7 +5501,7 @@
         <v>44021</v>
       </c>
       <c r="B463" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>44021</v>
       </c>
       <c r="B465" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>44022</v>
       </c>
       <c r="B469" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -5611,7 +5611,7 @@
         <v>44023</v>
       </c>
       <c r="B473" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -5644,7 +5644,7 @@
         <v>44024</v>
       </c>
       <c r="B476" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C476">
         <v>2</v>
@@ -5831,7 +5831,7 @@
         <v>44030</v>
       </c>
       <c r="B493" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>44033</v>
       </c>
       <c r="B502" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -5974,7 +5974,7 @@
         <v>44034</v>
       </c>
       <c r="B506" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -6084,7 +6084,7 @@
         <v>44037</v>
       </c>
       <c r="B516" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C516">
         <v>2</v>
@@ -6260,7 +6260,7 @@
         <v>44042</v>
       </c>
       <c r="B532" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C532">
         <v>2</v>
@@ -6304,7 +6304,7 @@
         <v>44043</v>
       </c>
       <c r="B536" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>44044</v>
       </c>
       <c r="B540" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -6447,7 +6447,7 @@
         <v>44047</v>
       </c>
       <c r="B549" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C549">
         <v>2</v>
@@ -6557,7 +6557,7 @@
         <v>44050</v>
       </c>
       <c r="B559" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C559">
         <v>1</v>
@@ -6601,7 +6601,7 @@
         <v>44051</v>
       </c>
       <c r="B563" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C563">
         <v>1</v>
@@ -6678,7 +6678,7 @@
         <v>44053</v>
       </c>
       <c r="B570" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C570">
         <v>1</v>
@@ -6722,7 +6722,7 @@
         <v>44054</v>
       </c>
       <c r="B574" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C574">
         <v>1</v>
@@ -6755,7 +6755,7 @@
         <v>44055</v>
       </c>
       <c r="B577" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C577">
         <v>1</v>
@@ -6810,7 +6810,7 @@
         <v>44056</v>
       </c>
       <c r="B582" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C582">
         <v>2</v>
@@ -6876,7 +6876,7 @@
         <v>44058</v>
       </c>
       <c r="B588" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -6887,7 +6887,7 @@
         <v>44058</v>
       </c>
       <c r="B589" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -6931,7 +6931,7 @@
         <v>44059</v>
       </c>
       <c r="B593" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C593">
         <v>2</v>
@@ -6986,7 +6986,7 @@
         <v>44060</v>
       </c>
       <c r="B598" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>44060</v>
       </c>
       <c r="B599" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>44063</v>
       </c>
       <c r="B609" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -7162,7 +7162,7 @@
         <v>44064</v>
       </c>
       <c r="B614" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>44065</v>
       </c>
       <c r="B619" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -7261,7 +7261,7 @@
         <v>44066</v>
       </c>
       <c r="B623" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C623">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>44067</v>
       </c>
       <c r="B626" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C626">
         <v>1</v>
@@ -7338,7 +7338,7 @@
         <v>44068</v>
       </c>
       <c r="B630" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C630">
         <v>3</v>
@@ -7404,7 +7404,7 @@
         <v>44070</v>
       </c>
       <c r="B636" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C636">
         <v>1</v>
@@ -7448,7 +7448,7 @@
         <v>44071</v>
       </c>
       <c r="B640" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C640">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>44072</v>
       </c>
       <c r="B644" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C644">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>44074</v>
       </c>
       <c r="B651" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C651">
         <v>1</v>
@@ -7657,7 +7657,7 @@
         <v>44076</v>
       </c>
       <c r="B659" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C659">
         <v>1</v>
@@ -7701,7 +7701,7 @@
         <v>44077</v>
       </c>
       <c r="B663" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C663">
         <v>1</v>
@@ -7822,7 +7822,7 @@
         <v>44080</v>
       </c>
       <c r="B674" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C674">
         <v>1</v>
@@ -7899,7 +7899,7 @@
         <v>44082</v>
       </c>
       <c r="B681" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C681">
         <v>1</v>
@@ -7976,7 +7976,7 @@
         <v>44084</v>
       </c>
       <c r="B688" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C688">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>44085</v>
       </c>
       <c r="B691" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C691">
         <v>1</v>
@@ -8075,7 +8075,7 @@
         <v>44087</v>
       </c>
       <c r="B697" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C697">
         <v>2</v>
@@ -8130,7 +8130,7 @@
         <v>44088</v>
       </c>
       <c r="B702" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C702">
         <v>2</v>
@@ -8207,7 +8207,7 @@
         <v>44090</v>
       </c>
       <c r="B709" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C709">
         <v>1</v>
@@ -8262,7 +8262,7 @@
         <v>44091</v>
       </c>
       <c r="B714" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C714">
         <v>2</v>
@@ -8317,7 +8317,7 @@
         <v>44092</v>
       </c>
       <c r="B719" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C719">
         <v>1</v>
@@ -8394,7 +8394,7 @@
         <v>44094</v>
       </c>
       <c r="B726" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C726">
         <v>2</v>
@@ -8438,7 +8438,7 @@
         <v>44095</v>
       </c>
       <c r="B730" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C730">
         <v>2</v>
@@ -8482,7 +8482,7 @@
         <v>44096</v>
       </c>
       <c r="B734" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C734">
         <v>1</v>
@@ -8526,7 +8526,7 @@
         <v>44097</v>
       </c>
       <c r="B738" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C738">
         <v>1</v>
@@ -8702,7 +8702,7 @@
         <v>44102</v>
       </c>
       <c r="B754" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -8845,7 +8845,7 @@
         <v>44106</v>
       </c>
       <c r="B767" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C767">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>44107</v>
       </c>
       <c r="B771" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C771">
         <v>3</v>
@@ -8933,7 +8933,7 @@
         <v>44108</v>
       </c>
       <c r="B775" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C775">
         <v>1</v>
@@ -9010,7 +9010,7 @@
         <v>44110</v>
       </c>
       <c r="B782" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C782">
         <v>1</v>
@@ -9021,7 +9021,7 @@
         <v>44110</v>
       </c>
       <c r="B783" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C783">
         <v>1</v>
@@ -9065,7 +9065,7 @@
         <v>44111</v>
       </c>
       <c r="B787" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C787">
         <v>2</v>
@@ -9164,7 +9164,7 @@
         <v>44114</v>
       </c>
       <c r="B796" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C796">
         <v>1</v>
@@ -9241,7 +9241,7 @@
         <v>44116</v>
       </c>
       <c r="B803" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C803">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>44117</v>
       </c>
       <c r="B807" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C807">
         <v>1</v>
@@ -9296,7 +9296,7 @@
         <v>44117</v>
       </c>
       <c r="B808" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C808">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>44118</v>
       </c>
       <c r="B812" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C812">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>44119</v>
       </c>
       <c r="B817" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C817">
         <v>1</v>
@@ -9450,7 +9450,7 @@
         <v>44120</v>
       </c>
       <c r="B822" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C822">
         <v>1</v>
@@ -9505,7 +9505,7 @@
         <v>44121</v>
       </c>
       <c r="B827" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C827">
         <v>1</v>
@@ -9582,7 +9582,7 @@
         <v>44123</v>
       </c>
       <c r="B834" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C834">
         <v>2</v>
@@ -9637,7 +9637,7 @@
         <v>44124</v>
       </c>
       <c r="B839" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C839">
         <v>1</v>
@@ -9703,7 +9703,7 @@
         <v>44125</v>
       </c>
       <c r="B845" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C845">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>44126</v>
       </c>
       <c r="B849" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C849">
         <v>1</v>
@@ -9802,7 +9802,7 @@
         <v>44127</v>
       </c>
       <c r="B854" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C854">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>44127</v>
       </c>
       <c r="B855" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C855">
         <v>1</v>
@@ -9868,7 +9868,7 @@
         <v>44128</v>
       </c>
       <c r="B860" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C860">
         <v>2</v>
@@ -9923,7 +9923,7 @@
         <v>44129</v>
       </c>
       <c r="B865" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C865">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>44130</v>
       </c>
       <c r="B869" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C869">
         <v>2</v>
@@ -9989,7 +9989,7 @@
         <v>44130</v>
       </c>
       <c r="B871" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C871">
         <v>1</v>
@@ -10033,7 +10033,7 @@
         <v>44131</v>
       </c>
       <c r="B875" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C875">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>44131</v>
       </c>
       <c r="B877" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C877">
         <v>3</v>
@@ -10121,7 +10121,7 @@
         <v>44132</v>
       </c>
       <c r="B883" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C883">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>44133</v>
       </c>
       <c r="B887" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C887">
         <v>1</v>
@@ -10231,7 +10231,7 @@
         <v>44134</v>
       </c>
       <c r="B893" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C893">
         <v>4</v>
@@ -10275,7 +10275,7 @@
         <v>44135</v>
       </c>
       <c r="B897" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C897">
         <v>3</v>
@@ -10319,7 +10319,7 @@
         <v>44136</v>
       </c>
       <c r="B901" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C901">
         <v>1</v>
@@ -10330,7 +10330,7 @@
         <v>44136</v>
       </c>
       <c r="B902" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C902">
         <v>1</v>
@@ -10374,7 +10374,7 @@
         <v>44137</v>
       </c>
       <c r="B906" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C906">
         <v>2</v>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="B908" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C908">
         <v>4</v>
@@ -10440,7 +10440,7 @@
         <v>44138</v>
       </c>
       <c r="B912" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C912">
         <v>3</v>
@@ -10484,7 +10484,7 @@
         <v>44139</v>
       </c>
       <c r="B916" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C916">
         <v>1</v>
@@ -10572,7 +10572,7 @@
         <v>44141</v>
       </c>
       <c r="B924" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C924">
         <v>6</v>
@@ -10616,7 +10616,7 @@
         <v>44142</v>
       </c>
       <c r="B928" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C928">
         <v>4</v>
@@ -10660,7 +10660,7 @@
         <v>44143</v>
       </c>
       <c r="B932" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C932">
         <v>3</v>
@@ -10715,7 +10715,7 @@
         <v>44144</v>
       </c>
       <c r="B937" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C937">
         <v>3</v>
@@ -10814,7 +10814,7 @@
         <v>44146</v>
       </c>
       <c r="B946" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C946">
         <v>2</v>
@@ -10869,7 +10869,7 @@
         <v>44147</v>
       </c>
       <c r="B951" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C951">
         <v>1</v>
@@ -10924,7 +10924,7 @@
         <v>44148</v>
       </c>
       <c r="B956" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C956">
         <v>3</v>
@@ -10979,7 +10979,7 @@
         <v>44149</v>
       </c>
       <c r="B961" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C961">
         <v>4</v>
@@ -11034,7 +11034,7 @@
         <v>44150</v>
       </c>
       <c r="B966" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C966">
         <v>4</v>
@@ -11078,7 +11078,7 @@
         <v>44151</v>
       </c>
       <c r="B970" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C970">
         <v>2</v>
@@ -11100,7 +11100,7 @@
         <v>44151</v>
       </c>
       <c r="B972" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C972">
         <v>1</v>
@@ -11155,7 +11155,7 @@
         <v>44152</v>
       </c>
       <c r="B977" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C977">
         <v>3</v>
@@ -11210,7 +11210,7 @@
         <v>44153</v>
       </c>
       <c r="B982" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C982">
         <v>4</v>
@@ -11254,7 +11254,7 @@
         <v>44154</v>
       </c>
       <c r="B986" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C986">
         <v>2</v>
@@ -11276,7 +11276,7 @@
         <v>44154</v>
       </c>
       <c r="B988" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C988">
         <v>5</v>
@@ -11331,7 +11331,7 @@
         <v>44155</v>
       </c>
       <c r="B993" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C993">
         <v>2</v>
@@ -11419,7 +11419,7 @@
         <v>44157</v>
       </c>
       <c r="B1001" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1001">
         <v>1</v>
@@ -11430,7 +11430,7 @@
         <v>44157</v>
       </c>
       <c r="B1002" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1002">
         <v>3</v>
@@ -11507,7 +11507,7 @@
         <v>44159</v>
       </c>
       <c r="B1009" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1009">
         <v>1</v>
@@ -11551,7 +11551,7 @@
         <v>44160</v>
       </c>
       <c r="B1013" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1013">
         <v>1</v>
@@ -11573,7 +11573,7 @@
         <v>44160</v>
       </c>
       <c r="B1015" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1015">
         <v>2</v>
@@ -11628,7 +11628,7 @@
         <v>44161</v>
       </c>
       <c r="B1020" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1020">
         <v>4</v>
@@ -11672,7 +11672,7 @@
         <v>44162</v>
       </c>
       <c r="B1024" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1024">
         <v>5</v>
@@ -11716,7 +11716,7 @@
         <v>44163</v>
       </c>
       <c r="B1028" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1028">
         <v>2</v>
@@ -11738,7 +11738,7 @@
         <v>44163</v>
       </c>
       <c r="B1030" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1030">
         <v>4</v>
@@ -11793,7 +11793,7 @@
         <v>44164</v>
       </c>
       <c r="B1035" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1035">
         <v>2</v>
@@ -11837,7 +11837,7 @@
         <v>44165</v>
       </c>
       <c r="B1039" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1039">
         <v>2</v>
@@ -11892,7 +11892,7 @@
         <v>44166</v>
       </c>
       <c r="B1044" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1044">
         <v>2</v>
@@ -11947,7 +11947,7 @@
         <v>44167</v>
       </c>
       <c r="B1049" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1049">
         <v>5</v>
@@ -12002,7 +12002,7 @@
         <v>44168</v>
       </c>
       <c r="B1054" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1054">
         <v>2</v>
@@ -12046,7 +12046,7 @@
         <v>44169</v>
       </c>
       <c r="B1058" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1058">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>44169</v>
       </c>
       <c r="B1060" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1060">
         <v>4</v>
@@ -12123,7 +12123,7 @@
         <v>44170</v>
       </c>
       <c r="B1065" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1065">
         <v>3</v>
@@ -12167,7 +12167,7 @@
         <v>44171</v>
       </c>
       <c r="B1069" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1069">
         <v>6</v>
@@ -12211,7 +12211,7 @@
         <v>44172</v>
       </c>
       <c r="B1073" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1073">
         <v>1</v>
@@ -12233,7 +12233,7 @@
         <v>44172</v>
       </c>
       <c r="B1075" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1075">
         <v>6</v>
@@ -12288,7 +12288,7 @@
         <v>44173</v>
       </c>
       <c r="B1080" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1080">
         <v>4</v>
@@ -12332,7 +12332,7 @@
         <v>44174</v>
       </c>
       <c r="B1084" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1084">
         <v>5</v>
@@ -12387,7 +12387,7 @@
         <v>44175</v>
       </c>
       <c r="B1089" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1089">
         <v>7</v>
@@ -12442,7 +12442,7 @@
         <v>44176</v>
       </c>
       <c r="B1094" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1094">
         <v>1</v>
@@ -12464,7 +12464,7 @@
         <v>44176</v>
       </c>
       <c r="B1096" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1096">
         <v>6</v>
@@ -12508,7 +12508,7 @@
         <v>44177</v>
       </c>
       <c r="B1100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1100">
         <v>1</v>
@@ -12544,7 +12544,7 @@
         <v>5</v>
       </c>
       <c r="C1103">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12552,7 +12552,7 @@
         <v>44178</v>
       </c>
       <c r="B1104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1104">
         <v>1</v>
@@ -12574,7 +12574,7 @@
         <v>44178</v>
       </c>
       <c r="B1106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1106">
         <v>3</v>
@@ -12629,7 +12629,7 @@
         <v>44179</v>
       </c>
       <c r="B1111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1111">
         <v>4</v>
@@ -12684,7 +12684,7 @@
         <v>44180</v>
       </c>
       <c r="B1116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1116">
         <v>3</v>
@@ -12739,7 +12739,7 @@
         <v>44181</v>
       </c>
       <c r="B1121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1121">
         <v>2</v>
@@ -12761,7 +12761,7 @@
         <v>44181</v>
       </c>
       <c r="B1123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1123">
         <v>5</v>
@@ -12816,7 +12816,7 @@
         <v>44182</v>
       </c>
       <c r="B1128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1128">
         <v>9</v>
@@ -12860,7 +12860,7 @@
         <v>44183</v>
       </c>
       <c r="B1132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1132">
         <v>4</v>
@@ -12915,7 +12915,7 @@
         <v>44184</v>
       </c>
       <c r="B1137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1137">
         <v>4</v>
@@ -12940,7 +12940,7 @@
         <v>4</v>
       </c>
       <c r="C1139">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
@@ -12970,10 +12970,10 @@
         <v>44185</v>
       </c>
       <c r="B1142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1142">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -12995,7 +12995,7 @@
         <v>4</v>
       </c>
       <c r="C1144">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -13025,10 +13025,10 @@
         <v>44186</v>
       </c>
       <c r="B1147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1147">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
@@ -13091,7 +13091,7 @@
         <v>44187</v>
       </c>
       <c r="B1153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1153">
         <v>2</v>
@@ -13157,7 +13157,7 @@
         <v>44188</v>
       </c>
       <c r="B1159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1159">
         <v>3</v>
@@ -13171,7 +13171,7 @@
         <v>3</v>
       </c>
       <c r="C1160">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
@@ -13193,7 +13193,7 @@
         <v>5</v>
       </c>
       <c r="C1162">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
@@ -13201,10 +13201,10 @@
         <v>44189</v>
       </c>
       <c r="B1163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1163">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
@@ -13212,10 +13212,10 @@
         <v>44189</v>
       </c>
       <c r="B1164" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1164">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13223,10 +13223,10 @@
         <v>44189</v>
       </c>
       <c r="B1165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1165">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
@@ -13234,21 +13234,21 @@
         <v>44189</v>
       </c>
       <c r="B1166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1166">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
       <c r="A1167" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B1167" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1167">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
@@ -13256,10 +13256,10 @@
         <v>44190</v>
       </c>
       <c r="B1168" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -13270,7 +13270,7 @@
         <v>6</v>
       </c>
       <c r="C1169">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:3">
@@ -13278,10 +13278,10 @@
         <v>44190</v>
       </c>
       <c r="B1170" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1170">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -13289,10 +13289,10 @@
         <v>44190</v>
       </c>
       <c r="B1171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1171">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13300,21 +13300,21 @@
         <v>44190</v>
       </c>
       <c r="B1172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1172">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
       <c r="A1173" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B1173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1173">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13322,10 +13322,10 @@
         <v>44191</v>
       </c>
       <c r="B1174" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1174">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
@@ -13333,10 +13333,10 @@
         <v>44191</v>
       </c>
       <c r="B1175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1175">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13344,21 +13344,21 @@
         <v>44191</v>
       </c>
       <c r="B1176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1176">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
       <c r="A1177" s="2">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B1177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1177">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
@@ -13366,10 +13366,10 @@
         <v>44192</v>
       </c>
       <c r="B1178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
@@ -13377,10 +13377,10 @@
         <v>44192</v>
       </c>
       <c r="B1179" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1179">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1180" spans="1:3">
@@ -13388,10 +13388,10 @@
         <v>44192</v>
       </c>
       <c r="B1180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1180">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
@@ -13399,21 +13399,21 @@
         <v>44192</v>
       </c>
       <c r="B1181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1181">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
       <c r="A1182" s="2">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B1182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1182">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -13421,10 +13421,10 @@
         <v>44193</v>
       </c>
       <c r="B1183" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -13432,10 +13432,10 @@
         <v>44193</v>
       </c>
       <c r="B1184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1184">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13443,10 +13443,10 @@
         <v>44193</v>
       </c>
       <c r="B1185" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1185">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13454,10 +13454,10 @@
         <v>44193</v>
       </c>
       <c r="B1186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1186">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
@@ -13465,21 +13465,21 @@
         <v>44193</v>
       </c>
       <c r="B1187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1187">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
       <c r="A1188" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B1188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1188">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13487,10 +13487,10 @@
         <v>44194</v>
       </c>
       <c r="B1189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1189">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13498,10 +13498,10 @@
         <v>44194</v>
       </c>
       <c r="B1190" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1190">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -13509,10 +13509,10 @@
         <v>44194</v>
       </c>
       <c r="B1191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1191">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13520,21 +13520,21 @@
         <v>44194</v>
       </c>
       <c r="B1192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1192">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
       <c r="A1193" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B1193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1193">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13542,7 +13542,7 @@
         <v>44195</v>
       </c>
       <c r="B1194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1194">
         <v>1</v>
@@ -13553,10 +13553,10 @@
         <v>44195</v>
       </c>
       <c r="B1195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1195">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
@@ -13564,10 +13564,10 @@
         <v>44195</v>
       </c>
       <c r="B1196" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1196">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
@@ -13575,10 +13575,10 @@
         <v>44195</v>
       </c>
       <c r="B1197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1197">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -13586,21 +13586,21 @@
         <v>44195</v>
       </c>
       <c r="B1198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1198">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
       <c r="A1199" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B1199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1199">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -13608,7 +13608,7 @@
         <v>44196</v>
       </c>
       <c r="B1200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1200">
         <v>1</v>
@@ -13619,10 +13619,10 @@
         <v>44196</v>
       </c>
       <c r="B1201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1201">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
@@ -13630,10 +13630,10 @@
         <v>44196</v>
       </c>
       <c r="B1202" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1202">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
@@ -13641,10 +13641,10 @@
         <v>44196</v>
       </c>
       <c r="B1203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1203">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -13652,21 +13652,21 @@
         <v>44196</v>
       </c>
       <c r="B1204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1204">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1205" spans="1:3">
       <c r="A1205" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B1205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1205">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13674,10 +13674,10 @@
         <v>44197</v>
       </c>
       <c r="B1206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -13685,10 +13685,10 @@
         <v>44197</v>
       </c>
       <c r="B1207" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1207">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
@@ -13696,10 +13696,10 @@
         <v>44197</v>
       </c>
       <c r="B1208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1208">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -13707,21 +13707,21 @@
         <v>44197</v>
       </c>
       <c r="B1209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1209">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
       <c r="A1210" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B1210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1210">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13729,10 +13729,10 @@
         <v>44198</v>
       </c>
       <c r="B1211" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1211">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13740,10 +13740,10 @@
         <v>44198</v>
       </c>
       <c r="B1212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1212">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13751,21 +13751,21 @@
         <v>44198</v>
       </c>
       <c r="B1213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1213">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
       <c r="A1214" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B1214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1214">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13776,7 +13776,7 @@
         <v>6</v>
       </c>
       <c r="C1215">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13784,10 +13784,10 @@
         <v>44199</v>
       </c>
       <c r="B1216" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1216">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13795,10 +13795,10 @@
         <v>44199</v>
       </c>
       <c r="B1217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1217">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13806,21 +13806,21 @@
         <v>44199</v>
       </c>
       <c r="B1218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1218">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
       <c r="A1219" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B1219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1219">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13828,10 +13828,10 @@
         <v>44200</v>
       </c>
       <c r="B1220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:3">
@@ -13839,10 +13839,10 @@
         <v>44200</v>
       </c>
       <c r="B1221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
@@ -13850,10 +13850,10 @@
         <v>44200</v>
       </c>
       <c r="B1222" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1222">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
@@ -13861,10 +13861,10 @@
         <v>44200</v>
       </c>
       <c r="B1223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1223">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
@@ -13872,21 +13872,21 @@
         <v>44200</v>
       </c>
       <c r="B1224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1224">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
       <c r="A1225" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B1225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1225">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -13894,10 +13894,10 @@
         <v>44201</v>
       </c>
       <c r="B1226" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1226">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -13905,10 +13905,10 @@
         <v>44201</v>
       </c>
       <c r="B1227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1227">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
@@ -13916,21 +13916,21 @@
         <v>44201</v>
       </c>
       <c r="B1228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1228">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
       <c r="A1229" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B1229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1229">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
@@ -13938,7 +13938,7 @@
         <v>44202</v>
       </c>
       <c r="B1230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1230">
         <v>1</v>
@@ -13949,7 +13949,7 @@
         <v>44202</v>
       </c>
       <c r="B1231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1231">
         <v>1</v>
@@ -13960,10 +13960,10 @@
         <v>44202</v>
       </c>
       <c r="B1232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1232">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -13971,10 +13971,10 @@
         <v>44202</v>
       </c>
       <c r="B1233" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1233">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -13982,10 +13982,10 @@
         <v>44202</v>
       </c>
       <c r="B1234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1234">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -13993,21 +13993,21 @@
         <v>44202</v>
       </c>
       <c r="B1235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1235">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
       <c r="A1236" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B1236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1236">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14015,7 +14015,7 @@
         <v>44203</v>
       </c>
       <c r="B1237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1237">
         <v>1</v>
@@ -14026,10 +14026,10 @@
         <v>44203</v>
       </c>
       <c r="B1238" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1238">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
@@ -14037,10 +14037,10 @@
         <v>44203</v>
       </c>
       <c r="B1239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1239">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
@@ -14048,21 +14048,21 @@
         <v>44203</v>
       </c>
       <c r="B1240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1240">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
       <c r="A1241" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B1241" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1241">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14070,10 +14070,10 @@
         <v>44204</v>
       </c>
       <c r="B1242" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1242">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14081,10 +14081,10 @@
         <v>44204</v>
       </c>
       <c r="B1243" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1243">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14092,10 +14092,10 @@
         <v>44204</v>
       </c>
       <c r="B1244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1244">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
@@ -14103,21 +14103,21 @@
         <v>44204</v>
       </c>
       <c r="B1245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1245">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
       <c r="A1246" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B1246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1246">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14125,10 +14125,10 @@
         <v>44205</v>
       </c>
       <c r="B1247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1247">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
@@ -14136,10 +14136,10 @@
         <v>44205</v>
       </c>
       <c r="B1248" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1248">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14147,10 +14147,10 @@
         <v>44205</v>
       </c>
       <c r="B1249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1249">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14158,21 +14158,21 @@
         <v>44205</v>
       </c>
       <c r="B1250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1250">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
       <c r="A1251" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B1251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1251">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14180,10 +14180,10 @@
         <v>44206</v>
       </c>
       <c r="B1252" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1252">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
@@ -14191,10 +14191,10 @@
         <v>44206</v>
       </c>
       <c r="B1253" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1253">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14202,32 +14202,32 @@
         <v>44206</v>
       </c>
       <c r="B1254" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1254">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B1255" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1255">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
       <c r="A1256" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B1256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1256">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
@@ -14238,7 +14238,7 @@
         <v>6</v>
       </c>
       <c r="C1257">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
@@ -14246,10 +14246,10 @@
         <v>44207</v>
       </c>
       <c r="B1258" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1258">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
@@ -14257,10 +14257,10 @@
         <v>44207</v>
       </c>
       <c r="B1259" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1259">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14268,32 +14268,32 @@
         <v>44207</v>
       </c>
       <c r="B1260" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1260">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B1261" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1261">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
       <c r="A1262" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B1262" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1262">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14301,10 +14301,10 @@
         <v>44208</v>
       </c>
       <c r="B1263" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1263">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14312,32 +14312,32 @@
         <v>44208</v>
       </c>
       <c r="B1264" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1264">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
       <c r="A1265" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B1265" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1265">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
       <c r="A1266" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B1266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1266">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14345,10 +14345,10 @@
         <v>44209</v>
       </c>
       <c r="B1267" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1267">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
@@ -14356,10 +14356,10 @@
         <v>44209</v>
       </c>
       <c r="B1268" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1268">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14367,32 +14367,32 @@
         <v>44209</v>
       </c>
       <c r="B1269" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1269">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B1270" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1270">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
       <c r="A1271" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B1271" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1271">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14400,10 +14400,10 @@
         <v>44210</v>
       </c>
       <c r="B1272" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1272">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14411,32 +14411,32 @@
         <v>44210</v>
       </c>
       <c r="B1273" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1273">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
       <c r="A1274" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B1274" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1274">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B1275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1275">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14444,10 +14444,10 @@
         <v>44211</v>
       </c>
       <c r="B1276" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1276">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14455,10 +14455,10 @@
         <v>44211</v>
       </c>
       <c r="B1277" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1277">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14466,32 +14466,32 @@
         <v>44211</v>
       </c>
       <c r="B1278" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1278">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
       <c r="A1279" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B1279" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1279">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
       <c r="A1280" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B1280" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1280">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14499,10 +14499,10 @@
         <v>44212</v>
       </c>
       <c r="B1281" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1281">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14510,32 +14510,32 @@
         <v>44212</v>
       </c>
       <c r="B1282" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1282">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
       <c r="A1283" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B1283" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1283">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
       <c r="A1284" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B1284" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1284">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14543,10 +14543,10 @@
         <v>44213</v>
       </c>
       <c r="B1285" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1285">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14554,10 +14554,10 @@
         <v>44213</v>
       </c>
       <c r="B1286" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1286">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14565,32 +14565,32 @@
         <v>44213</v>
       </c>
       <c r="B1287" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1287">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
       <c r="A1288" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B1288" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1288">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
       <c r="A1289" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B1289" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1289">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14598,10 +14598,10 @@
         <v>44214</v>
       </c>
       <c r="B1290" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1290">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14609,32 +14609,32 @@
         <v>44214</v>
       </c>
       <c r="B1291" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1291">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
       <c r="A1292" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B1292" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1292">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B1293" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1293">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14642,10 +14642,10 @@
         <v>44215</v>
       </c>
       <c r="B1294" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1294">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14653,32 +14653,32 @@
         <v>44215</v>
       </c>
       <c r="B1295" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1295">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
       <c r="A1296" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B1296" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1296">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B1297" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1297">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14689,7 +14689,7 @@
         <v>6</v>
       </c>
       <c r="C1298">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14697,10 +14697,10 @@
         <v>44216</v>
       </c>
       <c r="B1299" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1299">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14708,10 +14708,10 @@
         <v>44216</v>
       </c>
       <c r="B1300" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1300">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14719,32 +14719,32 @@
         <v>44216</v>
       </c>
       <c r="B1301" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1301">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
       <c r="A1302" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B1302" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1302">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B1303" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1303">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14755,7 +14755,7 @@
         <v>6</v>
       </c>
       <c r="C1304">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
@@ -14763,10 +14763,10 @@
         <v>44217</v>
       </c>
       <c r="B1305" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14774,10 +14774,10 @@
         <v>44217</v>
       </c>
       <c r="B1306" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1306">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14785,32 +14785,32 @@
         <v>44217</v>
       </c>
       <c r="B1307" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1307">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
       <c r="A1308" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B1308" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1308">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B1309" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1309">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14818,10 +14818,10 @@
         <v>44218</v>
       </c>
       <c r="B1310" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1310">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14829,32 +14829,32 @@
         <v>44218</v>
       </c>
       <c r="B1311" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1311">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
       <c r="A1312" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B1312" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1312">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
       <c r="A1313" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B1313" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1313">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14862,10 +14862,10 @@
         <v>44219</v>
       </c>
       <c r="B1314" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1314">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14873,10 +14873,10 @@
         <v>44219</v>
       </c>
       <c r="B1315" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1315">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14884,32 +14884,32 @@
         <v>44219</v>
       </c>
       <c r="B1316" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1316">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
       <c r="A1317" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B1317" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1317">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
       <c r="A1318" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B1318" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1318">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14917,10 +14917,10 @@
         <v>44220</v>
       </c>
       <c r="B1319" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1319">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14928,32 +14928,32 @@
         <v>44220</v>
       </c>
       <c r="B1320" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1320">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
       <c r="A1321" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B1321" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1321">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
       <c r="A1322" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B1322" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1322">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14961,10 +14961,10 @@
         <v>44221</v>
       </c>
       <c r="B1323" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1323">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -14972,10 +14972,10 @@
         <v>44221</v>
       </c>
       <c r="B1324" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1324">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14983,32 +14983,32 @@
         <v>44221</v>
       </c>
       <c r="B1325" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1325">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
       <c r="A1326" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B1326" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1326">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
       <c r="A1327" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B1327" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1327">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15016,10 +15016,10 @@
         <v>44222</v>
       </c>
       <c r="B1328" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1328">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -15027,10 +15027,10 @@
         <v>44222</v>
       </c>
       <c r="B1329" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1329">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15038,32 +15038,32 @@
         <v>44222</v>
       </c>
       <c r="B1330" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1330">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
       <c r="A1331" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B1331" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1331">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
       <c r="A1332" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B1332" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1332">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15071,10 +15071,10 @@
         <v>44223</v>
       </c>
       <c r="B1333" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1333">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15082,10 +15082,10 @@
         <v>44223</v>
       </c>
       <c r="B1334" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1334">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15093,32 +15093,32 @@
         <v>44223</v>
       </c>
       <c r="B1335" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1335">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
       <c r="A1336" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B1336" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1336">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
       <c r="A1337" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B1337" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1337">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15126,32 +15126,32 @@
         <v>44224</v>
       </c>
       <c r="B1338" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1338">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
       <c r="A1339" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B1339" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1339">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
       <c r="A1340" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B1340" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1340">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15159,10 +15159,10 @@
         <v>44225</v>
       </c>
       <c r="B1341" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1341">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15170,43 +15170,43 @@
         <v>44225</v>
       </c>
       <c r="B1342" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1342">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
       <c r="A1343" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B1343" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1343">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
       <c r="A1344" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B1344" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1344">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
       <c r="A1345" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B1345" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1345">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15214,10 +15214,10 @@
         <v>44226</v>
       </c>
       <c r="B1346" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1346">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15225,43 +15225,43 @@
         <v>44226</v>
       </c>
       <c r="B1347" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1347">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
       <c r="A1348" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B1348" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1348">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
       <c r="A1349" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B1349" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1349">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
       <c r="A1350" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B1350" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1350">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15269,10 +15269,10 @@
         <v>44227</v>
       </c>
       <c r="B1351" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1351">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15280,43 +15280,43 @@
         <v>44227</v>
       </c>
       <c r="B1352" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1352">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
       <c r="A1353" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B1353" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1353">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
       <c r="A1354" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B1354" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1354">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
       <c r="A1355" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B1355" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1355">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15324,10 +15324,10 @@
         <v>44228</v>
       </c>
       <c r="B1356" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1356">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15335,10 +15335,10 @@
         <v>44228</v>
       </c>
       <c r="B1357" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1357">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15346,43 +15346,43 @@
         <v>44228</v>
       </c>
       <c r="B1358" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1358">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
       <c r="A1359" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B1359" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1359">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
       <c r="A1360" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B1360" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1360">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="A1361" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B1361" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1361">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15390,10 +15390,10 @@
         <v>44229</v>
       </c>
       <c r="B1362" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15401,10 +15401,10 @@
         <v>44229</v>
       </c>
       <c r="B1363" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1363">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15412,43 +15412,43 @@
         <v>44229</v>
       </c>
       <c r="B1364" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1364">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
       <c r="A1365" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B1365" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1365">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
       <c r="A1366" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B1366" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1366">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
       <c r="A1367" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B1367" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1367">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15456,43 +15456,43 @@
         <v>44230</v>
       </c>
       <c r="B1368" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1368">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
       <c r="A1369" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B1369" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1369">
         <v>9</v>
-      </c>
-      <c r="C1369">
-        <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
       <c r="A1370" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B1370" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1370">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
       <c r="A1371" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B1371" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1371">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15500,10 +15500,10 @@
         <v>44231</v>
       </c>
       <c r="B1372" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1372">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15511,32 +15511,252 @@
         <v>44231</v>
       </c>
       <c r="B1373" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1373">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
       <c r="A1374" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B1374" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1374">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
       <c r="A1375" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3">
+      <c r="A1376" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1376">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3">
+      <c r="A1377" s="2">
         <v>44232</v>
       </c>
-      <c r="B1375" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1375">
-        <v>5</v>
+      <c r="B1377" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3">
+      <c r="A1378" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1378">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3">
+      <c r="A1379" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3">
+      <c r="A1380" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3">
+      <c r="A1381" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3">
+      <c r="A1382" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3">
+      <c r="A1383" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1383">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3">
+      <c r="A1384" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3">
+      <c r="A1385" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3">
+      <c r="A1386" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3">
+      <c r="A1387" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1387">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3">
+      <c r="A1388" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3">
+      <c r="A1389" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3">
+      <c r="A1390" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1390">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3">
+      <c r="A1391" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3">
+      <c r="A1392" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3">
+      <c r="A1393" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3">
+      <c r="A1394" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3">
+      <c r="A1395" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1395">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1395"/>
+  <dimension ref="A1:C1403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11488,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="C1007">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -12874,7 +12874,7 @@
         <v>3</v>
       </c>
       <c r="C1133">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -13182,7 +13182,7 @@
         <v>4</v>
       </c>
       <c r="C1161">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
@@ -13303,7 +13303,7 @@
         <v>4</v>
       </c>
       <c r="C1172">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
@@ -13314,7 +13314,7 @@
         <v>5</v>
       </c>
       <c r="C1173">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13402,7 +13402,7 @@
         <v>4</v>
       </c>
       <c r="C1181">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
@@ -13479,7 +13479,7 @@
         <v>5</v>
       </c>
       <c r="C1188">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13512,7 +13512,7 @@
         <v>3</v>
       </c>
       <c r="C1191">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13534,7 +13534,7 @@
         <v>5</v>
       </c>
       <c r="C1193">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13798,7 +13798,7 @@
         <v>3</v>
       </c>
       <c r="C1217">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13875,7 +13875,7 @@
         <v>4</v>
       </c>
       <c r="C1224">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -13919,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="C1228">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13985,7 +13985,7 @@
         <v>3</v>
       </c>
       <c r="C1234">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -14095,7 +14095,7 @@
         <v>3</v>
       </c>
       <c r="C1244">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
@@ -14172,7 +14172,7 @@
         <v>5</v>
       </c>
       <c r="C1251">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14227,7 +14227,7 @@
         <v>5</v>
       </c>
       <c r="C1256">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
@@ -14326,7 +14326,7 @@
         <v>4</v>
       </c>
       <c r="C1265">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14337,7 +14337,7 @@
         <v>5</v>
       </c>
       <c r="C1266">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14359,7 +14359,7 @@
         <v>7</v>
       </c>
       <c r="C1268">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14370,7 +14370,7 @@
         <v>3</v>
       </c>
       <c r="C1269">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
@@ -14425,7 +14425,7 @@
         <v>4</v>
       </c>
       <c r="C1274">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
@@ -14436,7 +14436,7 @@
         <v>5</v>
       </c>
       <c r="C1275">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14480,7 +14480,7 @@
         <v>4</v>
       </c>
       <c r="C1279">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
@@ -14524,7 +14524,7 @@
         <v>4</v>
       </c>
       <c r="C1283">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
@@ -14535,7 +14535,7 @@
         <v>5</v>
       </c>
       <c r="C1284">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14590,7 +14590,7 @@
         <v>5</v>
       </c>
       <c r="C1289">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14623,7 +14623,7 @@
         <v>4</v>
       </c>
       <c r="C1292">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
@@ -14678,7 +14678,7 @@
         <v>5</v>
       </c>
       <c r="C1297">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14799,7 +14799,7 @@
         <v>4</v>
       </c>
       <c r="C1308">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
@@ -14843,7 +14843,7 @@
         <v>4</v>
       </c>
       <c r="C1312">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -14898,7 +14898,7 @@
         <v>4</v>
       </c>
       <c r="C1317">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14920,7 +14920,7 @@
         <v>7</v>
       </c>
       <c r="C1319">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14953,7 +14953,7 @@
         <v>5</v>
       </c>
       <c r="C1322">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14997,7 +14997,7 @@
         <v>4</v>
       </c>
       <c r="C1326">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -15008,7 +15008,7 @@
         <v>5</v>
       </c>
       <c r="C1327">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15030,7 +15030,7 @@
         <v>7</v>
       </c>
       <c r="C1329">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15063,7 +15063,7 @@
         <v>5</v>
       </c>
       <c r="C1332">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15096,7 +15096,7 @@
         <v>3</v>
       </c>
       <c r="C1335">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15195,7 +15195,7 @@
         <v>4</v>
       </c>
       <c r="C1344">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15250,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="C1349">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15261,7 +15261,7 @@
         <v>5</v>
       </c>
       <c r="C1350">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15349,7 +15349,7 @@
         <v>7</v>
       </c>
       <c r="C1358">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15360,7 +15360,7 @@
         <v>3</v>
       </c>
       <c r="C1359">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15371,7 +15371,7 @@
         <v>4</v>
       </c>
       <c r="C1360">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15448,7 +15448,7 @@
         <v>5</v>
       </c>
       <c r="C1367">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15470,7 +15470,7 @@
         <v>3</v>
       </c>
       <c r="C1369">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15481,7 +15481,7 @@
         <v>4</v>
       </c>
       <c r="C1370">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15492,7 +15492,7 @@
         <v>5</v>
       </c>
       <c r="C1371">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15514,7 +15514,7 @@
         <v>7</v>
       </c>
       <c r="C1373">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15536,7 +15536,7 @@
         <v>4</v>
       </c>
       <c r="C1375">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15547,7 +15547,7 @@
         <v>5</v>
       </c>
       <c r="C1376">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15569,7 +15569,7 @@
         <v>5</v>
       </c>
       <c r="C1378">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15602,7 +15602,7 @@
         <v>3</v>
       </c>
       <c r="C1381">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15613,7 +15613,7 @@
         <v>4</v>
       </c>
       <c r="C1382">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15657,7 +15657,7 @@
         <v>4</v>
       </c>
       <c r="C1386">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15701,7 +15701,7 @@
         <v>5</v>
       </c>
       <c r="C1390">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15709,7 +15709,7 @@
         <v>44236</v>
       </c>
       <c r="B1391" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1391">
         <v>1</v>
@@ -15720,10 +15720,10 @@
         <v>44236</v>
       </c>
       <c r="B1392" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1392">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15734,7 +15734,7 @@
         <v>3</v>
       </c>
       <c r="C1393">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15745,7 +15745,7 @@
         <v>4</v>
       </c>
       <c r="C1394">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15756,7 +15756,95 @@
         <v>5</v>
       </c>
       <c r="C1395">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3">
+      <c r="A1396" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3">
+      <c r="A1397" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3">
+      <c r="A1398" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3">
+      <c r="A1399" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3">
+      <c r="A1400" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3">
+      <c r="A1401" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3">
+      <c r="A1402" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3">
+      <c r="A1403" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1403">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1403"/>
+  <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11499,7 +11499,7 @@
         <v>5</v>
       </c>
       <c r="C1008">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11664,7 +11664,7 @@
         <v>5</v>
       </c>
       <c r="C1023">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -12423,7 +12423,7 @@
         <v>5</v>
       </c>
       <c r="C1092">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -12797,7 +12797,7 @@
         <v>5</v>
       </c>
       <c r="C1126">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12852,7 +12852,7 @@
         <v>5</v>
       </c>
       <c r="C1131">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -13820,7 +13820,7 @@
         <v>5</v>
       </c>
       <c r="C1219">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -14007,7 +14007,7 @@
         <v>5</v>
       </c>
       <c r="C1236">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14117,7 +14117,7 @@
         <v>5</v>
       </c>
       <c r="C1246">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14172,7 +14172,7 @@
         <v>5</v>
       </c>
       <c r="C1251">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14337,7 +14337,7 @@
         <v>5</v>
       </c>
       <c r="C1266">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14535,7 +14535,7 @@
         <v>5</v>
       </c>
       <c r="C1284">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14667,7 +14667,7 @@
         <v>4</v>
       </c>
       <c r="C1296">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
@@ -14744,7 +14744,7 @@
         <v>5</v>
       </c>
       <c r="C1303">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14788,7 +14788,7 @@
         <v>3</v>
       </c>
       <c r="C1307">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14810,7 +14810,7 @@
         <v>5</v>
       </c>
       <c r="C1309">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14862,10 +14862,10 @@
         <v>44219</v>
       </c>
       <c r="B1314" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1314">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14873,10 +14873,10 @@
         <v>44219</v>
       </c>
       <c r="B1315" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1315">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14884,10 +14884,10 @@
         <v>44219</v>
       </c>
       <c r="B1316" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1316">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -14895,21 +14895,21 @@
         <v>44219</v>
       </c>
       <c r="B1317" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1317">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
       <c r="A1318" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B1318" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1318">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14917,10 +14917,10 @@
         <v>44220</v>
       </c>
       <c r="B1319" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1319">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14928,10 +14928,10 @@
         <v>44220</v>
       </c>
       <c r="B1320" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1320">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -14939,21 +14939,21 @@
         <v>44220</v>
       </c>
       <c r="B1321" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1321">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
       <c r="A1322" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B1322" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1322">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14961,7 +14961,7 @@
         <v>44221</v>
       </c>
       <c r="B1323" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1323">
         <v>1</v>
@@ -14972,10 +14972,10 @@
         <v>44221</v>
       </c>
       <c r="B1324" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1324">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14983,10 +14983,10 @@
         <v>44221</v>
       </c>
       <c r="B1325" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1325">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -14994,21 +14994,21 @@
         <v>44221</v>
       </c>
       <c r="B1326" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1326">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
       <c r="A1327" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B1327" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1327">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15016,10 +15016,10 @@
         <v>44222</v>
       </c>
       <c r="B1328" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1328">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -15027,7 +15027,7 @@
         <v>44222</v>
       </c>
       <c r="B1329" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1329">
         <v>7</v>
@@ -15038,10 +15038,10 @@
         <v>44222</v>
       </c>
       <c r="B1330" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1330">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
@@ -15049,21 +15049,21 @@
         <v>44222</v>
       </c>
       <c r="B1331" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1331">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
       <c r="A1332" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B1332" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1332">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15071,10 +15071,10 @@
         <v>44223</v>
       </c>
       <c r="B1333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15082,10 +15082,10 @@
         <v>44223</v>
       </c>
       <c r="B1334" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1334">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15093,10 +15093,10 @@
         <v>44223</v>
       </c>
       <c r="B1335" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1335">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15104,21 +15104,21 @@
         <v>44223</v>
       </c>
       <c r="B1336" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1336">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
       <c r="A1337" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B1337" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1337">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15126,10 +15126,10 @@
         <v>44224</v>
       </c>
       <c r="B1338" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1338">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15137,21 +15137,21 @@
         <v>44224</v>
       </c>
       <c r="B1339" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1339">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
       <c r="A1340" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B1340" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1340">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15159,10 +15159,10 @@
         <v>44225</v>
       </c>
       <c r="B1341" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1341">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15170,10 +15170,10 @@
         <v>44225</v>
       </c>
       <c r="B1342" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1342">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15181,10 +15181,10 @@
         <v>44225</v>
       </c>
       <c r="B1343" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1343">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15192,21 +15192,21 @@
         <v>44225</v>
       </c>
       <c r="B1344" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1344">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
       <c r="A1345" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B1345" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1345">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15214,10 +15214,10 @@
         <v>44226</v>
       </c>
       <c r="B1346" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1346">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15225,10 +15225,10 @@
         <v>44226</v>
       </c>
       <c r="B1347" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1347">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15236,10 +15236,10 @@
         <v>44226</v>
       </c>
       <c r="B1348" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1348">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15247,21 +15247,21 @@
         <v>44226</v>
       </c>
       <c r="B1349" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1349">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
       <c r="A1350" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B1350" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1350">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15269,10 +15269,10 @@
         <v>44227</v>
       </c>
       <c r="B1351" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1351">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15280,10 +15280,10 @@
         <v>44227</v>
       </c>
       <c r="B1352" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1352">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15291,10 +15291,10 @@
         <v>44227</v>
       </c>
       <c r="B1353" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1353">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15302,21 +15302,21 @@
         <v>44227</v>
       </c>
       <c r="B1354" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1354">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
       <c r="A1355" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B1355" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1355">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15324,7 +15324,7 @@
         <v>44228</v>
       </c>
       <c r="B1356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1356">
         <v>1</v>
@@ -15335,10 +15335,10 @@
         <v>44228</v>
       </c>
       <c r="B1357" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15346,10 +15346,10 @@
         <v>44228</v>
       </c>
       <c r="B1358" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1358">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15357,10 +15357,10 @@
         <v>44228</v>
       </c>
       <c r="B1359" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1359">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15368,21 +15368,21 @@
         <v>44228</v>
       </c>
       <c r="B1360" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1360">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="A1361" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B1361" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1361">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15390,10 +15390,10 @@
         <v>44229</v>
       </c>
       <c r="B1362" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1362">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15401,10 +15401,10 @@
         <v>44229</v>
       </c>
       <c r="B1363" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1363">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15412,10 +15412,10 @@
         <v>44229</v>
       </c>
       <c r="B1364" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1364">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15423,10 +15423,10 @@
         <v>44229</v>
       </c>
       <c r="B1365" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1365">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15434,21 +15434,21 @@
         <v>44229</v>
       </c>
       <c r="B1366" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1366">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
       <c r="A1367" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B1367" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1367">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15456,10 +15456,10 @@
         <v>44230</v>
       </c>
       <c r="B1368" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1368">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15467,7 +15467,7 @@
         <v>44230</v>
       </c>
       <c r="B1369" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1369">
         <v>10</v>
@@ -15478,21 +15478,21 @@
         <v>44230</v>
       </c>
       <c r="B1370" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1370">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
       <c r="A1371" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B1371" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1371">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15500,10 +15500,10 @@
         <v>44231</v>
       </c>
       <c r="B1372" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1372">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15511,10 +15511,10 @@
         <v>44231</v>
       </c>
       <c r="B1373" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1373">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15522,10 +15522,10 @@
         <v>44231</v>
       </c>
       <c r="B1374" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1374">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15533,21 +15533,21 @@
         <v>44231</v>
       </c>
       <c r="B1375" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1375">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
       <c r="A1376" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B1376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1376">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15555,21 +15555,21 @@
         <v>44232</v>
       </c>
       <c r="B1377" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1377">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
       <c r="A1378" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B1378" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1378">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15577,7 +15577,7 @@
         <v>44233</v>
       </c>
       <c r="B1379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1379">
         <v>1</v>
@@ -15588,10 +15588,10 @@
         <v>44233</v>
       </c>
       <c r="B1380" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1380">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15599,10 +15599,10 @@
         <v>44233</v>
       </c>
       <c r="B1381" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1381">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15610,21 +15610,21 @@
         <v>44233</v>
       </c>
       <c r="B1382" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1382">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
       <c r="A1383" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B1383" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1383">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15632,10 +15632,10 @@
         <v>44234</v>
       </c>
       <c r="B1384" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1384">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15643,10 +15643,10 @@
         <v>44234</v>
       </c>
       <c r="B1385" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1385">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15654,21 +15654,21 @@
         <v>44234</v>
       </c>
       <c r="B1386" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1386">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
       <c r="A1387" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="B1387" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1387">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15676,10 +15676,10 @@
         <v>44235</v>
       </c>
       <c r="B1388" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1388">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15687,21 +15687,21 @@
         <v>44235</v>
       </c>
       <c r="B1389" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1389">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
       <c r="A1390" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B1390" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1390">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15709,10 +15709,10 @@
         <v>44236</v>
       </c>
       <c r="B1391" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1391">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15720,7 +15720,7 @@
         <v>44236</v>
       </c>
       <c r="B1392" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1392">
         <v>5</v>
@@ -15731,10 +15731,10 @@
         <v>44236</v>
       </c>
       <c r="B1393" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1393">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15742,21 +15742,21 @@
         <v>44236</v>
       </c>
       <c r="B1394" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1394">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
       <c r="A1395" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B1395" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1395">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15764,7 +15764,7 @@
         <v>44237</v>
       </c>
       <c r="B1396" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1396">
         <v>1</v>
@@ -15775,10 +15775,10 @@
         <v>44237</v>
       </c>
       <c r="B1397" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1397">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15786,10 +15786,10 @@
         <v>44237</v>
       </c>
       <c r="B1398" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1398">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15797,21 +15797,21 @@
         <v>44237</v>
       </c>
       <c r="B1399" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1399">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
       <c r="A1400" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B1400" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15822,7 +15822,7 @@
         <v>3</v>
       </c>
       <c r="C1401">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15833,7 +15833,7 @@
         <v>4</v>
       </c>
       <c r="C1402">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15844,7 +15844,62 @@
         <v>5</v>
       </c>
       <c r="C1403">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3">
+      <c r="A1404" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3">
+      <c r="A1405" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3">
+      <c r="A1406" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3">
+      <c r="A1407" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3">
+      <c r="A1408" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1408">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1408"/>
+  <dimension ref="A1:C1411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13215,7 +13215,7 @@
         <v>7</v>
       </c>
       <c r="C1164">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13358,7 +13358,7 @@
         <v>5</v>
       </c>
       <c r="C1177">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
@@ -13501,7 +13501,7 @@
         <v>7</v>
       </c>
       <c r="C1190">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -13886,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="C1225">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -14260,7 +14260,7 @@
         <v>7</v>
       </c>
       <c r="C1259">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14590,7 +14590,7 @@
         <v>5</v>
       </c>
       <c r="C1289">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14634,7 +14634,7 @@
         <v>5</v>
       </c>
       <c r="C1293">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14898,7 +14898,7 @@
         <v>5</v>
       </c>
       <c r="C1317">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -15140,7 +15140,7 @@
         <v>5</v>
       </c>
       <c r="C1339">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15305,7 +15305,7 @@
         <v>5</v>
       </c>
       <c r="C1354">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15426,7 +15426,7 @@
         <v>4</v>
       </c>
       <c r="C1365">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15668,7 +15668,7 @@
         <v>3</v>
       </c>
       <c r="C1387">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15690,7 +15690,7 @@
         <v>5</v>
       </c>
       <c r="C1389">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15734,7 +15734,7 @@
         <v>4</v>
       </c>
       <c r="C1393">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15778,7 +15778,7 @@
         <v>3</v>
       </c>
       <c r="C1397">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15885,7 +15885,7 @@
         <v>44240</v>
       </c>
       <c r="B1407" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1407">
         <v>1</v>
@@ -15896,10 +15896,43 @@
         <v>44240</v>
       </c>
       <c r="B1408" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1408">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3">
+      <c r="A1409" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3">
+      <c r="A1410" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:3">
+      <c r="A1411" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1411">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1411"/>
+  <dimension ref="A1:C1421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -12533,7 +12533,7 @@
         <v>4</v>
       </c>
       <c r="C1102">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1103" spans="1:3">
@@ -13006,7 +13006,7 @@
         <v>5</v>
       </c>
       <c r="C1145">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
@@ -13127,7 +13127,7 @@
         <v>5</v>
       </c>
       <c r="C1156">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13600,7 +13600,7 @@
         <v>5</v>
       </c>
       <c r="C1199">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -14271,7 +14271,7 @@
         <v>3</v>
       </c>
       <c r="C1260">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
@@ -14480,7 +14480,7 @@
         <v>4</v>
       </c>
       <c r="C1279">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
@@ -15173,7 +15173,7 @@
         <v>3</v>
       </c>
       <c r="C1342">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15470,7 +15470,7 @@
         <v>4</v>
       </c>
       <c r="C1369">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15503,7 +15503,7 @@
         <v>7</v>
       </c>
       <c r="C1372">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15536,7 +15536,7 @@
         <v>5</v>
       </c>
       <c r="C1375">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15668,7 +15668,7 @@
         <v>3</v>
       </c>
       <c r="C1387">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15745,7 +15745,7 @@
         <v>5</v>
       </c>
       <c r="C1394">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15855,7 +15855,7 @@
         <v>3</v>
       </c>
       <c r="C1404">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -15877,7 +15877,7 @@
         <v>5</v>
       </c>
       <c r="C1406">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15896,7 +15896,7 @@
         <v>44240</v>
       </c>
       <c r="B1408" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1408">
         <v>1</v>
@@ -15907,10 +15907,10 @@
         <v>44240</v>
       </c>
       <c r="B1409" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1409">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15918,7 +15918,7 @@
         <v>44240</v>
       </c>
       <c r="B1410" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1410">
         <v>2</v>
@@ -15926,13 +15926,123 @@
     </row>
     <row r="1411" spans="1:3">
       <c r="A1411" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1411">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3">
+      <c r="A1412" s="2">
         <v>44241</v>
       </c>
-      <c r="B1411" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1411">
-        <v>1</v>
+      <c r="B1412" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3">
+      <c r="A1413" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3">
+      <c r="A1414" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3">
+      <c r="A1415" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3">
+      <c r="A1416" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3">
+      <c r="A1417" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3">
+      <c r="A1418" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:3">
+      <c r="A1419" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3">
+      <c r="A1420" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1420">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:3">
+      <c r="A1421" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1421">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1421"/>
+  <dimension ref="A1:C1424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13721,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="C1210">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13743,7 +13743,7 @@
         <v>3</v>
       </c>
       <c r="C1212">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -14062,7 +14062,7 @@
         <v>5</v>
       </c>
       <c r="C1241">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14172,7 +14172,7 @@
         <v>5</v>
       </c>
       <c r="C1251">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14942,7 +14942,7 @@
         <v>5</v>
       </c>
       <c r="C1321">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14986,7 +14986,7 @@
         <v>4</v>
       </c>
       <c r="C1325">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -15107,7 +15107,7 @@
         <v>5</v>
       </c>
       <c r="C1336">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15140,7 +15140,7 @@
         <v>5</v>
       </c>
       <c r="C1339">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15294,7 +15294,7 @@
         <v>4</v>
       </c>
       <c r="C1353">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15305,7 +15305,7 @@
         <v>5</v>
       </c>
       <c r="C1354">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15426,7 +15426,7 @@
         <v>4</v>
       </c>
       <c r="C1365">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15536,7 +15536,7 @@
         <v>5</v>
       </c>
       <c r="C1375">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15613,7 +15613,7 @@
         <v>5</v>
       </c>
       <c r="C1382">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15745,7 +15745,7 @@
         <v>5</v>
       </c>
       <c r="C1394">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15789,7 +15789,7 @@
         <v>4</v>
       </c>
       <c r="C1398">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15866,7 +15866,7 @@
         <v>4</v>
       </c>
       <c r="C1405">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15976,7 +15976,7 @@
         <v>4</v>
       </c>
       <c r="C1415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -16031,7 +16031,7 @@
         <v>5</v>
       </c>
       <c r="C1420">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16039,10 +16039,43 @@
         <v>44243</v>
       </c>
       <c r="B1421" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1421">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3">
+      <c r="A1422" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:3">
+      <c r="A1423" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3">
+      <c r="A1424" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1424">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1424"/>
+  <dimension ref="A1:C1434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -11466,7 +11466,7 @@
         <v>5</v>
       </c>
       <c r="C1005">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11873,7 +11873,7 @@
         <v>5</v>
       </c>
       <c r="C1042">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
@@ -12313,7 +12313,7 @@
         <v>4</v>
       </c>
       <c r="C1082">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -12709,7 +12709,7 @@
         <v>4</v>
       </c>
       <c r="C1118">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12852,7 +12852,7 @@
         <v>5</v>
       </c>
       <c r="C1131">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -13468,7 +13468,7 @@
         <v>4</v>
       </c>
       <c r="C1187">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
@@ -13644,7 +13644,7 @@
         <v>3</v>
       </c>
       <c r="C1203">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -13721,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="C1210">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13897,7 +13897,7 @@
         <v>7</v>
       </c>
       <c r="C1226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -14007,7 +14007,7 @@
         <v>5</v>
       </c>
       <c r="C1236">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14337,7 +14337,7 @@
         <v>5</v>
       </c>
       <c r="C1266">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14535,7 +14535,7 @@
         <v>5</v>
       </c>
       <c r="C1284">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14986,7 +14986,7 @@
         <v>4</v>
       </c>
       <c r="C1325">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -15118,7 +15118,7 @@
         <v>3</v>
       </c>
       <c r="C1337">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15140,7 +15140,7 @@
         <v>5</v>
       </c>
       <c r="C1339">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15195,7 +15195,7 @@
         <v>5</v>
       </c>
       <c r="C1344">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15558,7 +15558,7 @@
         <v>5</v>
       </c>
       <c r="C1377">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15745,7 +15745,7 @@
         <v>5</v>
       </c>
       <c r="C1394">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15789,7 +15789,7 @@
         <v>4</v>
       </c>
       <c r="C1398">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15800,7 +15800,7 @@
         <v>5</v>
       </c>
       <c r="C1399">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15877,7 +15877,7 @@
         <v>5</v>
       </c>
       <c r="C1406">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15907,10 +15907,10 @@
         <v>44240</v>
       </c>
       <c r="B1409" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1409">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15918,10 +15918,10 @@
         <v>44240</v>
       </c>
       <c r="B1410" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1410">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15929,21 +15929,21 @@
         <v>44240</v>
       </c>
       <c r="B1411" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1411">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
       <c r="A1412" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B1412" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1412">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15951,10 +15951,10 @@
         <v>44241</v>
       </c>
       <c r="B1413" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -15962,10 +15962,10 @@
         <v>44241</v>
       </c>
       <c r="B1414" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1414">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15973,10 +15973,10 @@
         <v>44241</v>
       </c>
       <c r="B1415" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1415">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15984,21 +15984,21 @@
         <v>44241</v>
       </c>
       <c r="B1416" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1416">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
       <c r="A1417" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B1417" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1417">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
@@ -16006,10 +16006,10 @@
         <v>44242</v>
       </c>
       <c r="B1418" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1418">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -16017,10 +16017,10 @@
         <v>44242</v>
       </c>
       <c r="B1419" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1419">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16028,21 +16028,21 @@
         <v>44242</v>
       </c>
       <c r="B1420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1420">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
       <c r="A1421" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B1421" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1421">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16050,10 +16050,10 @@
         <v>44243</v>
       </c>
       <c r="B1422" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1422">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16061,10 +16061,10 @@
         <v>44243</v>
       </c>
       <c r="B1423" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1423">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16072,10 +16072,120 @@
         <v>44243</v>
       </c>
       <c r="B1424" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1424">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3">
+      <c r="A1425" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3">
+      <c r="A1426" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3">
+      <c r="A1427" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3">
+      <c r="A1428" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3">
+      <c r="A1429" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3">
+      <c r="A1430" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3">
+      <c r="A1431" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3">
+      <c r="A1432" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3">
+      <c r="A1433" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3">
+      <c r="A1434" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1434">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1434"/>
+  <dimension ref="A1:C1446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11345,7 +11345,7 @@
         <v>3</v>
       </c>
       <c r="C994">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11664,7 +11664,7 @@
         <v>5</v>
       </c>
       <c r="C1023">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11862,7 +11862,7 @@
         <v>4</v>
       </c>
       <c r="C1041">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11928,7 +11928,7 @@
         <v>5</v>
       </c>
       <c r="C1047">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -12104,7 +12104,7 @@
         <v>5</v>
       </c>
       <c r="C1063">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12170,7 +12170,7 @@
         <v>7</v>
       </c>
       <c r="C1069">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -13248,7 +13248,7 @@
         <v>5</v>
       </c>
       <c r="C1167">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
@@ -13347,7 +13347,7 @@
         <v>4</v>
       </c>
       <c r="C1176">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13589,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="C1198">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
@@ -13666,7 +13666,7 @@
         <v>5</v>
       </c>
       <c r="C1205">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13787,7 +13787,7 @@
         <v>7</v>
       </c>
       <c r="C1216">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13809,7 +13809,7 @@
         <v>4</v>
       </c>
       <c r="C1218">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13886,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="C1225">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -14062,7 +14062,7 @@
         <v>5</v>
       </c>
       <c r="C1241">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14227,7 +14227,7 @@
         <v>5</v>
       </c>
       <c r="C1256">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
@@ -14337,7 +14337,7 @@
         <v>5</v>
       </c>
       <c r="C1266">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14392,7 +14392,7 @@
         <v>5</v>
       </c>
       <c r="C1271">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14425,7 +14425,7 @@
         <v>4</v>
       </c>
       <c r="C1274">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
@@ -14491,7 +14491,7 @@
         <v>5</v>
       </c>
       <c r="C1280">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14535,7 +14535,7 @@
         <v>5</v>
       </c>
       <c r="C1284">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14579,7 +14579,7 @@
         <v>4</v>
       </c>
       <c r="C1288">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
@@ -14810,7 +14810,7 @@
         <v>5</v>
       </c>
       <c r="C1309">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14821,7 +14821,7 @@
         <v>7</v>
       </c>
       <c r="C1310">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14843,7 +14843,7 @@
         <v>4</v>
       </c>
       <c r="C1312">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -14898,7 +14898,7 @@
         <v>5</v>
       </c>
       <c r="C1317">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14931,7 +14931,7 @@
         <v>4</v>
       </c>
       <c r="C1320">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -14942,7 +14942,7 @@
         <v>5</v>
       </c>
       <c r="C1321">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14997,7 +14997,7 @@
         <v>5</v>
       </c>
       <c r="C1326">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -15052,7 +15052,7 @@
         <v>5</v>
       </c>
       <c r="C1331">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15107,7 +15107,7 @@
         <v>5</v>
       </c>
       <c r="C1336">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15118,7 +15118,7 @@
         <v>3</v>
       </c>
       <c r="C1337">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15129,7 +15129,7 @@
         <v>4</v>
       </c>
       <c r="C1338">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15159,10 +15159,10 @@
         <v>44225</v>
       </c>
       <c r="B1341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1341">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15170,10 +15170,10 @@
         <v>44225</v>
       </c>
       <c r="B1342" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1342">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15181,10 +15181,10 @@
         <v>44225</v>
       </c>
       <c r="B1343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1343">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15192,21 +15192,21 @@
         <v>44225</v>
       </c>
       <c r="B1344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1344">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
       <c r="A1345" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B1345" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1345">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15214,10 +15214,10 @@
         <v>44226</v>
       </c>
       <c r="B1346" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1346">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15225,10 +15225,10 @@
         <v>44226</v>
       </c>
       <c r="B1347" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1347">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15236,10 +15236,10 @@
         <v>44226</v>
       </c>
       <c r="B1348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1348">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15247,21 +15247,21 @@
         <v>44226</v>
       </c>
       <c r="B1349" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1349">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
       <c r="A1350" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B1350" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1350">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15269,10 +15269,10 @@
         <v>44227</v>
       </c>
       <c r="B1351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1351">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15280,10 +15280,10 @@
         <v>44227</v>
       </c>
       <c r="B1352" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1352">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15291,10 +15291,10 @@
         <v>44227</v>
       </c>
       <c r="B1353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1353">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15302,21 +15302,21 @@
         <v>44227</v>
       </c>
       <c r="B1354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1354">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
       <c r="A1355" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B1355" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1355">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15324,7 +15324,7 @@
         <v>44228</v>
       </c>
       <c r="B1356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1356">
         <v>1</v>
@@ -15335,10 +15335,10 @@
         <v>44228</v>
       </c>
       <c r="B1357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1357">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15346,10 +15346,10 @@
         <v>44228</v>
       </c>
       <c r="B1358" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1358">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15357,10 +15357,10 @@
         <v>44228</v>
       </c>
       <c r="B1359" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1359">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15368,21 +15368,21 @@
         <v>44228</v>
       </c>
       <c r="B1360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1360">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="A1361" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B1361" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1361">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15390,10 +15390,10 @@
         <v>44229</v>
       </c>
       <c r="B1362" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1362">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15401,10 +15401,10 @@
         <v>44229</v>
       </c>
       <c r="B1363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1363">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15412,10 +15412,10 @@
         <v>44229</v>
       </c>
       <c r="B1364" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1364">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15423,10 +15423,10 @@
         <v>44229</v>
       </c>
       <c r="B1365" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1365">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15434,21 +15434,21 @@
         <v>44229</v>
       </c>
       <c r="B1366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1366">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
       <c r="A1367" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B1367" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1367">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15456,10 +15456,10 @@
         <v>44230</v>
       </c>
       <c r="B1368" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1368">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15467,7 +15467,7 @@
         <v>44230</v>
       </c>
       <c r="B1369" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1369">
         <v>11</v>
@@ -15478,21 +15478,21 @@
         <v>44230</v>
       </c>
       <c r="B1370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1370">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
       <c r="A1371" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B1371" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1371">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15500,10 +15500,10 @@
         <v>44231</v>
       </c>
       <c r="B1372" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1372">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15511,10 +15511,10 @@
         <v>44231</v>
       </c>
       <c r="B1373" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1373">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15522,10 +15522,10 @@
         <v>44231</v>
       </c>
       <c r="B1374" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1374">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15533,21 +15533,21 @@
         <v>44231</v>
       </c>
       <c r="B1375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1375">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
       <c r="A1376" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B1376" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1376">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15555,21 +15555,21 @@
         <v>44232</v>
       </c>
       <c r="B1377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1377">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
       <c r="A1378" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B1378" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1378">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15577,7 +15577,7 @@
         <v>44233</v>
       </c>
       <c r="B1379" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1379">
         <v>1</v>
@@ -15588,10 +15588,10 @@
         <v>44233</v>
       </c>
       <c r="B1380" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1380">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15599,10 +15599,10 @@
         <v>44233</v>
       </c>
       <c r="B1381" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1381">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15610,21 +15610,21 @@
         <v>44233</v>
       </c>
       <c r="B1382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1382">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
       <c r="A1383" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B1383" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1383">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15632,10 +15632,10 @@
         <v>44234</v>
       </c>
       <c r="B1384" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1384">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15643,10 +15643,10 @@
         <v>44234</v>
       </c>
       <c r="B1385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1385">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15654,21 +15654,21 @@
         <v>44234</v>
       </c>
       <c r="B1386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1386">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
       <c r="A1387" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B1387" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1387">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15676,10 +15676,10 @@
         <v>44235</v>
       </c>
       <c r="B1388" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1388">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15687,21 +15687,21 @@
         <v>44235</v>
       </c>
       <c r="B1389" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1389">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
       <c r="A1390" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B1390" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1390">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15709,10 +15709,10 @@
         <v>44236</v>
       </c>
       <c r="B1391" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1391">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15720,7 +15720,7 @@
         <v>44236</v>
       </c>
       <c r="B1392" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1392">
         <v>5</v>
@@ -15731,10 +15731,10 @@
         <v>44236</v>
       </c>
       <c r="B1393" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1393">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15742,21 +15742,21 @@
         <v>44236</v>
       </c>
       <c r="B1394" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1394">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
       <c r="A1395" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B1395" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1395">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15764,7 +15764,7 @@
         <v>44237</v>
       </c>
       <c r="B1396" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1396">
         <v>1</v>
@@ -15775,10 +15775,10 @@
         <v>44237</v>
       </c>
       <c r="B1397" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1397">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15786,10 +15786,10 @@
         <v>44237</v>
       </c>
       <c r="B1398" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1398">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15797,21 +15797,21 @@
         <v>44237</v>
       </c>
       <c r="B1399" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1399">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
       <c r="A1400" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B1400" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1400">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15819,10 +15819,10 @@
         <v>44238</v>
       </c>
       <c r="B1401" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1401">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15830,10 +15830,10 @@
         <v>44238</v>
       </c>
       <c r="B1402" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1402">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15841,18 +15841,18 @@
         <v>44238</v>
       </c>
       <c r="B1403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1403">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
       <c r="A1404" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B1404" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1404">
         <v>4</v>
@@ -15863,10 +15863,10 @@
         <v>44239</v>
       </c>
       <c r="B1405" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1405">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15874,21 +15874,21 @@
         <v>44239</v>
       </c>
       <c r="B1406" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1406">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
       <c r="A1407" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B1407" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1407">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -15896,7 +15896,7 @@
         <v>44240</v>
       </c>
       <c r="B1408" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1408">
         <v>1</v>
@@ -15907,7 +15907,7 @@
         <v>44240</v>
       </c>
       <c r="B1409" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1409">
         <v>1</v>
@@ -15918,10 +15918,10 @@
         <v>44240</v>
       </c>
       <c r="B1410" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1410">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15929,7 +15929,7 @@
         <v>44240</v>
       </c>
       <c r="B1411" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1411">
         <v>3</v>
@@ -15940,21 +15940,21 @@
         <v>44240</v>
       </c>
       <c r="B1412" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1412">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
       <c r="A1413" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B1413" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1413">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -15962,10 +15962,10 @@
         <v>44241</v>
       </c>
       <c r="B1414" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1414">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15973,10 +15973,10 @@
         <v>44241</v>
       </c>
       <c r="B1415" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1415">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15984,10 +15984,10 @@
         <v>44241</v>
       </c>
       <c r="B1416" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1416">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -15995,21 +15995,21 @@
         <v>44241</v>
       </c>
       <c r="B1417" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1417">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
       <c r="A1418" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B1418" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1418">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -16017,10 +16017,10 @@
         <v>44242</v>
       </c>
       <c r="B1419" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1419">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16028,7 +16028,7 @@
         <v>44242</v>
       </c>
       <c r="B1420" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1420">
         <v>5</v>
@@ -16039,21 +16039,21 @@
         <v>44242</v>
       </c>
       <c r="B1421" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1421">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
       <c r="A1422" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B1422" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1422">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16061,10 +16061,10 @@
         <v>44243</v>
       </c>
       <c r="B1423" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1423">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16072,10 +16072,10 @@
         <v>44243</v>
       </c>
       <c r="B1424" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1424">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16083,21 +16083,21 @@
         <v>44243</v>
       </c>
       <c r="B1425" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1425">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
       <c r="A1426" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B1426" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1426">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
@@ -16105,10 +16105,10 @@
         <v>44244</v>
       </c>
       <c r="B1427" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1427">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
@@ -16116,7 +16116,7 @@
         <v>44244</v>
       </c>
       <c r="B1428" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1428">
         <v>3</v>
@@ -16127,21 +16127,21 @@
         <v>44244</v>
       </c>
       <c r="B1429" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1429">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
       <c r="A1430" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B1430" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1430">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16149,10 +16149,10 @@
         <v>44245</v>
       </c>
       <c r="B1431" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1431">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16160,21 +16160,21 @@
         <v>44245</v>
       </c>
       <c r="B1432" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1432">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
       <c r="A1433" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B1433" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1433">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16182,10 +16182,142 @@
         <v>44246</v>
       </c>
       <c r="B1434" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1434">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3">
+      <c r="A1435" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3">
+      <c r="A1436" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3">
+      <c r="A1437" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3">
+      <c r="A1438" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3">
+      <c r="A1439" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3">
+      <c r="A1440" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:3">
+      <c r="A1441" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1441">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:3">
+      <c r="A1442" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:3">
+      <c r="A1443" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1443">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:3">
+      <c r="A1444" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:3">
+      <c r="A1445" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:3">
+      <c r="A1446" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1446">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1446"/>
+  <dimension ref="A1:C1450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -15492,7 +15492,7 @@
         <v>5</v>
       </c>
       <c r="C1371">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -16009,7 +16009,7 @@
         <v>5</v>
       </c>
       <c r="C1418">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -16207,7 +16207,7 @@
         <v>4</v>
       </c>
       <c r="C1436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16262,7 +16262,7 @@
         <v>3</v>
       </c>
       <c r="C1441">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16292,10 +16292,10 @@
         <v>44249</v>
       </c>
       <c r="B1444" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
@@ -16303,10 +16303,10 @@
         <v>44249</v>
       </c>
       <c r="B1445" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
@@ -16314,10 +16314,54 @@
         <v>44249</v>
       </c>
       <c r="B1446" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1446">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:3">
+      <c r="A1447" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:3">
+      <c r="A1448" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:3">
+      <c r="A1449" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:3">
+      <c r="A1450" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1450">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1450"/>
+  <dimension ref="A1:C1452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -10058,7 +10058,7 @@
         <v>7</v>
       </c>
       <c r="C877">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10256,7 +10256,7 @@
         <v>4</v>
       </c>
       <c r="C895">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -13094,7 +13094,7 @@
         <v>7</v>
       </c>
       <c r="C1153">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
@@ -13127,7 +13127,7 @@
         <v>5</v>
       </c>
       <c r="C1156">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13820,7 +13820,7 @@
         <v>5</v>
       </c>
       <c r="C1219">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13886,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="C1225">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -14392,7 +14392,7 @@
         <v>5</v>
       </c>
       <c r="C1271">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14854,7 +14854,7 @@
         <v>5</v>
       </c>
       <c r="C1313">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14898,7 +14898,7 @@
         <v>5</v>
       </c>
       <c r="C1317">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -15316,7 +15316,7 @@
         <v>5</v>
       </c>
       <c r="C1355">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15382,7 +15382,7 @@
         <v>5</v>
       </c>
       <c r="C1361">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15481,7 +15481,7 @@
         <v>4</v>
       </c>
       <c r="C1370">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15800,7 +15800,7 @@
         <v>4</v>
       </c>
       <c r="C1399">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -16075,7 +16075,7 @@
         <v>3</v>
       </c>
       <c r="C1424">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16119,7 +16119,7 @@
         <v>3</v>
       </c>
       <c r="C1428">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16141,7 +16141,7 @@
         <v>5</v>
       </c>
       <c r="C1430">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16207,7 +16207,7 @@
         <v>4</v>
       </c>
       <c r="C1436">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16251,7 +16251,7 @@
         <v>5</v>
       </c>
       <c r="C1440">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -16262,7 +16262,7 @@
         <v>3</v>
       </c>
       <c r="C1441">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16328,7 +16328,7 @@
         <v>5</v>
       </c>
       <c r="C1447">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
@@ -16339,7 +16339,7 @@
         <v>3</v>
       </c>
       <c r="C1448">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16350,7 +16350,7 @@
         <v>4</v>
       </c>
       <c r="C1449">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16361,6 +16361,28 @@
         <v>5</v>
       </c>
       <c r="C1450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3">
+      <c r="A1451" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3">
+      <c r="A1452" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1452">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1452"/>
+  <dimension ref="A1:C1491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="C288">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -7385,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -8826,7 +8826,7 @@
         <v>4</v>
       </c>
       <c r="C765">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -10696,7 +10696,7 @@
         <v>5</v>
       </c>
       <c r="C935">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10795,7 +10795,7 @@
         <v>5</v>
       </c>
       <c r="C944">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10894,7 +10894,7 @@
         <v>4</v>
       </c>
       <c r="C953">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -11015,7 +11015,7 @@
         <v>5</v>
       </c>
       <c r="C964">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -11191,7 +11191,7 @@
         <v>5</v>
       </c>
       <c r="C980">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11543,7 +11543,7 @@
         <v>5</v>
       </c>
       <c r="C1012">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11664,7 +11664,7 @@
         <v>5</v>
       </c>
       <c r="C1023">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11708,7 +11708,7 @@
         <v>5</v>
       </c>
       <c r="C1027">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -12357,7 +12357,7 @@
         <v>4</v>
       </c>
       <c r="C1086">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
@@ -12533,7 +12533,7 @@
         <v>4</v>
       </c>
       <c r="C1102">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1103" spans="1:3">
@@ -12599,7 +12599,7 @@
         <v>4</v>
       </c>
       <c r="C1108">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12874,7 +12874,7 @@
         <v>3</v>
       </c>
       <c r="C1133">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -12951,7 +12951,7 @@
         <v>5</v>
       </c>
       <c r="C1140">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
@@ -13116,7 +13116,7 @@
         <v>4</v>
       </c>
       <c r="C1155">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
@@ -13127,7 +13127,7 @@
         <v>5</v>
       </c>
       <c r="C1156">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13248,7 +13248,7 @@
         <v>5</v>
       </c>
       <c r="C1167">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
@@ -13259,7 +13259,7 @@
         <v>9</v>
       </c>
       <c r="C1168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -13292,7 +13292,7 @@
         <v>3</v>
       </c>
       <c r="C1171">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13347,7 +13347,7 @@
         <v>4</v>
       </c>
       <c r="C1176">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13413,7 +13413,7 @@
         <v>5</v>
       </c>
       <c r="C1182">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -13479,7 +13479,7 @@
         <v>5</v>
       </c>
       <c r="C1188">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13534,7 +13534,7 @@
         <v>5</v>
       </c>
       <c r="C1193">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13666,7 +13666,7 @@
         <v>5</v>
       </c>
       <c r="C1205">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13699,7 +13699,7 @@
         <v>3</v>
       </c>
       <c r="C1208">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -13721,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="C1210">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13765,7 +13765,7 @@
         <v>5</v>
       </c>
       <c r="C1214">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13798,7 +13798,7 @@
         <v>3</v>
       </c>
       <c r="C1217">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13809,7 +13809,7 @@
         <v>4</v>
       </c>
       <c r="C1218">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13820,7 +13820,7 @@
         <v>5</v>
       </c>
       <c r="C1219">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13886,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="C1225">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -13919,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="C1228">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13930,7 +13930,7 @@
         <v>5</v>
       </c>
       <c r="C1229">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
@@ -14007,7 +14007,7 @@
         <v>5</v>
       </c>
       <c r="C1236">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14062,7 +14062,7 @@
         <v>5</v>
       </c>
       <c r="C1241">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14073,7 +14073,7 @@
         <v>9</v>
       </c>
       <c r="C1242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14117,7 +14117,7 @@
         <v>5</v>
       </c>
       <c r="C1246">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14293,7 +14293,7 @@
         <v>5</v>
       </c>
       <c r="C1262">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14337,7 +14337,7 @@
         <v>5</v>
       </c>
       <c r="C1266">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14381,7 +14381,7 @@
         <v>4</v>
       </c>
       <c r="C1270">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14392,7 +14392,7 @@
         <v>5</v>
       </c>
       <c r="C1271">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14400,10 +14400,10 @@
         <v>44210</v>
       </c>
       <c r="B1272" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1272">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14411,10 +14411,10 @@
         <v>44210</v>
       </c>
       <c r="B1273" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1273">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
@@ -14422,10 +14422,10 @@
         <v>44210</v>
       </c>
       <c r="B1274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1274">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
@@ -14433,21 +14433,21 @@
         <v>44210</v>
       </c>
       <c r="B1275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1275">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
       <c r="A1276" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B1276" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1276">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14455,10 +14455,10 @@
         <v>44211</v>
       </c>
       <c r="B1277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1277">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14466,10 +14466,10 @@
         <v>44211</v>
       </c>
       <c r="B1278" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1278">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14477,10 +14477,10 @@
         <v>44211</v>
       </c>
       <c r="B1279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1279">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
@@ -14488,21 +14488,21 @@
         <v>44211</v>
       </c>
       <c r="B1280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1280">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
       <c r="A1281" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B1281" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1281">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14510,10 +14510,10 @@
         <v>44212</v>
       </c>
       <c r="B1282" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1282">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14521,10 +14521,10 @@
         <v>44212</v>
       </c>
       <c r="B1283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1283">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
@@ -14532,21 +14532,21 @@
         <v>44212</v>
       </c>
       <c r="B1284" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1284">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
       <c r="A1285" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B1285" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1285">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14554,10 +14554,10 @@
         <v>44213</v>
       </c>
       <c r="B1286" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14565,10 +14565,10 @@
         <v>44213</v>
       </c>
       <c r="B1287" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1287">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14576,10 +14576,10 @@
         <v>44213</v>
       </c>
       <c r="B1288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1288">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
@@ -14587,21 +14587,21 @@
         <v>44213</v>
       </c>
       <c r="B1289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1289">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
       <c r="A1290" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B1290" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1290">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14609,10 +14609,10 @@
         <v>44214</v>
       </c>
       <c r="B1291" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1291">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14620,10 +14620,10 @@
         <v>44214</v>
       </c>
       <c r="B1292" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1292">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
@@ -14631,21 +14631,21 @@
         <v>44214</v>
       </c>
       <c r="B1293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1293">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
       <c r="A1294" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B1294" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1294">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14653,10 +14653,10 @@
         <v>44215</v>
       </c>
       <c r="B1295" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1295">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
@@ -14664,10 +14664,10 @@
         <v>44215</v>
       </c>
       <c r="B1296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1296">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
@@ -14675,21 +14675,21 @@
         <v>44215</v>
       </c>
       <c r="B1297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1297">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
       <c r="A1298" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B1298" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1298">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14697,10 +14697,10 @@
         <v>44216</v>
       </c>
       <c r="B1299" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1299">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14708,10 +14708,10 @@
         <v>44216</v>
       </c>
       <c r="B1300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1300">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14719,10 +14719,10 @@
         <v>44216</v>
       </c>
       <c r="B1301" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1301">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14730,10 +14730,10 @@
         <v>44216</v>
       </c>
       <c r="B1302" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1302">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
@@ -14741,21 +14741,21 @@
         <v>44216</v>
       </c>
       <c r="B1303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1303">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
       <c r="A1304" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B1304" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1304">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
@@ -14763,7 +14763,7 @@
         <v>44217</v>
       </c>
       <c r="B1305" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1305">
         <v>1</v>
@@ -14774,10 +14774,10 @@
         <v>44217</v>
       </c>
       <c r="B1306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1306">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14785,10 +14785,10 @@
         <v>44217</v>
       </c>
       <c r="B1307" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1307">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14796,10 +14796,10 @@
         <v>44217</v>
       </c>
       <c r="B1308" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1308">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
@@ -14807,21 +14807,21 @@
         <v>44217</v>
       </c>
       <c r="B1309" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1309">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
       <c r="A1310" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B1310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1310">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14829,10 +14829,10 @@
         <v>44218</v>
       </c>
       <c r="B1311" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1311">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -14840,10 +14840,10 @@
         <v>44218</v>
       </c>
       <c r="B1312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1312">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -14851,21 +14851,21 @@
         <v>44218</v>
       </c>
       <c r="B1313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1313">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
       <c r="A1314" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B1314" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1314">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14873,10 +14873,10 @@
         <v>44219</v>
       </c>
       <c r="B1315" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1315">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14884,10 +14884,10 @@
         <v>44219</v>
       </c>
       <c r="B1316" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1316">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -14895,21 +14895,21 @@
         <v>44219</v>
       </c>
       <c r="B1317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1317">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
       <c r="A1318" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B1318" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1318">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14917,10 +14917,10 @@
         <v>44220</v>
       </c>
       <c r="B1319" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1319">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14928,10 +14928,10 @@
         <v>44220</v>
       </c>
       <c r="B1320" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1320">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -14939,21 +14939,21 @@
         <v>44220</v>
       </c>
       <c r="B1321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1321">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
       <c r="A1322" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B1322" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1322">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14961,7 +14961,7 @@
         <v>44221</v>
       </c>
       <c r="B1323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1323">
         <v>1</v>
@@ -14972,10 +14972,10 @@
         <v>44221</v>
       </c>
       <c r="B1324" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1324">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14983,10 +14983,10 @@
         <v>44221</v>
       </c>
       <c r="B1325" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1325">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -14994,21 +14994,21 @@
         <v>44221</v>
       </c>
       <c r="B1326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1326">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
       <c r="A1327" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B1327" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1327">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15016,10 +15016,10 @@
         <v>44222</v>
       </c>
       <c r="B1328" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1328">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -15027,7 +15027,7 @@
         <v>44222</v>
       </c>
       <c r="B1329" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1329">
         <v>7</v>
@@ -15038,10 +15038,10 @@
         <v>44222</v>
       </c>
       <c r="B1330" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1330">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
@@ -15049,21 +15049,21 @@
         <v>44222</v>
       </c>
       <c r="B1331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1331">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
       <c r="A1332" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B1332" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1332">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15071,10 +15071,10 @@
         <v>44223</v>
       </c>
       <c r="B1333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15082,10 +15082,10 @@
         <v>44223</v>
       </c>
       <c r="B1334" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1334">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15093,10 +15093,10 @@
         <v>44223</v>
       </c>
       <c r="B1335" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1335">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15104,21 +15104,21 @@
         <v>44223</v>
       </c>
       <c r="B1336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1336">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
       <c r="A1337" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B1337" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1337">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15126,10 +15126,10 @@
         <v>44224</v>
       </c>
       <c r="B1338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1338">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15137,21 +15137,21 @@
         <v>44224</v>
       </c>
       <c r="B1339" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1339">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
       <c r="A1340" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B1340" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1340">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15159,7 +15159,7 @@
         <v>44225</v>
       </c>
       <c r="B1341" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1341">
         <v>1</v>
@@ -15170,10 +15170,10 @@
         <v>44225</v>
       </c>
       <c r="B1342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1342">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15181,10 +15181,10 @@
         <v>44225</v>
       </c>
       <c r="B1343" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1343">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15192,10 +15192,10 @@
         <v>44225</v>
       </c>
       <c r="B1344" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1344">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15203,21 +15203,21 @@
         <v>44225</v>
       </c>
       <c r="B1345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1345">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
       <c r="A1346" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B1346" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1346">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15225,10 +15225,10 @@
         <v>44226</v>
       </c>
       <c r="B1347" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1347">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15236,10 +15236,10 @@
         <v>44226</v>
       </c>
       <c r="B1348" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1348">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15247,10 +15247,10 @@
         <v>44226</v>
       </c>
       <c r="B1349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1349">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15258,21 +15258,21 @@
         <v>44226</v>
       </c>
       <c r="B1350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1350">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
       <c r="A1351" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B1351" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1351">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15280,10 +15280,10 @@
         <v>44227</v>
       </c>
       <c r="B1352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1352">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15291,10 +15291,10 @@
         <v>44227</v>
       </c>
       <c r="B1353" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1353">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15302,10 +15302,10 @@
         <v>44227</v>
       </c>
       <c r="B1354" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1354">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15313,7 +15313,7 @@
         <v>44227</v>
       </c>
       <c r="B1355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1355">
         <v>15</v>
@@ -15321,13 +15321,13 @@
     </row>
     <row r="1356" spans="1:3">
       <c r="A1356" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B1356" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1356">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15335,7 +15335,7 @@
         <v>44228</v>
       </c>
       <c r="B1357" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1357">
         <v>1</v>
@@ -15346,10 +15346,10 @@
         <v>44228</v>
       </c>
       <c r="B1358" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1358">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15357,10 +15357,10 @@
         <v>44228</v>
       </c>
       <c r="B1359" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1359">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15368,10 +15368,10 @@
         <v>44228</v>
       </c>
       <c r="B1360" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1360">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15379,21 +15379,21 @@
         <v>44228</v>
       </c>
       <c r="B1361" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1361">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
       <c r="A1362" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B1362" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1362">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15401,10 +15401,10 @@
         <v>44229</v>
       </c>
       <c r="B1363" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1363">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15412,10 +15412,10 @@
         <v>44229</v>
       </c>
       <c r="B1364" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1364">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15423,10 +15423,10 @@
         <v>44229</v>
       </c>
       <c r="B1365" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1365">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15434,10 +15434,10 @@
         <v>44229</v>
       </c>
       <c r="B1366" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1366">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -15445,21 +15445,21 @@
         <v>44229</v>
       </c>
       <c r="B1367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1367">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
       <c r="A1368" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B1368" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1368">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15467,10 +15467,10 @@
         <v>44230</v>
       </c>
       <c r="B1369" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1369">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15478,10 +15478,10 @@
         <v>44230</v>
       </c>
       <c r="B1370" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1370">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15489,21 +15489,21 @@
         <v>44230</v>
       </c>
       <c r="B1371" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1371">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
       <c r="A1372" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B1372" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1372">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15511,10 +15511,10 @@
         <v>44231</v>
       </c>
       <c r="B1373" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1373">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15522,10 +15522,10 @@
         <v>44231</v>
       </c>
       <c r="B1374" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1374">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15533,10 +15533,10 @@
         <v>44231</v>
       </c>
       <c r="B1375" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1375">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15544,21 +15544,21 @@
         <v>44231</v>
       </c>
       <c r="B1376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1376">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
       <c r="A1377" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B1377" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1377">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15566,21 +15566,21 @@
         <v>44232</v>
       </c>
       <c r="B1378" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1378">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
       <c r="A1379" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B1379" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1379">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15588,7 +15588,7 @@
         <v>44233</v>
       </c>
       <c r="B1380" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1380">
         <v>1</v>
@@ -15599,10 +15599,10 @@
         <v>44233</v>
       </c>
       <c r="B1381" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1381">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15610,10 +15610,10 @@
         <v>44233</v>
       </c>
       <c r="B1382" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1382">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15621,21 +15621,21 @@
         <v>44233</v>
       </c>
       <c r="B1383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1383">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
       <c r="A1384" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B1384" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1384">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15643,10 +15643,10 @@
         <v>44234</v>
       </c>
       <c r="B1385" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1385">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15654,10 +15654,10 @@
         <v>44234</v>
       </c>
       <c r="B1386" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1386">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15665,21 +15665,21 @@
         <v>44234</v>
       </c>
       <c r="B1387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1387">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
       <c r="A1388" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B1388" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1388">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15687,10 +15687,10 @@
         <v>44235</v>
       </c>
       <c r="B1389" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1389">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15698,21 +15698,21 @@
         <v>44235</v>
       </c>
       <c r="B1390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1390">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
       <c r="A1391" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B1391" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1391">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15720,10 +15720,10 @@
         <v>44236</v>
       </c>
       <c r="B1392" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1392">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15731,7 +15731,7 @@
         <v>44236</v>
       </c>
       <c r="B1393" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1393">
         <v>5</v>
@@ -15742,10 +15742,10 @@
         <v>44236</v>
       </c>
       <c r="B1394" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1394">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15753,21 +15753,21 @@
         <v>44236</v>
       </c>
       <c r="B1395" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1395">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
       <c r="A1396" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B1396" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1396">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15775,10 +15775,10 @@
         <v>44237</v>
       </c>
       <c r="B1397" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15786,10 +15786,10 @@
         <v>44237</v>
       </c>
       <c r="B1398" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1398">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15797,10 +15797,10 @@
         <v>44237</v>
       </c>
       <c r="B1399" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1399">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15808,21 +15808,21 @@
         <v>44237</v>
       </c>
       <c r="B1400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1400">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
       <c r="A1401" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B1401" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1401">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15830,10 +15830,10 @@
         <v>44238</v>
       </c>
       <c r="B1402" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15841,10 +15841,10 @@
         <v>44238</v>
       </c>
       <c r="B1403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1403">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15852,21 +15852,21 @@
         <v>44238</v>
       </c>
       <c r="B1404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1404">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
       <c r="A1405" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B1405" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1405">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15874,10 +15874,10 @@
         <v>44239</v>
       </c>
       <c r="B1406" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1406">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15885,21 +15885,21 @@
         <v>44239</v>
       </c>
       <c r="B1407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1407">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
       <c r="A1408" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B1408" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1408">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15907,7 +15907,7 @@
         <v>44240</v>
       </c>
       <c r="B1409" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1409">
         <v>1</v>
@@ -15918,7 +15918,7 @@
         <v>44240</v>
       </c>
       <c r="B1410" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1410">
         <v>1</v>
@@ -15929,10 +15929,10 @@
         <v>44240</v>
       </c>
       <c r="B1411" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1411">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -15940,10 +15940,10 @@
         <v>44240</v>
       </c>
       <c r="B1412" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1412">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15951,21 +15951,21 @@
         <v>44240</v>
       </c>
       <c r="B1413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1413">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
       <c r="A1414" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B1414" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1414">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15973,10 +15973,10 @@
         <v>44241</v>
       </c>
       <c r="B1415" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15984,10 +15984,10 @@
         <v>44241</v>
       </c>
       <c r="B1416" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1416">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -15995,7 +15995,7 @@
         <v>44241</v>
       </c>
       <c r="B1417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1417">
         <v>3</v>
@@ -16006,21 +16006,21 @@
         <v>44241</v>
       </c>
       <c r="B1418" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1418">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
       <c r="A1419" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B1419" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1419">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16028,10 +16028,10 @@
         <v>44242</v>
       </c>
       <c r="B1420" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1420">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16039,10 +16039,10 @@
         <v>44242</v>
       </c>
       <c r="B1421" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1421">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16050,32 +16050,32 @@
         <v>44242</v>
       </c>
       <c r="B1422" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1422">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
       <c r="A1423" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B1423" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1423">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
       <c r="A1424" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B1424" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1424">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16083,10 +16083,10 @@
         <v>44243</v>
       </c>
       <c r="B1425" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1425">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16094,32 +16094,32 @@
         <v>44243</v>
       </c>
       <c r="B1426" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1426">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
       <c r="A1427" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B1427" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1427">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
       <c r="A1428" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B1428" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1428">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16127,10 +16127,10 @@
         <v>44244</v>
       </c>
       <c r="B1429" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1429">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16138,32 +16138,32 @@
         <v>44244</v>
       </c>
       <c r="B1430" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1430">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
       <c r="A1431" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B1431" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1431">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
       <c r="A1432" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B1432" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1432">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16171,43 +16171,43 @@
         <v>44245</v>
       </c>
       <c r="B1433" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1433">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
       <c r="A1434" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B1434" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
       <c r="A1435" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B1435" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1435">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
       <c r="A1436" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B1436" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1436">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16215,7 +16215,7 @@
         <v>44246</v>
       </c>
       <c r="B1437" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1437">
         <v>1</v>
@@ -16223,101 +16223,101 @@
     </row>
     <row r="1438" spans="1:3">
       <c r="A1438" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B1438" t="s">
         <v>3</v>
       </c>
       <c r="C1438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
       <c r="A1439" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B1439" t="s">
         <v>4</v>
       </c>
       <c r="C1439">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
       <c r="A1440" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B1440" t="s">
         <v>5</v>
       </c>
       <c r="C1440">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
       <c r="A1441" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B1441" t="s">
         <v>3</v>
       </c>
       <c r="C1441">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
       <c r="A1442" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B1442" t="s">
         <v>4</v>
       </c>
       <c r="C1442">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
       <c r="A1443" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B1443" t="s">
         <v>5</v>
       </c>
       <c r="C1443">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1444" spans="1:3">
       <c r="A1444" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B1444" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1444">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
       <c r="A1445" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B1445" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1445">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
       <c r="A1446" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B1446" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1446">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16325,64 +16325,493 @@
         <v>44249</v>
       </c>
       <c r="B1447" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1447">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
       <c r="A1448" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B1448" t="s">
         <v>3</v>
       </c>
       <c r="C1448">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
       <c r="A1449" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B1449" t="s">
         <v>4</v>
       </c>
       <c r="C1449">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
       <c r="A1450" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B1450" t="s">
         <v>5</v>
       </c>
       <c r="C1450">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1451" spans="1:3">
       <c r="A1451" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B1451" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1451">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
       <c r="A1452" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3">
+      <c r="A1453" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1453">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3">
+      <c r="A1454" s="2">
         <v>44251</v>
       </c>
-      <c r="B1452" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1452">
+      <c r="B1454" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:3">
+      <c r="A1455" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3">
+      <c r="A1456" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1456">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3">
+      <c r="A1457" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3">
+      <c r="A1458" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3">
+      <c r="A1459" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3">
+      <c r="A1460" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1460">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3">
+      <c r="A1461" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3">
+      <c r="A1462" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3">
+      <c r="A1463" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3">
+      <c r="A1464" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3">
+      <c r="A1465" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3">
+      <c r="A1466" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3">
+      <c r="A1467" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3">
+      <c r="A1468" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3">
+      <c r="A1469" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3">
+      <c r="A1470" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3">
+      <c r="A1471" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:3">
+      <c r="A1472" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1472">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3">
+      <c r="A1473" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3">
+      <c r="A1474" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3">
+      <c r="A1475" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3">
+      <c r="A1476" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3">
+      <c r="A1477" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1477">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3">
+      <c r="A1478" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3">
+      <c r="A1479" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1479">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3">
+      <c r="A1480" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3">
+      <c r="A1481" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3">
+      <c r="A1482" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3">
+      <c r="A1483" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3">
+      <c r="A1484" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3">
+      <c r="A1485" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:3">
+      <c r="A1486" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:3">
+      <c r="A1487" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:3">
+      <c r="A1488" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:3">
+      <c r="A1489" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:3">
+      <c r="A1490" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:3">
+      <c r="A1491" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1491">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1509"/>
+  <dimension ref="A1:C1518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8958,7 +8958,7 @@
         <v>5</v>
       </c>
       <c r="C777">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9079,7 +9079,7 @@
         <v>5</v>
       </c>
       <c r="C788">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -11653,7 +11653,7 @@
         <v>5</v>
       </c>
       <c r="C1022">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -12313,7 +12313,7 @@
         <v>5</v>
       </c>
       <c r="C1082">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -13512,7 +13512,7 @@
         <v>4</v>
       </c>
       <c r="C1191">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13754,7 +13754,7 @@
         <v>5</v>
       </c>
       <c r="C1213">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -14150,7 +14150,7 @@
         <v>4</v>
       </c>
       <c r="C1249">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14282,7 +14282,7 @@
         <v>5</v>
       </c>
       <c r="C1261">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
@@ -15140,7 +15140,7 @@
         <v>5</v>
       </c>
       <c r="C1339">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15151,7 +15151,7 @@
         <v>6</v>
       </c>
       <c r="C1340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15195,7 +15195,7 @@
         <v>4</v>
       </c>
       <c r="C1344">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15371,7 +15371,7 @@
         <v>4</v>
       </c>
       <c r="C1360">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15921,7 +15921,7 @@
         <v>7</v>
       </c>
       <c r="C1410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -16130,7 +16130,7 @@
         <v>7</v>
       </c>
       <c r="C1429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16163,7 +16163,7 @@
         <v>5</v>
       </c>
       <c r="C1432">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16207,7 +16207,7 @@
         <v>5</v>
       </c>
       <c r="C1436">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16251,7 +16251,7 @@
         <v>5</v>
       </c>
       <c r="C1440">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -16317,7 +16317,7 @@
         <v>5</v>
       </c>
       <c r="C1446">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16350,7 +16350,7 @@
         <v>4</v>
       </c>
       <c r="C1449">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16394,7 +16394,7 @@
         <v>5</v>
       </c>
       <c r="C1453">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
@@ -16438,7 +16438,7 @@
         <v>5</v>
       </c>
       <c r="C1457">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
@@ -16545,7 +16545,7 @@
         <v>44254</v>
       </c>
       <c r="B1467" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1467">
         <v>1</v>
@@ -16556,10 +16556,10 @@
         <v>44254</v>
       </c>
       <c r="B1468" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
@@ -16567,21 +16567,21 @@
         <v>44254</v>
       </c>
       <c r="B1469" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1469">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
       <c r="A1470" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B1470" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1470">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
@@ -16589,10 +16589,10 @@
         <v>44255</v>
       </c>
       <c r="B1471" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1471">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -16600,10 +16600,10 @@
         <v>44255</v>
       </c>
       <c r="B1472" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1472">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -16611,21 +16611,21 @@
         <v>44255</v>
       </c>
       <c r="B1473" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1473">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
       <c r="A1474" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B1474" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1474">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -16633,7 +16633,7 @@
         <v>44256</v>
       </c>
       <c r="B1475" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1475">
         <v>5</v>
@@ -16644,18 +16644,18 @@
         <v>44256</v>
       </c>
       <c r="B1476" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1476">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
       <c r="A1477" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B1477" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1477">
         <v>2</v>
@@ -16666,10 +16666,10 @@
         <v>44257</v>
       </c>
       <c r="B1478" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1478">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16677,10 +16677,10 @@
         <v>44257</v>
       </c>
       <c r="B1479" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1479">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16688,21 +16688,21 @@
         <v>44257</v>
       </c>
       <c r="B1480" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1480">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
       <c r="A1481" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B1481" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1481">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16710,10 +16710,10 @@
         <v>44258</v>
       </c>
       <c r="B1482" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1482">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16721,7 +16721,7 @@
         <v>44258</v>
       </c>
       <c r="B1483" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1483">
         <v>3</v>
@@ -16732,21 +16732,21 @@
         <v>44258</v>
       </c>
       <c r="B1484" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
       <c r="A1485" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B1485" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
@@ -16754,10 +16754,10 @@
         <v>44259</v>
       </c>
       <c r="B1486" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16765,10 +16765,10 @@
         <v>44259</v>
       </c>
       <c r="B1487" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1487">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16776,7 +16776,7 @@
         <v>44259</v>
       </c>
       <c r="B1488" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1488">
         <v>3</v>
@@ -16787,21 +16787,21 @@
         <v>44259</v>
       </c>
       <c r="B1489" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1489">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
       <c r="A1490" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B1490" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
@@ -16809,10 +16809,10 @@
         <v>44260</v>
       </c>
       <c r="B1491" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1491">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16820,10 +16820,10 @@
         <v>44260</v>
       </c>
       <c r="B1492" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1492">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16831,21 +16831,21 @@
         <v>44260</v>
       </c>
       <c r="B1493" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1493">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
       <c r="A1494" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B1494" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1494">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16853,10 +16853,10 @@
         <v>44261</v>
       </c>
       <c r="B1495" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1495">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -16864,7 +16864,7 @@
         <v>44261</v>
       </c>
       <c r="B1496" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1496">
         <v>3</v>
@@ -16872,10 +16872,10 @@
     </row>
     <row r="1497" spans="1:3">
       <c r="A1497" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B1497" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1497">
         <v>3</v>
@@ -16886,21 +16886,21 @@
         <v>44262</v>
       </c>
       <c r="B1498" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1498">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
       <c r="A1499" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B1499" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1499">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
@@ -16908,7 +16908,7 @@
         <v>44263</v>
       </c>
       <c r="B1500" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1500">
         <v>1</v>
@@ -16919,10 +16919,10 @@
         <v>44263</v>
       </c>
       <c r="B1501" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1501">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -16930,32 +16930,32 @@
         <v>44263</v>
       </c>
       <c r="B1502" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1502">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
       <c r="A1503" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B1503" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1503">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
       <c r="A1504" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B1504" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1504">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -16963,32 +16963,32 @@
         <v>44264</v>
       </c>
       <c r="B1505" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1505">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
       <c r="A1506" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1506" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1506">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
       <c r="A1507" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1507" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -16996,10 +16996,10 @@
         <v>44265</v>
       </c>
       <c r="B1508" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1508">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -17007,10 +17007,109 @@
         <v>44265</v>
       </c>
       <c r="B1509" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1509">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3">
+      <c r="A1510" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3">
+      <c r="A1511" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3">
+      <c r="A1512" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3">
+      <c r="A1513" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3">
+      <c r="A1514" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3">
+      <c r="A1515" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3">
+      <c r="A1516" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3">
+      <c r="A1517" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3">
+      <c r="A1518" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1518">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1518"/>
+  <dimension ref="A1:C1524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16482,7 +16482,7 @@
         <v>5</v>
       </c>
       <c r="C1461">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
@@ -16768,7 +16768,7 @@
         <v>7</v>
       </c>
       <c r="C1487">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -17084,10 +17084,10 @@
         <v>44267</v>
       </c>
       <c r="B1516" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1516">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17095,7 +17095,7 @@
         <v>44267</v>
       </c>
       <c r="B1517" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1517">
         <v>3</v>
@@ -17103,12 +17103,78 @@
     </row>
     <row r="1518" spans="1:3">
       <c r="A1518" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3">
+      <c r="A1519" s="2">
         <v>44268</v>
       </c>
-      <c r="B1518" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1518">
+      <c r="B1519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3">
+      <c r="A1520" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3">
+      <c r="A1521" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3">
+      <c r="A1522" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3">
+      <c r="A1523" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3">
+      <c r="A1524" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1524">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1524"/>
+  <dimension ref="A1:C1555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3502,7 +3502,7 @@
         <v>5</v>
       </c>
       <c r="C281">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>5</v>
       </c>
       <c r="C287">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="C599">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -11301,7 +11301,7 @@
         <v>5</v>
       </c>
       <c r="C990">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11334,7 +11334,7 @@
         <v>3</v>
       </c>
       <c r="C993">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11697,7 +11697,7 @@
         <v>5</v>
       </c>
       <c r="C1026">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11862,7 +11862,7 @@
         <v>5</v>
       </c>
       <c r="C1041">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11972,7 +11972,7 @@
         <v>5</v>
       </c>
       <c r="C1051">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -12192,7 +12192,7 @@
         <v>5</v>
       </c>
       <c r="C1071">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
@@ -12599,7 +12599,7 @@
         <v>5</v>
       </c>
       <c r="C1108">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12907,7 +12907,7 @@
         <v>7</v>
       </c>
       <c r="C1136">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
@@ -13402,7 +13402,7 @@
         <v>5</v>
       </c>
       <c r="C1181">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
@@ -13710,7 +13710,7 @@
         <v>5</v>
       </c>
       <c r="C1209">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
@@ -13754,7 +13754,7 @@
         <v>5</v>
       </c>
       <c r="C1213">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13762,10 +13762,10 @@
         <v>44199</v>
       </c>
       <c r="B1214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1214">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13773,10 +13773,10 @@
         <v>44199</v>
       </c>
       <c r="B1215" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1215">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13784,10 +13784,10 @@
         <v>44199</v>
       </c>
       <c r="B1216" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1216">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13795,21 +13795,21 @@
         <v>44199</v>
       </c>
       <c r="B1217" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1217">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
       <c r="A1218" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B1218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1218">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13817,10 +13817,10 @@
         <v>44200</v>
       </c>
       <c r="B1219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13828,10 +13828,10 @@
         <v>44200</v>
       </c>
       <c r="B1220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:3">
@@ -13839,10 +13839,10 @@
         <v>44200</v>
       </c>
       <c r="B1221" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1221">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
@@ -13850,10 +13850,10 @@
         <v>44200</v>
       </c>
       <c r="B1222" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1222">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
@@ -13861,21 +13861,21 @@
         <v>44200</v>
       </c>
       <c r="B1223" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1223">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
       <c r="A1224" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B1224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1224">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -13883,10 +13883,10 @@
         <v>44201</v>
       </c>
       <c r="B1225" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1225">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -13894,10 +13894,10 @@
         <v>44201</v>
       </c>
       <c r="B1226" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1226">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -13905,21 +13905,21 @@
         <v>44201</v>
       </c>
       <c r="B1227" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1227">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
       <c r="A1228" s="2">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B1228" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1228">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13927,7 +13927,7 @@
         <v>44202</v>
       </c>
       <c r="B1229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1229">
         <v>1</v>
@@ -13938,7 +13938,7 @@
         <v>44202</v>
       </c>
       <c r="B1230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1230">
         <v>1</v>
@@ -13949,10 +13949,10 @@
         <v>44202</v>
       </c>
       <c r="B1231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1231">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1232" spans="1:3">
@@ -13960,10 +13960,10 @@
         <v>44202</v>
       </c>
       <c r="B1232" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1232">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -13971,10 +13971,10 @@
         <v>44202</v>
       </c>
       <c r="B1233" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1233">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -13982,21 +13982,21 @@
         <v>44202</v>
       </c>
       <c r="B1234" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1234">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
       <c r="A1235" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B1235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1235">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -14004,10 +14004,10 @@
         <v>44203</v>
       </c>
       <c r="B1236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14015,10 +14015,10 @@
         <v>44203</v>
       </c>
       <c r="B1237" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1237">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
@@ -14026,10 +14026,10 @@
         <v>44203</v>
       </c>
       <c r="B1238" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1238">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
@@ -14037,21 +14037,21 @@
         <v>44203</v>
       </c>
       <c r="B1239" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1239">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
       <c r="A1240" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B1240" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1240">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
@@ -14059,10 +14059,10 @@
         <v>44204</v>
       </c>
       <c r="B1241" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14070,10 +14070,10 @@
         <v>44204</v>
       </c>
       <c r="B1242" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1242">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14081,10 +14081,10 @@
         <v>44204</v>
       </c>
       <c r="B1243" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1243">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14092,21 +14092,21 @@
         <v>44204</v>
       </c>
       <c r="B1244" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1244">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
       <c r="A1245" s="2">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B1245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1245">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
@@ -14114,10 +14114,10 @@
         <v>44205</v>
       </c>
       <c r="B1246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1246">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14125,10 +14125,10 @@
         <v>44205</v>
       </c>
       <c r="B1247" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1247">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
@@ -14136,10 +14136,10 @@
         <v>44205</v>
       </c>
       <c r="B1248" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1248">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14147,21 +14147,21 @@
         <v>44205</v>
       </c>
       <c r="B1249" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1249">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
       <c r="A1250" s="2">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B1250" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1250">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
@@ -14169,10 +14169,10 @@
         <v>44206</v>
       </c>
       <c r="B1251" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1251">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14180,10 +14180,10 @@
         <v>44206</v>
       </c>
       <c r="B1252" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1252">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
@@ -14191,10 +14191,10 @@
         <v>44206</v>
       </c>
       <c r="B1253" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1253">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14202,21 +14202,21 @@
         <v>44206</v>
       </c>
       <c r="B1254" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1254">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B1255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1255">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
@@ -14224,7 +14224,7 @@
         <v>44207</v>
       </c>
       <c r="B1256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1256">
         <v>1</v>
@@ -14235,10 +14235,10 @@
         <v>44207</v>
       </c>
       <c r="B1257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1257">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
@@ -14246,10 +14246,10 @@
         <v>44207</v>
       </c>
       <c r="B1258" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1258">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
@@ -14257,10 +14257,10 @@
         <v>44207</v>
       </c>
       <c r="B1259" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1259">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14268,21 +14268,21 @@
         <v>44207</v>
       </c>
       <c r="B1260" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1260">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B1261" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1261">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
@@ -14290,10 +14290,10 @@
         <v>44208</v>
       </c>
       <c r="B1262" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1262">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14301,10 +14301,10 @@
         <v>44208</v>
       </c>
       <c r="B1263" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1263">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14312,21 +14312,21 @@
         <v>44208</v>
       </c>
       <c r="B1264" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1264">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
       <c r="A1265" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B1265" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1265">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14334,10 +14334,10 @@
         <v>44209</v>
       </c>
       <c r="B1266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1266">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14345,10 +14345,10 @@
         <v>44209</v>
       </c>
       <c r="B1267" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1267">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
@@ -14356,10 +14356,10 @@
         <v>44209</v>
       </c>
       <c r="B1268" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1268">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14367,21 +14367,21 @@
         <v>44209</v>
       </c>
       <c r="B1269" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1269">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B1270" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1270">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14389,10 +14389,10 @@
         <v>44210</v>
       </c>
       <c r="B1271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1271">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14400,10 +14400,10 @@
         <v>44210</v>
       </c>
       <c r="B1272" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1272">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14411,10 +14411,10 @@
         <v>44210</v>
       </c>
       <c r="B1273" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1273">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
@@ -14422,21 +14422,21 @@
         <v>44210</v>
       </c>
       <c r="B1274" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1274">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B1275" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1275">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14444,10 +14444,10 @@
         <v>44211</v>
       </c>
       <c r="B1276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1276">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14455,10 +14455,10 @@
         <v>44211</v>
       </c>
       <c r="B1277" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1277">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14466,10 +14466,10 @@
         <v>44211</v>
       </c>
       <c r="B1278" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1278">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14477,21 +14477,21 @@
         <v>44211</v>
       </c>
       <c r="B1279" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1279">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
       <c r="A1280" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B1280" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1280">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14499,10 +14499,10 @@
         <v>44212</v>
       </c>
       <c r="B1281" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1281">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14510,10 +14510,10 @@
         <v>44212</v>
       </c>
       <c r="B1282" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1282">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14521,21 +14521,21 @@
         <v>44212</v>
       </c>
       <c r="B1283" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1283">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
       <c r="A1284" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B1284" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1284">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14543,10 +14543,10 @@
         <v>44213</v>
       </c>
       <c r="B1285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14554,10 +14554,10 @@
         <v>44213</v>
       </c>
       <c r="B1286" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1286">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14565,10 +14565,10 @@
         <v>44213</v>
       </c>
       <c r="B1287" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1287">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14576,21 +14576,21 @@
         <v>44213</v>
       </c>
       <c r="B1288" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1288">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
       <c r="A1289" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B1289" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1289">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14598,10 +14598,10 @@
         <v>44214</v>
       </c>
       <c r="B1290" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1290">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14609,10 +14609,10 @@
         <v>44214</v>
       </c>
       <c r="B1291" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1291">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14620,21 +14620,21 @@
         <v>44214</v>
       </c>
       <c r="B1292" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1292">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B1293" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1293">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14642,10 +14642,10 @@
         <v>44215</v>
       </c>
       <c r="B1294" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1294">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14653,10 +14653,10 @@
         <v>44215</v>
       </c>
       <c r="B1295" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1295">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
@@ -14664,21 +14664,21 @@
         <v>44215</v>
       </c>
       <c r="B1296" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1296">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B1297" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1297">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14686,10 +14686,10 @@
         <v>44216</v>
       </c>
       <c r="B1298" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1298">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14697,10 +14697,10 @@
         <v>44216</v>
       </c>
       <c r="B1299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1299">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14708,10 +14708,10 @@
         <v>44216</v>
       </c>
       <c r="B1300" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1300">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14719,10 +14719,10 @@
         <v>44216</v>
       </c>
       <c r="B1301" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1301">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14730,21 +14730,21 @@
         <v>44216</v>
       </c>
       <c r="B1302" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1302">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B1303" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1303">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14752,7 +14752,7 @@
         <v>44217</v>
       </c>
       <c r="B1304" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1304">
         <v>1</v>
@@ -14763,10 +14763,10 @@
         <v>44217</v>
       </c>
       <c r="B1305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1305">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14774,7 +14774,7 @@
         <v>44217</v>
       </c>
       <c r="B1306" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1306">
         <v>5</v>
@@ -14785,10 +14785,10 @@
         <v>44217</v>
       </c>
       <c r="B1307" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1307">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14796,21 +14796,21 @@
         <v>44217</v>
       </c>
       <c r="B1308" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1308">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B1309" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1309">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14818,10 +14818,10 @@
         <v>44218</v>
       </c>
       <c r="B1310" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1310">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14829,10 +14829,10 @@
         <v>44218</v>
       </c>
       <c r="B1311" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1311">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -14840,21 +14840,21 @@
         <v>44218</v>
       </c>
       <c r="B1312" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1312">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
       <c r="A1313" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B1313" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1313">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14862,10 +14862,10 @@
         <v>44219</v>
       </c>
       <c r="B1314" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1314">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14873,10 +14873,10 @@
         <v>44219</v>
       </c>
       <c r="B1315" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1315">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14884,21 +14884,21 @@
         <v>44219</v>
       </c>
       <c r="B1316" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1316">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
       <c r="A1317" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B1317" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1317">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14906,10 +14906,10 @@
         <v>44220</v>
       </c>
       <c r="B1318" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1318">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14917,10 +14917,10 @@
         <v>44220</v>
       </c>
       <c r="B1319" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1319">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14928,21 +14928,21 @@
         <v>44220</v>
       </c>
       <c r="B1320" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1320">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
       <c r="A1321" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B1321" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1321">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14950,7 +14950,7 @@
         <v>44221</v>
       </c>
       <c r="B1322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1322">
         <v>1</v>
@@ -14961,10 +14961,10 @@
         <v>44221</v>
       </c>
       <c r="B1323" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1323">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -14972,10 +14972,10 @@
         <v>44221</v>
       </c>
       <c r="B1324" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1324">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14983,21 +14983,21 @@
         <v>44221</v>
       </c>
       <c r="B1325" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1325">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
       <c r="A1326" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B1326" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1326">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -15005,10 +15005,10 @@
         <v>44222</v>
       </c>
       <c r="B1327" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1327">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15016,7 +15016,7 @@
         <v>44222</v>
       </c>
       <c r="B1328" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1328">
         <v>7</v>
@@ -15027,10 +15027,10 @@
         <v>44222</v>
       </c>
       <c r="B1329" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1329">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15038,21 +15038,21 @@
         <v>44222</v>
       </c>
       <c r="B1330" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1330">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
       <c r="A1331" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B1331" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1331">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15060,10 +15060,10 @@
         <v>44223</v>
       </c>
       <c r="B1332" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1332">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15071,10 +15071,10 @@
         <v>44223</v>
       </c>
       <c r="B1333" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1333">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15082,10 +15082,10 @@
         <v>44223</v>
       </c>
       <c r="B1334" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1334">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15093,21 +15093,21 @@
         <v>44223</v>
       </c>
       <c r="B1335" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1335">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
       <c r="A1336" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B1336" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1336">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15115,10 +15115,10 @@
         <v>44224</v>
       </c>
       <c r="B1337" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1337">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15126,21 +15126,21 @@
         <v>44224</v>
       </c>
       <c r="B1338" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1338">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
       <c r="A1339" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B1339" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1339">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15148,10 +15148,10 @@
         <v>44225</v>
       </c>
       <c r="B1340" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15159,10 +15159,10 @@
         <v>44225</v>
       </c>
       <c r="B1341" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1341">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15170,10 +15170,10 @@
         <v>44225</v>
       </c>
       <c r="B1342" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1342">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15181,10 +15181,10 @@
         <v>44225</v>
       </c>
       <c r="B1343" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1343">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15192,21 +15192,21 @@
         <v>44225</v>
       </c>
       <c r="B1344" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1344">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
       <c r="A1345" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B1345" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1345">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15214,10 +15214,10 @@
         <v>44226</v>
       </c>
       <c r="B1346" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1346">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15225,10 +15225,10 @@
         <v>44226</v>
       </c>
       <c r="B1347" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1347">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15236,10 +15236,10 @@
         <v>44226</v>
       </c>
       <c r="B1348" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1348">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15247,21 +15247,21 @@
         <v>44226</v>
       </c>
       <c r="B1349" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1349">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
       <c r="A1350" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B1350" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1350">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15269,10 +15269,10 @@
         <v>44227</v>
       </c>
       <c r="B1351" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1351">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15280,10 +15280,10 @@
         <v>44227</v>
       </c>
       <c r="B1352" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1352">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15291,10 +15291,10 @@
         <v>44227</v>
       </c>
       <c r="B1353" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1353">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15302,7 +15302,7 @@
         <v>44227</v>
       </c>
       <c r="B1354" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1354">
         <v>15</v>
@@ -15310,13 +15310,13 @@
     </row>
     <row r="1355" spans="1:3">
       <c r="A1355" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B1355" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1355">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15324,7 +15324,7 @@
         <v>44228</v>
       </c>
       <c r="B1356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1356">
         <v>1</v>
@@ -15335,10 +15335,10 @@
         <v>44228</v>
       </c>
       <c r="B1357" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15346,10 +15346,10 @@
         <v>44228</v>
       </c>
       <c r="B1358" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1358">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15357,10 +15357,10 @@
         <v>44228</v>
       </c>
       <c r="B1359" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1359">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15368,21 +15368,21 @@
         <v>44228</v>
       </c>
       <c r="B1360" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1360">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="A1361" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B1361" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1361">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15390,10 +15390,10 @@
         <v>44229</v>
       </c>
       <c r="B1362" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1362">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15401,7 +15401,7 @@
         <v>44229</v>
       </c>
       <c r="B1363" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1363">
         <v>3</v>
@@ -15412,10 +15412,10 @@
         <v>44229</v>
       </c>
       <c r="B1364" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1364">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15423,10 +15423,10 @@
         <v>44229</v>
       </c>
       <c r="B1365" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1365">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15434,21 +15434,21 @@
         <v>44229</v>
       </c>
       <c r="B1366" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1366">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
       <c r="A1367" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B1367" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1367">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15456,10 +15456,10 @@
         <v>44230</v>
       </c>
       <c r="B1368" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1368">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15467,10 +15467,10 @@
         <v>44230</v>
       </c>
       <c r="B1369" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1369">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15478,21 +15478,21 @@
         <v>44230</v>
       </c>
       <c r="B1370" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1370">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
       <c r="A1371" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B1371" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1371">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15500,10 +15500,10 @@
         <v>44231</v>
       </c>
       <c r="B1372" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1372">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15511,10 +15511,10 @@
         <v>44231</v>
       </c>
       <c r="B1373" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1373">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15522,10 +15522,10 @@
         <v>44231</v>
       </c>
       <c r="B1374" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1374">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15533,21 +15533,21 @@
         <v>44231</v>
       </c>
       <c r="B1375" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1375">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
       <c r="A1376" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B1376" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1376">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15602,7 +15602,7 @@
         <v>3</v>
       </c>
       <c r="C1381">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15855,7 +15855,7 @@
         <v>5</v>
       </c>
       <c r="C1404">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -16273,7 +16273,7 @@
         <v>4</v>
       </c>
       <c r="C1442">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
@@ -16317,7 +16317,7 @@
         <v>5</v>
       </c>
       <c r="C1446">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16570,7 +16570,7 @@
         <v>4</v>
       </c>
       <c r="C1469">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16658,7 +16658,7 @@
         <v>5</v>
       </c>
       <c r="C1477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
@@ -16691,7 +16691,7 @@
         <v>4</v>
       </c>
       <c r="C1480">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16702,7 +16702,7 @@
         <v>5</v>
       </c>
       <c r="C1481">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16757,7 +16757,7 @@
         <v>8</v>
       </c>
       <c r="C1486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16823,7 +16823,7 @@
         <v>3</v>
       </c>
       <c r="C1492">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16834,7 +16834,7 @@
         <v>4</v>
       </c>
       <c r="C1493">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -16845,7 +16845,7 @@
         <v>5</v>
       </c>
       <c r="C1494">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16867,7 +16867,7 @@
         <v>3</v>
       </c>
       <c r="C1496">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -16883,10 +16883,10 @@
     </row>
     <row r="1498" spans="1:3">
       <c r="A1498" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B1498" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1498">
         <v>3</v>
@@ -16897,32 +16897,32 @@
         <v>44262</v>
       </c>
       <c r="B1499" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1499">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
       <c r="A1500" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B1500" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1500">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
       <c r="A1501" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B1501" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1501">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -16930,7 +16930,7 @@
         <v>44263</v>
       </c>
       <c r="B1502" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1502">
         <v>1</v>
@@ -16941,10 +16941,10 @@
         <v>44263</v>
       </c>
       <c r="B1503" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -16952,32 +16952,32 @@
         <v>44263</v>
       </c>
       <c r="B1504" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1504">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
       <c r="A1505" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B1505" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1505">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
       <c r="A1506" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B1506" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1506">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -16985,43 +16985,43 @@
         <v>44264</v>
       </c>
       <c r="B1507" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1507">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
       <c r="A1508" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1508" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1508">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
       <c r="A1509" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1509" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1509">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
       <c r="A1510" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1510" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1510">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
@@ -17029,15 +17029,15 @@
         <v>44265</v>
       </c>
       <c r="B1511" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1511">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
       <c r="A1512" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B1512" t="s">
         <v>7</v>
@@ -17048,24 +17048,24 @@
     </row>
     <row r="1513" spans="1:3">
       <c r="A1513" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B1513" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1513">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
       <c r="A1514" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B1514" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1514">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
@@ -17073,7 +17073,7 @@
         <v>44266</v>
       </c>
       <c r="B1515" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1515">
         <v>1</v>
@@ -17081,62 +17081,62 @@
     </row>
     <row r="1516" spans="1:3">
       <c r="A1516" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B1516" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1516">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
       <c r="A1517" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B1517" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1517">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
       <c r="A1518" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B1518" t="s">
         <v>5</v>
       </c>
       <c r="C1518">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
       <c r="A1519" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B1519" t="s">
         <v>7</v>
       </c>
       <c r="C1519">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
       <c r="A1520" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B1520" t="s">
         <v>3</v>
       </c>
       <c r="C1520">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
       <c r="A1521" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B1521" t="s">
         <v>4</v>
@@ -17147,21 +17147,21 @@
     </row>
     <row r="1522" spans="1:3">
       <c r="A1522" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B1522" t="s">
         <v>5</v>
       </c>
       <c r="C1522">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
       <c r="A1523" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B1523" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1523">
         <v>1</v>
@@ -17169,12 +17169,353 @@
     </row>
     <row r="1524" spans="1:3">
       <c r="A1524" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3">
+      <c r="A1525" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3">
+      <c r="A1526" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3">
+      <c r="A1527" s="2">
         <v>44269</v>
       </c>
-      <c r="B1524" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1524">
+      <c r="B1527" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3">
+      <c r="A1528" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3">
+      <c r="A1529" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3">
+      <c r="A1530" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3">
+      <c r="A1531" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3">
+      <c r="A1532" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3">
+      <c r="A1533" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3">
+      <c r="A1534" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3">
+      <c r="A1535" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3">
+      <c r="A1536" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3">
+      <c r="A1537" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3">
+      <c r="A1538" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3">
+      <c r="A1539" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3">
+      <c r="A1540" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3">
+      <c r="A1541" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3">
+      <c r="A1542" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3">
+      <c r="A1543" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3">
+      <c r="A1544" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1544">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3">
+      <c r="A1545" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3">
+      <c r="A1546" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3">
+      <c r="A1547" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3">
+      <c r="A1548" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3">
+      <c r="A1549" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3">
+      <c r="A1550" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3">
+      <c r="A1551" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3">
+      <c r="A1552" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3">
+      <c r="A1553" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3">
+      <c r="A1554" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3">
+      <c r="A1555" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1555">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1555"/>
+  <dimension ref="A1:C1559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14645,7 +14645,7 @@
         <v>3</v>
       </c>
       <c r="C1294">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -15327,7 +15327,7 @@
         <v>8</v>
       </c>
       <c r="C1356">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15987,7 +15987,7 @@
         <v>3</v>
       </c>
       <c r="C1416">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -16009,7 +16009,7 @@
         <v>5</v>
       </c>
       <c r="C1418">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -16570,7 +16570,7 @@
         <v>4</v>
       </c>
       <c r="C1469">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16666,10 +16666,10 @@
         <v>44257</v>
       </c>
       <c r="B1478" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1478">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16677,10 +16677,10 @@
         <v>44257</v>
       </c>
       <c r="B1479" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1479">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16688,10 +16688,10 @@
         <v>44257</v>
       </c>
       <c r="B1480" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1480">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16699,21 +16699,21 @@
         <v>44257</v>
       </c>
       <c r="B1481" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1481">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
       <c r="A1482" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B1482" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1482">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16721,10 +16721,10 @@
         <v>44258</v>
       </c>
       <c r="B1483" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1483">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16732,7 +16732,7 @@
         <v>44258</v>
       </c>
       <c r="B1484" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1484">
         <v>3</v>
@@ -16743,18 +16743,18 @@
         <v>44258</v>
       </c>
       <c r="B1485" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1485">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
       <c r="A1486" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B1486" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1486">
         <v>2</v>
@@ -16765,10 +16765,10 @@
         <v>44259</v>
       </c>
       <c r="B1487" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1487">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16776,7 +16776,7 @@
         <v>44259</v>
       </c>
       <c r="B1488" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1488">
         <v>3</v>
@@ -16787,7 +16787,7 @@
         <v>44259</v>
       </c>
       <c r="B1489" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1489">
         <v>3</v>
@@ -16798,21 +16798,21 @@
         <v>44259</v>
       </c>
       <c r="B1490" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1490">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
       <c r="A1491" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B1491" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16820,10 +16820,10 @@
         <v>44260</v>
       </c>
       <c r="B1492" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1492">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16831,10 +16831,10 @@
         <v>44260</v>
       </c>
       <c r="B1493" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1493">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -16842,21 +16842,21 @@
         <v>44260</v>
       </c>
       <c r="B1494" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1494">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
       <c r="A1495" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B1495" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1495">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -16864,10 +16864,10 @@
         <v>44261</v>
       </c>
       <c r="B1496" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1496">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -16875,10 +16875,10 @@
         <v>44261</v>
       </c>
       <c r="B1497" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1497">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -16886,7 +16886,7 @@
         <v>44261</v>
       </c>
       <c r="B1498" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1498">
         <v>3</v>
@@ -16894,10 +16894,10 @@
     </row>
     <row r="1499" spans="1:3">
       <c r="A1499" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B1499" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1499">
         <v>3</v>
@@ -16908,10 +16908,10 @@
         <v>44262</v>
       </c>
       <c r="B1500" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1500">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
@@ -16919,21 +16919,21 @@
         <v>44262</v>
       </c>
       <c r="B1501" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1501">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
       <c r="A1502" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B1502" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1502">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
@@ -16941,10 +16941,10 @@
         <v>44263</v>
       </c>
       <c r="B1503" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -16952,7 +16952,7 @@
         <v>44263</v>
       </c>
       <c r="B1504" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1504">
         <v>2</v>
@@ -16963,10 +16963,10 @@
         <v>44263</v>
       </c>
       <c r="B1505" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1505">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
@@ -16974,21 +16974,21 @@
         <v>44263</v>
       </c>
       <c r="B1506" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1506">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
       <c r="A1507" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B1507" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1507">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -16996,10 +16996,10 @@
         <v>44264</v>
       </c>
       <c r="B1508" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1508">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -17007,7 +17007,7 @@
         <v>44264</v>
       </c>
       <c r="B1509" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1509">
         <v>4</v>
@@ -17018,21 +17018,21 @@
         <v>44264</v>
       </c>
       <c r="B1510" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1510">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
       <c r="A1511" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1511" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
@@ -17040,7 +17040,7 @@
         <v>44265</v>
       </c>
       <c r="B1512" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1512">
         <v>1</v>
@@ -17051,10 +17051,10 @@
         <v>44265</v>
       </c>
       <c r="B1513" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1513">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
@@ -17062,21 +17062,21 @@
         <v>44265</v>
       </c>
       <c r="B1514" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1514">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
       <c r="A1515" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B1515" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1515">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -17084,10 +17084,10 @@
         <v>44266</v>
       </c>
       <c r="B1516" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17095,7 +17095,7 @@
         <v>44266</v>
       </c>
       <c r="B1517" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1517">
         <v>2</v>
@@ -17106,18 +17106,18 @@
         <v>44266</v>
       </c>
       <c r="B1518" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1518">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
       <c r="A1519" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B1519" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1519">
         <v>3</v>
@@ -17128,10 +17128,10 @@
         <v>44267</v>
       </c>
       <c r="B1520" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1520">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
@@ -17139,10 +17139,10 @@
         <v>44267</v>
       </c>
       <c r="B1521" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1521">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17150,21 +17150,21 @@
         <v>44267</v>
       </c>
       <c r="B1522" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1522">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
       <c r="A1523" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B1523" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1523">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -17172,10 +17172,10 @@
         <v>44268</v>
       </c>
       <c r="B1524" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17183,10 +17183,10 @@
         <v>44268</v>
       </c>
       <c r="B1525" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17194,7 +17194,7 @@
         <v>44268</v>
       </c>
       <c r="B1526" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1526">
         <v>2</v>
@@ -17202,10 +17202,10 @@
     </row>
     <row r="1527" spans="1:3">
       <c r="A1527" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B1527" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1527">
         <v>2</v>
@@ -17216,10 +17216,10 @@
         <v>44269</v>
       </c>
       <c r="B1528" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -17227,21 +17227,21 @@
         <v>44269</v>
       </c>
       <c r="B1529" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1529">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
       <c r="A1530" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B1530" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1530">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
@@ -17249,10 +17249,10 @@
         <v>44270</v>
       </c>
       <c r="B1531" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17260,21 +17260,21 @@
         <v>44270</v>
       </c>
       <c r="B1532" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
       <c r="A1533" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B1533" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1533">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
@@ -17282,10 +17282,10 @@
         <v>44271</v>
       </c>
       <c r="B1534" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1534">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
@@ -17293,7 +17293,7 @@
         <v>44271</v>
       </c>
       <c r="B1535" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1535">
         <v>3</v>
@@ -17304,18 +17304,18 @@
         <v>44271</v>
       </c>
       <c r="B1536" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1536">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
       <c r="A1537" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B1537" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1537">
         <v>2</v>
@@ -17326,10 +17326,10 @@
         <v>44272</v>
       </c>
       <c r="B1538" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
@@ -17337,21 +17337,21 @@
         <v>44272</v>
       </c>
       <c r="B1539" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1539">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
       <c r="A1540" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B1540" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1540">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
@@ -17359,7 +17359,7 @@
         <v>44273</v>
       </c>
       <c r="B1541" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1541">
         <v>1</v>
@@ -17370,10 +17370,10 @@
         <v>44273</v>
       </c>
       <c r="B1542" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1542">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
@@ -17381,10 +17381,10 @@
         <v>44273</v>
       </c>
       <c r="B1543" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1543">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
@@ -17392,43 +17392,43 @@
         <v>44273</v>
       </c>
       <c r="B1544" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1544">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
       <c r="A1545" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B1545" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1545">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
       <c r="A1546" s="2">
-        <v>44276</v>
+        <v>44274</v>
       </c>
       <c r="B1546" t="s">
         <v>3</v>
       </c>
       <c r="C1546">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
       <c r="A1547" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B1547" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
@@ -17436,32 +17436,32 @@
         <v>44276</v>
       </c>
       <c r="B1548" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B1549" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1549">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B1550" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
@@ -17469,29 +17469,29 @@
         <v>44277</v>
       </c>
       <c r="B1551" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1552" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1553" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1553">
         <v>2</v>
@@ -17502,7 +17502,7 @@
         <v>44278</v>
       </c>
       <c r="B1554" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1554">
         <v>1</v>
@@ -17510,13 +17510,57 @@
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3">
+      <c r="A1556" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3">
+      <c r="A1557" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3">
+      <c r="A1558" s="2">
         <v>44279</v>
       </c>
-      <c r="B1555" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1555">
-        <v>1</v>
+      <c r="B1558" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3">
+      <c r="A1559" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1559">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1559"/>
+  <dimension ref="A1:C1564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17563,6 +17563,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1560" spans="1:3">
+      <c r="A1560" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3">
+      <c r="A1561" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3">
+      <c r="A1562" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3">
+      <c r="A1563" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3">
+      <c r="A1564" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1564">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1564"/>
+  <dimension ref="A1:C1567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13993,7 +13993,7 @@
         <v>44203</v>
       </c>
       <c r="B1235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1235">
         <v>1</v>
@@ -14004,10 +14004,10 @@
         <v>44203</v>
       </c>
       <c r="B1236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -14015,10 +14015,10 @@
         <v>44203</v>
       </c>
       <c r="B1237" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1237">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
@@ -14026,10 +14026,10 @@
         <v>44203</v>
       </c>
       <c r="B1238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1238">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
@@ -14037,21 +14037,21 @@
         <v>44203</v>
       </c>
       <c r="B1239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1239">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
       <c r="A1240" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B1240" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1240">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
@@ -14059,10 +14059,10 @@
         <v>44204</v>
       </c>
       <c r="B1241" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14070,10 +14070,10 @@
         <v>44204</v>
       </c>
       <c r="B1242" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1242">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14081,10 +14081,10 @@
         <v>44204</v>
       </c>
       <c r="B1243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1243">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14092,21 +14092,21 @@
         <v>44204</v>
       </c>
       <c r="B1244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1244">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
       <c r="A1245" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B1245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1245">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
@@ -14114,10 +14114,10 @@
         <v>44205</v>
       </c>
       <c r="B1246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1246">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14125,10 +14125,10 @@
         <v>44205</v>
       </c>
       <c r="B1247" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1247">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
@@ -14136,10 +14136,10 @@
         <v>44205</v>
       </c>
       <c r="B1248" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1248">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14147,21 +14147,21 @@
         <v>44205</v>
       </c>
       <c r="B1249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1249">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
       <c r="A1250" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B1250" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1250">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
@@ -14169,10 +14169,10 @@
         <v>44206</v>
       </c>
       <c r="B1251" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1251">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14180,10 +14180,10 @@
         <v>44206</v>
       </c>
       <c r="B1252" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1252">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
@@ -14191,10 +14191,10 @@
         <v>44206</v>
       </c>
       <c r="B1253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1253">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14202,21 +14202,21 @@
         <v>44206</v>
       </c>
       <c r="B1254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1254">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B1255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1255">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
@@ -14224,7 +14224,7 @@
         <v>44207</v>
       </c>
       <c r="B1256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1256">
         <v>1</v>
@@ -14235,10 +14235,10 @@
         <v>44207</v>
       </c>
       <c r="B1257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1257">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
@@ -14246,10 +14246,10 @@
         <v>44207</v>
       </c>
       <c r="B1258" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1258">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
@@ -14257,10 +14257,10 @@
         <v>44207</v>
       </c>
       <c r="B1259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1259">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14268,21 +14268,21 @@
         <v>44207</v>
       </c>
       <c r="B1260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1260">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B1261" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1261">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
@@ -14290,10 +14290,10 @@
         <v>44208</v>
       </c>
       <c r="B1262" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1262">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14301,10 +14301,10 @@
         <v>44208</v>
       </c>
       <c r="B1263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1263">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14312,21 +14312,21 @@
         <v>44208</v>
       </c>
       <c r="B1264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1264">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
       <c r="A1265" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B1265" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1265">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14334,10 +14334,10 @@
         <v>44209</v>
       </c>
       <c r="B1266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1266">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14345,10 +14345,10 @@
         <v>44209</v>
       </c>
       <c r="B1267" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1267">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
@@ -14356,10 +14356,10 @@
         <v>44209</v>
       </c>
       <c r="B1268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1268">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14367,21 +14367,21 @@
         <v>44209</v>
       </c>
       <c r="B1269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1269">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B1270" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1270">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14389,10 +14389,10 @@
         <v>44210</v>
       </c>
       <c r="B1271" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1271">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14400,10 +14400,10 @@
         <v>44210</v>
       </c>
       <c r="B1272" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1272">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14411,10 +14411,10 @@
         <v>44210</v>
       </c>
       <c r="B1273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1273">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
@@ -14422,21 +14422,21 @@
         <v>44210</v>
       </c>
       <c r="B1274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1274">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B1275" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1275">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14444,10 +14444,10 @@
         <v>44211</v>
       </c>
       <c r="B1276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1276">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14455,10 +14455,10 @@
         <v>44211</v>
       </c>
       <c r="B1277" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1277">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14466,10 +14466,10 @@
         <v>44211</v>
       </c>
       <c r="B1278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1278">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14477,21 +14477,21 @@
         <v>44211</v>
       </c>
       <c r="B1279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1279">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
       <c r="A1280" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B1280" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1280">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14499,10 +14499,10 @@
         <v>44212</v>
       </c>
       <c r="B1281" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1281">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14510,10 +14510,10 @@
         <v>44212</v>
       </c>
       <c r="B1282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1282">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14521,21 +14521,21 @@
         <v>44212</v>
       </c>
       <c r="B1283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1283">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
       <c r="A1284" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B1284" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1284">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14543,10 +14543,10 @@
         <v>44213</v>
       </c>
       <c r="B1285" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1285">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14554,10 +14554,10 @@
         <v>44213</v>
       </c>
       <c r="B1286" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1286">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14565,10 +14565,10 @@
         <v>44213</v>
       </c>
       <c r="B1287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1287">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14576,21 +14576,21 @@
         <v>44213</v>
       </c>
       <c r="B1288" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1288">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
       <c r="A1289" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B1289" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1289">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14598,10 +14598,10 @@
         <v>44214</v>
       </c>
       <c r="B1290" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1290">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14609,10 +14609,10 @@
         <v>44214</v>
       </c>
       <c r="B1291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1291">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14620,21 +14620,21 @@
         <v>44214</v>
       </c>
       <c r="B1292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1292">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B1293" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1293">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14642,10 +14642,10 @@
         <v>44215</v>
       </c>
       <c r="B1294" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1294">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14653,10 +14653,10 @@
         <v>44215</v>
       </c>
       <c r="B1295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1295">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
@@ -14664,21 +14664,21 @@
         <v>44215</v>
       </c>
       <c r="B1296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1296">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B1297" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1297">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14686,10 +14686,10 @@
         <v>44216</v>
       </c>
       <c r="B1298" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1298">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14697,10 +14697,10 @@
         <v>44216</v>
       </c>
       <c r="B1299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1299">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14708,10 +14708,10 @@
         <v>44216</v>
       </c>
       <c r="B1300" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1300">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14719,10 +14719,10 @@
         <v>44216</v>
       </c>
       <c r="B1301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1301">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14730,21 +14730,21 @@
         <v>44216</v>
       </c>
       <c r="B1302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1302">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B1303" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1303">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14752,7 +14752,7 @@
         <v>44217</v>
       </c>
       <c r="B1304" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1304">
         <v>1</v>
@@ -14763,10 +14763,10 @@
         <v>44217</v>
       </c>
       <c r="B1305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1305">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14774,7 +14774,7 @@
         <v>44217</v>
       </c>
       <c r="B1306" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1306">
         <v>5</v>
@@ -14785,10 +14785,10 @@
         <v>44217</v>
       </c>
       <c r="B1307" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1307">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14796,21 +14796,21 @@
         <v>44217</v>
       </c>
       <c r="B1308" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1308">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B1309" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1309">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14818,10 +14818,10 @@
         <v>44218</v>
       </c>
       <c r="B1310" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1310">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14829,10 +14829,10 @@
         <v>44218</v>
       </c>
       <c r="B1311" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1311">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -14840,21 +14840,21 @@
         <v>44218</v>
       </c>
       <c r="B1312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1312">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
       <c r="A1313" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B1313" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1313">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14862,10 +14862,10 @@
         <v>44219</v>
       </c>
       <c r="B1314" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1314">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14873,10 +14873,10 @@
         <v>44219</v>
       </c>
       <c r="B1315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1315">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14884,21 +14884,21 @@
         <v>44219</v>
       </c>
       <c r="B1316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1316">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
       <c r="A1317" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B1317" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1317">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14906,10 +14906,10 @@
         <v>44220</v>
       </c>
       <c r="B1318" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1318">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14917,10 +14917,10 @@
         <v>44220</v>
       </c>
       <c r="B1319" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1319">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14928,21 +14928,21 @@
         <v>44220</v>
       </c>
       <c r="B1320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1320">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
       <c r="A1321" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B1321" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1321">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14950,7 +14950,7 @@
         <v>44221</v>
       </c>
       <c r="B1322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1322">
         <v>1</v>
@@ -14961,10 +14961,10 @@
         <v>44221</v>
       </c>
       <c r="B1323" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1323">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -14972,10 +14972,10 @@
         <v>44221</v>
       </c>
       <c r="B1324" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1324">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14983,21 +14983,21 @@
         <v>44221</v>
       </c>
       <c r="B1325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1325">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
       <c r="A1326" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B1326" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1326">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -15005,10 +15005,10 @@
         <v>44222</v>
       </c>
       <c r="B1327" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1327">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -15016,7 +15016,7 @@
         <v>44222</v>
       </c>
       <c r="B1328" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1328">
         <v>7</v>
@@ -15027,10 +15027,10 @@
         <v>44222</v>
       </c>
       <c r="B1329" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1329">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15038,21 +15038,21 @@
         <v>44222</v>
       </c>
       <c r="B1330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1330">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
       <c r="A1331" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B1331" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1331">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15060,10 +15060,10 @@
         <v>44223</v>
       </c>
       <c r="B1332" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1332">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15071,10 +15071,10 @@
         <v>44223</v>
       </c>
       <c r="B1333" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1333">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15082,10 +15082,10 @@
         <v>44223</v>
       </c>
       <c r="B1334" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1334">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15093,21 +15093,21 @@
         <v>44223</v>
       </c>
       <c r="B1335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1335">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
       <c r="A1336" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B1336" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1336">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15115,10 +15115,10 @@
         <v>44224</v>
       </c>
       <c r="B1337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1337">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15126,21 +15126,21 @@
         <v>44224</v>
       </c>
       <c r="B1338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1338">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
       <c r="A1339" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B1339" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1339">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15148,10 +15148,10 @@
         <v>44225</v>
       </c>
       <c r="B1340" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15159,10 +15159,10 @@
         <v>44225</v>
       </c>
       <c r="B1341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1341">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15170,10 +15170,10 @@
         <v>44225</v>
       </c>
       <c r="B1342" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1342">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15181,10 +15181,10 @@
         <v>44225</v>
       </c>
       <c r="B1343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1343">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15192,21 +15192,21 @@
         <v>44225</v>
       </c>
       <c r="B1344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1344">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
       <c r="A1345" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B1345" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1345">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15214,10 +15214,10 @@
         <v>44226</v>
       </c>
       <c r="B1346" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1346">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15225,10 +15225,10 @@
         <v>44226</v>
       </c>
       <c r="B1347" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1347">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15236,10 +15236,10 @@
         <v>44226</v>
       </c>
       <c r="B1348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1348">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15247,21 +15247,21 @@
         <v>44226</v>
       </c>
       <c r="B1349" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1349">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
       <c r="A1350" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B1350" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1350">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15269,10 +15269,10 @@
         <v>44227</v>
       </c>
       <c r="B1351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1351">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15280,10 +15280,10 @@
         <v>44227</v>
       </c>
       <c r="B1352" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1352">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15291,10 +15291,10 @@
         <v>44227</v>
       </c>
       <c r="B1353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1353">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15302,7 +15302,7 @@
         <v>44227</v>
       </c>
       <c r="B1354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1354">
         <v>15</v>
@@ -15310,13 +15310,13 @@
     </row>
     <row r="1355" spans="1:3">
       <c r="A1355" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B1355" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1355">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15324,10 +15324,10 @@
         <v>44228</v>
       </c>
       <c r="B1356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15335,10 +15335,10 @@
         <v>44228</v>
       </c>
       <c r="B1357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1357">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15346,10 +15346,10 @@
         <v>44228</v>
       </c>
       <c r="B1358" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1358">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15357,10 +15357,10 @@
         <v>44228</v>
       </c>
       <c r="B1359" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1359">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15368,21 +15368,21 @@
         <v>44228</v>
       </c>
       <c r="B1360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1360">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="A1361" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B1361" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1361">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15390,10 +15390,10 @@
         <v>44229</v>
       </c>
       <c r="B1362" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1362">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15401,7 +15401,7 @@
         <v>44229</v>
       </c>
       <c r="B1363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1363">
         <v>3</v>
@@ -15412,10 +15412,10 @@
         <v>44229</v>
       </c>
       <c r="B1364" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1364">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15423,10 +15423,10 @@
         <v>44229</v>
       </c>
       <c r="B1365" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1365">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15434,21 +15434,21 @@
         <v>44229</v>
       </c>
       <c r="B1366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1366">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
       <c r="A1367" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B1367" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1367">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15456,10 +15456,10 @@
         <v>44230</v>
       </c>
       <c r="B1368" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1368">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15467,10 +15467,10 @@
         <v>44230</v>
       </c>
       <c r="B1369" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1369">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15478,21 +15478,21 @@
         <v>44230</v>
       </c>
       <c r="B1370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1370">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
       <c r="A1371" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B1371" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1371">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15500,10 +15500,10 @@
         <v>44231</v>
       </c>
       <c r="B1372" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1372">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15511,10 +15511,10 @@
         <v>44231</v>
       </c>
       <c r="B1373" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1373">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15522,10 +15522,10 @@
         <v>44231</v>
       </c>
       <c r="B1374" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1374">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15533,21 +15533,21 @@
         <v>44231</v>
       </c>
       <c r="B1375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1375">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
       <c r="A1376" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B1376" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1376">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15555,10 +15555,10 @@
         <v>44232</v>
       </c>
       <c r="B1377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1377">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15566,21 +15566,21 @@
         <v>44232</v>
       </c>
       <c r="B1378" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1378">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
       <c r="A1379" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B1379" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1379">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15588,7 +15588,7 @@
         <v>44233</v>
       </c>
       <c r="B1380" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1380">
         <v>1</v>
@@ -15599,10 +15599,10 @@
         <v>44233</v>
       </c>
       <c r="B1381" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1381">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15610,10 +15610,10 @@
         <v>44233</v>
       </c>
       <c r="B1382" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1382">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15621,21 +15621,21 @@
         <v>44233</v>
       </c>
       <c r="B1383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1383">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
       <c r="A1384" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B1384" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1384">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15643,10 +15643,10 @@
         <v>44234</v>
       </c>
       <c r="B1385" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1385">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15654,10 +15654,10 @@
         <v>44234</v>
       </c>
       <c r="B1386" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1386">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15665,21 +15665,21 @@
         <v>44234</v>
       </c>
       <c r="B1387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1387">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
       <c r="A1388" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B1388" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1388">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15687,10 +15687,10 @@
         <v>44235</v>
       </c>
       <c r="B1389" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1389">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15698,21 +15698,21 @@
         <v>44235</v>
       </c>
       <c r="B1390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1390">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
       <c r="A1391" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B1391" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1391">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15720,10 +15720,10 @@
         <v>44236</v>
       </c>
       <c r="B1392" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1392">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15731,7 +15731,7 @@
         <v>44236</v>
       </c>
       <c r="B1393" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1393">
         <v>5</v>
@@ -15742,7 +15742,7 @@
         <v>44236</v>
       </c>
       <c r="B1394" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1394">
         <v>5</v>
@@ -15753,21 +15753,21 @@
         <v>44236</v>
       </c>
       <c r="B1395" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1395">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
       <c r="A1396" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B1396" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1396">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15775,10 +15775,10 @@
         <v>44237</v>
       </c>
       <c r="B1397" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15786,10 +15786,10 @@
         <v>44237</v>
       </c>
       <c r="B1398" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1398">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15797,10 +15797,10 @@
         <v>44237</v>
       </c>
       <c r="B1399" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1399">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15808,21 +15808,21 @@
         <v>44237</v>
       </c>
       <c r="B1400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1400">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
       <c r="A1401" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B1401" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1401">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15830,10 +15830,10 @@
         <v>44238</v>
       </c>
       <c r="B1402" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1402">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15841,7 +15841,7 @@
         <v>44238</v>
       </c>
       <c r="B1403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1403">
         <v>5</v>
@@ -15852,21 +15852,21 @@
         <v>44238</v>
       </c>
       <c r="B1404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1404">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
       <c r="A1405" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B1405" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1405">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15874,7 +15874,7 @@
         <v>44239</v>
       </c>
       <c r="B1406" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1406">
         <v>5</v>
@@ -15885,21 +15885,21 @@
         <v>44239</v>
       </c>
       <c r="B1407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1407">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
       <c r="A1408" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B1408" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1408">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15907,7 +15907,7 @@
         <v>44240</v>
       </c>
       <c r="B1409" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1409">
         <v>1</v>
@@ -15918,10 +15918,10 @@
         <v>44240</v>
       </c>
       <c r="B1410" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15929,10 +15929,10 @@
         <v>44240</v>
       </c>
       <c r="B1411" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1411">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -15940,10 +15940,10 @@
         <v>44240</v>
       </c>
       <c r="B1412" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1412">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15951,21 +15951,21 @@
         <v>44240</v>
       </c>
       <c r="B1413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1413">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
       <c r="A1414" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B1414" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1414">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15973,10 +15973,10 @@
         <v>44241</v>
       </c>
       <c r="B1415" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15984,10 +15984,10 @@
         <v>44241</v>
       </c>
       <c r="B1416" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1416">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -15995,10 +15995,10 @@
         <v>44241</v>
       </c>
       <c r="B1417" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1417">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
@@ -16006,21 +16006,21 @@
         <v>44241</v>
       </c>
       <c r="B1418" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1418">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
       <c r="A1419" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B1419" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1419">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16028,10 +16028,10 @@
         <v>44242</v>
       </c>
       <c r="B1420" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16039,10 +16039,10 @@
         <v>44242</v>
       </c>
       <c r="B1421" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1421">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16050,10 +16050,10 @@
         <v>44242</v>
       </c>
       <c r="B1422" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1422">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16061,21 +16061,21 @@
         <v>44242</v>
       </c>
       <c r="B1423" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1423">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
       <c r="A1424" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B1424" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1424">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16083,10 +16083,10 @@
         <v>44243</v>
       </c>
       <c r="B1425" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1425">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16094,7 +16094,7 @@
         <v>44243</v>
       </c>
       <c r="B1426" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1426">
         <v>6</v>
@@ -16105,21 +16105,21 @@
         <v>44243</v>
       </c>
       <c r="B1427" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1427">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
       <c r="A1428" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B1428" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1428">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16127,7 +16127,7 @@
         <v>44244</v>
       </c>
       <c r="B1429" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1429">
         <v>2</v>
@@ -16138,10 +16138,10 @@
         <v>44244</v>
       </c>
       <c r="B1430" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1430">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16149,10 +16149,10 @@
         <v>44244</v>
       </c>
       <c r="B1431" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1431">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16160,21 +16160,21 @@
         <v>44244</v>
       </c>
       <c r="B1432" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1432">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
       <c r="A1433" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B1433" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1433">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16182,10 +16182,10 @@
         <v>44245</v>
       </c>
       <c r="B1434" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16193,10 +16193,10 @@
         <v>44245</v>
       </c>
       <c r="B1435" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1435">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16204,21 +16204,21 @@
         <v>44245</v>
       </c>
       <c r="B1436" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1436">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
       <c r="A1437" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B1437" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1437">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16226,10 +16226,10 @@
         <v>44246</v>
       </c>
       <c r="B1438" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
@@ -16237,10 +16237,10 @@
         <v>44246</v>
       </c>
       <c r="B1439" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1439">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
@@ -16248,21 +16248,21 @@
         <v>44246</v>
       </c>
       <c r="B1440" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1440">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
       <c r="A1441" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B1441" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1441">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16270,10 +16270,10 @@
         <v>44247</v>
       </c>
       <c r="B1442" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1442">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
@@ -16281,21 +16281,21 @@
         <v>44247</v>
       </c>
       <c r="B1443" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1443">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1444" spans="1:3">
       <c r="A1444" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B1444" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1444">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
@@ -16303,10 +16303,10 @@
         <v>44248</v>
       </c>
       <c r="B1445" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1445">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
@@ -16314,21 +16314,21 @@
         <v>44248</v>
       </c>
       <c r="B1446" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1446">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
       <c r="A1447" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B1447" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1447">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
@@ -16336,10 +16336,10 @@
         <v>44249</v>
       </c>
       <c r="B1448" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1448">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16347,10 +16347,10 @@
         <v>44249</v>
       </c>
       <c r="B1449" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1449">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16358,7 +16358,7 @@
         <v>44249</v>
       </c>
       <c r="B1450" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1450">
         <v>9</v>
@@ -16366,13 +16366,13 @@
     </row>
     <row r="1451" spans="1:3">
       <c r="A1451" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B1451" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1451">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
@@ -16380,10 +16380,10 @@
         <v>44250</v>
       </c>
       <c r="B1452" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1452">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
@@ -16391,21 +16391,21 @@
         <v>44250</v>
       </c>
       <c r="B1453" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1453">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
       <c r="A1454" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B1454" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1454">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
@@ -16413,10 +16413,10 @@
         <v>44251</v>
       </c>
       <c r="B1455" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1455">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456" spans="1:3">
@@ -16424,10 +16424,10 @@
         <v>44251</v>
       </c>
       <c r="B1456" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1456">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
@@ -16435,21 +16435,21 @@
         <v>44251</v>
       </c>
       <c r="B1457" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1457">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
       <c r="A1458" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B1458" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1458">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -16457,10 +16457,10 @@
         <v>44252</v>
       </c>
       <c r="B1459" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1459">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
@@ -16468,10 +16468,10 @@
         <v>44252</v>
       </c>
       <c r="B1460" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1460">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
@@ -16479,21 +16479,21 @@
         <v>44252</v>
       </c>
       <c r="B1461" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1461">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
       <c r="A1462" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B1462" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1462">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
@@ -16501,7 +16501,7 @@
         <v>44253</v>
       </c>
       <c r="B1463" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1463">
         <v>1</v>
@@ -16512,10 +16512,10 @@
         <v>44253</v>
       </c>
       <c r="B1464" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1464">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -16523,10 +16523,10 @@
         <v>44253</v>
       </c>
       <c r="B1465" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1465">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -16534,21 +16534,21 @@
         <v>44253</v>
       </c>
       <c r="B1466" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1466">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
       <c r="A1467" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B1467" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1467">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1468" spans="1:3">
@@ -16556,7 +16556,7 @@
         <v>44254</v>
       </c>
       <c r="B1468" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1468">
         <v>1</v>
@@ -16567,10 +16567,10 @@
         <v>44254</v>
       </c>
       <c r="B1469" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1469">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16578,21 +16578,21 @@
         <v>44254</v>
       </c>
       <c r="B1470" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1470">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
       <c r="A1471" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B1471" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1471">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -16600,10 +16600,10 @@
         <v>44255</v>
       </c>
       <c r="B1472" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -16611,10 +16611,10 @@
         <v>44255</v>
       </c>
       <c r="B1473" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1473">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
@@ -16622,21 +16622,21 @@
         <v>44255</v>
       </c>
       <c r="B1474" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1474">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
       <c r="A1475" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B1475" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1475">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
@@ -16644,7 +16644,7 @@
         <v>44256</v>
       </c>
       <c r="B1476" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1476">
         <v>5</v>
@@ -16655,21 +16655,21 @@
         <v>44256</v>
       </c>
       <c r="B1477" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1477">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
       <c r="A1478" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B1478" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1478">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16677,10 +16677,10 @@
         <v>44257</v>
       </c>
       <c r="B1479" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16688,10 +16688,10 @@
         <v>44257</v>
       </c>
       <c r="B1480" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1480">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16699,10 +16699,10 @@
         <v>44257</v>
       </c>
       <c r="B1481" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1481">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16710,21 +16710,21 @@
         <v>44257</v>
       </c>
       <c r="B1482" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1482">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
       <c r="A1483" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B1483" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1483">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16732,10 +16732,10 @@
         <v>44258</v>
       </c>
       <c r="B1484" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1484">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
@@ -16743,7 +16743,7 @@
         <v>44258</v>
       </c>
       <c r="B1485" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1485">
         <v>3</v>
@@ -16754,18 +16754,18 @@
         <v>44258</v>
       </c>
       <c r="B1486" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1486">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
       <c r="A1487" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B1487" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1487">
         <v>2</v>
@@ -16776,10 +16776,10 @@
         <v>44259</v>
       </c>
       <c r="B1488" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1488">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
@@ -16787,7 +16787,7 @@
         <v>44259</v>
       </c>
       <c r="B1489" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1489">
         <v>3</v>
@@ -16798,7 +16798,7 @@
         <v>44259</v>
       </c>
       <c r="B1490" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1490">
         <v>3</v>
@@ -16809,21 +16809,21 @@
         <v>44259</v>
       </c>
       <c r="B1491" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1491">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
       <c r="A1492" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B1492" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16831,10 +16831,10 @@
         <v>44260</v>
       </c>
       <c r="B1493" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1493">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -16842,10 +16842,10 @@
         <v>44260</v>
       </c>
       <c r="B1494" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1494">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16853,21 +16853,21 @@
         <v>44260</v>
       </c>
       <c r="B1495" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1495">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
       <c r="A1496" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B1496" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1496">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -16875,10 +16875,10 @@
         <v>44261</v>
       </c>
       <c r="B1497" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1497">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -16886,10 +16886,10 @@
         <v>44261</v>
       </c>
       <c r="B1498" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1498">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
@@ -16897,7 +16897,7 @@
         <v>44261</v>
       </c>
       <c r="B1499" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1499">
         <v>3</v>
@@ -16905,10 +16905,10 @@
     </row>
     <row r="1500" spans="1:3">
       <c r="A1500" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B1500" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1500">
         <v>3</v>
@@ -16919,10 +16919,10 @@
         <v>44262</v>
       </c>
       <c r="B1501" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1501">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -16930,21 +16930,21 @@
         <v>44262</v>
       </c>
       <c r="B1502" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1502">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
       <c r="A1503" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B1503" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1503">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -16952,10 +16952,10 @@
         <v>44263</v>
       </c>
       <c r="B1504" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1504">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -16963,7 +16963,7 @@
         <v>44263</v>
       </c>
       <c r="B1505" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1505">
         <v>2</v>
@@ -16974,10 +16974,10 @@
         <v>44263</v>
       </c>
       <c r="B1506" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1506">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -16985,21 +16985,21 @@
         <v>44263</v>
       </c>
       <c r="B1507" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1507">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
       <c r="A1508" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B1508" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1508">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -17007,10 +17007,10 @@
         <v>44264</v>
       </c>
       <c r="B1509" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1509">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
@@ -17018,7 +17018,7 @@
         <v>44264</v>
       </c>
       <c r="B1510" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1510">
         <v>4</v>
@@ -17029,21 +17029,21 @@
         <v>44264</v>
       </c>
       <c r="B1511" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1511">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
       <c r="A1512" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B1512" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17051,7 +17051,7 @@
         <v>44265</v>
       </c>
       <c r="B1513" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1513">
         <v>1</v>
@@ -17062,10 +17062,10 @@
         <v>44265</v>
       </c>
       <c r="B1514" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1514">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
@@ -17073,21 +17073,21 @@
         <v>44265</v>
       </c>
       <c r="B1515" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1515">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
       <c r="A1516" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B1516" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1516">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17095,10 +17095,10 @@
         <v>44266</v>
       </c>
       <c r="B1517" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -17106,10 +17106,10 @@
         <v>44266</v>
       </c>
       <c r="B1518" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1518">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
@@ -17117,7 +17117,7 @@
         <v>44266</v>
       </c>
       <c r="B1519" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1519">
         <v>3</v>
@@ -17125,10 +17125,10 @@
     </row>
     <row r="1520" spans="1:3">
       <c r="A1520" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B1520" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1520">
         <v>4</v>
@@ -17139,10 +17139,10 @@
         <v>44267</v>
       </c>
       <c r="B1521" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17150,10 +17150,10 @@
         <v>44267</v>
       </c>
       <c r="B1522" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1522">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
@@ -17161,21 +17161,21 @@
         <v>44267</v>
       </c>
       <c r="B1523" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1523">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
       <c r="A1524" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B1524" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1524">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17183,10 +17183,10 @@
         <v>44268</v>
       </c>
       <c r="B1525" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17194,7 +17194,7 @@
         <v>44268</v>
       </c>
       <c r="B1526" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1526">
         <v>2</v>
@@ -17205,7 +17205,7 @@
         <v>44268</v>
       </c>
       <c r="B1527" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1527">
         <v>2</v>
@@ -17213,10 +17213,10 @@
     </row>
     <row r="1528" spans="1:3">
       <c r="A1528" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B1528" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1528">
         <v>2</v>
@@ -17227,10 +17227,10 @@
         <v>44269</v>
       </c>
       <c r="B1529" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -17238,21 +17238,21 @@
         <v>44269</v>
       </c>
       <c r="B1530" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1530">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
       <c r="A1531" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B1531" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1531">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17260,10 +17260,10 @@
         <v>44270</v>
       </c>
       <c r="B1532" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
@@ -17271,21 +17271,21 @@
         <v>44270</v>
       </c>
       <c r="B1533" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1533">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
       <c r="A1534" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B1534" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1534">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
@@ -17293,10 +17293,10 @@
         <v>44271</v>
       </c>
       <c r="B1535" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
@@ -17304,7 +17304,7 @@
         <v>44271</v>
       </c>
       <c r="B1536" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1536">
         <v>3</v>
@@ -17315,21 +17315,21 @@
         <v>44271</v>
       </c>
       <c r="B1537" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
       <c r="A1538" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B1538" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1538">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
@@ -17337,10 +17337,10 @@
         <v>44272</v>
       </c>
       <c r="B1539" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
@@ -17348,21 +17348,21 @@
         <v>44272</v>
       </c>
       <c r="B1540" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1540">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
       <c r="A1541" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B1541" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1541">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
@@ -17370,7 +17370,7 @@
         <v>44273</v>
       </c>
       <c r="B1542" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1542">
         <v>1</v>
@@ -17381,10 +17381,10 @@
         <v>44273</v>
       </c>
       <c r="B1543" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1543">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
@@ -17392,10 +17392,10 @@
         <v>44273</v>
       </c>
       <c r="B1544" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1544">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
@@ -17403,43 +17403,43 @@
         <v>44273</v>
       </c>
       <c r="B1545" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1545">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
       <c r="A1546" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B1546" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1546">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
       <c r="A1547" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B1547" t="s">
         <v>3</v>
       </c>
       <c r="C1547">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
       <c r="A1548" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B1548" t="s">
         <v>3</v>
       </c>
       <c r="C1548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
@@ -17447,7 +17447,7 @@
         <v>44276</v>
       </c>
       <c r="B1549" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1549">
         <v>3</v>
@@ -17458,21 +17458,21 @@
         <v>44276</v>
       </c>
       <c r="B1550" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1550">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
       <c r="A1551" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B1551" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1551">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
@@ -17480,10 +17480,10 @@
         <v>44277</v>
       </c>
       <c r="B1552" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
@@ -17491,32 +17491,32 @@
         <v>44277</v>
       </c>
       <c r="B1553" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1553">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1554" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1555" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1555">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
@@ -17524,10 +17524,10 @@
         <v>44278</v>
       </c>
       <c r="B1556" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
@@ -17535,7 +17535,7 @@
         <v>44278</v>
       </c>
       <c r="B1557" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1557">
         <v>1</v>
@@ -17543,40 +17543,40 @@
     </row>
     <row r="1558" spans="1:3">
       <c r="A1558" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B1558" t="s">
         <v>4</v>
       </c>
       <c r="C1558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
       <c r="A1559" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B1559" t="s">
         <v>5</v>
       </c>
       <c r="C1559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
       <c r="A1560" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1560" t="s">
         <v>4</v>
       </c>
       <c r="C1560">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
       <c r="A1561" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1561" t="s">
         <v>5</v>
@@ -17587,24 +17587,24 @@
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1562" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1562">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1563" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
@@ -17612,9 +17612,42 @@
         <v>44281</v>
       </c>
       <c r="B1564" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3">
+      <c r="A1565" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3">
+      <c r="A1566" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3">
+      <c r="A1567" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1567">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1567"/>
+  <dimension ref="A1:C1578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1874,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="C220">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -13259,7 +13259,7 @@
         <v>6</v>
       </c>
       <c r="C1168">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -17425,32 +17425,32 @@
         <v>44274</v>
       </c>
       <c r="B1547" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
       <c r="A1548" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B1548" t="s">
         <v>3</v>
       </c>
       <c r="C1548">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B1549" t="s">
         <v>3</v>
       </c>
       <c r="C1549">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
@@ -17458,7 +17458,7 @@
         <v>44276</v>
       </c>
       <c r="B1550" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1550">
         <v>3</v>
@@ -17469,7 +17469,7 @@
         <v>44276</v>
       </c>
       <c r="B1551" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1551">
         <v>3</v>
@@ -17477,13 +17477,13 @@
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B1552" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1552">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
@@ -17491,7 +17491,7 @@
         <v>44277</v>
       </c>
       <c r="B1553" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1553">
         <v>1</v>
@@ -17502,10 +17502,10 @@
         <v>44277</v>
       </c>
       <c r="B1554" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
@@ -17513,7 +17513,7 @@
         <v>44277</v>
       </c>
       <c r="B1555" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1555">
         <v>2</v>
@@ -17521,13 +17521,13 @@
     </row>
     <row r="1556" spans="1:3">
       <c r="A1556" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1556" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1556">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
@@ -17535,7 +17535,7 @@
         <v>44278</v>
       </c>
       <c r="B1557" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1557">
         <v>1</v>
@@ -17546,10 +17546,10 @@
         <v>44278</v>
       </c>
       <c r="B1558" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
@@ -17557,18 +17557,18 @@
         <v>44278</v>
       </c>
       <c r="B1559" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
       <c r="A1560" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B1560" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1560">
         <v>1</v>
@@ -17579,26 +17579,26 @@
         <v>44279</v>
       </c>
       <c r="B1561" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1562" t="s">
         <v>4</v>
       </c>
       <c r="C1562">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1563" t="s">
         <v>5</v>
@@ -17609,24 +17609,24 @@
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1564" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1564">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1565" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
@@ -17634,7 +17634,7 @@
         <v>44281</v>
       </c>
       <c r="B1566" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1566">
         <v>1</v>
@@ -17645,9 +17645,130 @@
         <v>44281</v>
       </c>
       <c r="B1567" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3">
+      <c r="A1568" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3">
+      <c r="A1569" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3">
+      <c r="A1570" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3">
+      <c r="A1571" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3">
+      <c r="A1572" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3">
+      <c r="A1573" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3">
+      <c r="A1574" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3">
+      <c r="A1575" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3">
+      <c r="A1576" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3">
+      <c r="A1577" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3">
+      <c r="A1578" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1578">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1578"/>
+  <dimension ref="A1:C1624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C110">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="C130">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="C140">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="C220">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="C305">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>4</v>
       </c>
       <c r="C332">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="C336">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4767,7 +4767,7 @@
         <v>5</v>
       </c>
       <c r="C396">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4943,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="C412">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="C414">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="C424">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="C443">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -11587,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="C1016">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -12247,7 +12247,7 @@
         <v>4</v>
       </c>
       <c r="C1076">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1077" spans="1:3">
@@ -12313,7 +12313,7 @@
         <v>5</v>
       </c>
       <c r="C1082">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -12698,7 +12698,7 @@
         <v>4</v>
       </c>
       <c r="C1117">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -13292,7 +13292,7 @@
         <v>4</v>
       </c>
       <c r="C1171">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13567,7 +13567,7 @@
         <v>3</v>
       </c>
       <c r="C1196">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
@@ -14084,7 +14084,7 @@
         <v>3</v>
       </c>
       <c r="C1243">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14381,7 +14381,7 @@
         <v>5</v>
       </c>
       <c r="C1270">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14744,7 +14744,7 @@
         <v>5</v>
       </c>
       <c r="C1303">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14865,7 +14865,7 @@
         <v>7</v>
       </c>
       <c r="C1314">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14997,7 +14997,7 @@
         <v>5</v>
       </c>
       <c r="C1326">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -15569,7 +15569,7 @@
         <v>4</v>
       </c>
       <c r="C1378">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -16053,7 +16053,7 @@
         <v>3</v>
       </c>
       <c r="C1422">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16207,7 +16207,7 @@
         <v>4</v>
       </c>
       <c r="C1436">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16218,7 +16218,7 @@
         <v>5</v>
       </c>
       <c r="C1437">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16625,7 +16625,7 @@
         <v>4</v>
       </c>
       <c r="C1474">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -16724,7 +16724,7 @@
         <v>5</v>
       </c>
       <c r="C1483">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16757,7 +16757,7 @@
         <v>4</v>
       </c>
       <c r="C1486">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16768,7 +16768,7 @@
         <v>5</v>
       </c>
       <c r="C1487">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16856,7 +16856,7 @@
         <v>4</v>
       </c>
       <c r="C1495">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -16933,7 +16933,7 @@
         <v>4</v>
       </c>
       <c r="C1502">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
@@ -17076,7 +17076,7 @@
         <v>4</v>
       </c>
       <c r="C1515">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -17252,7 +17252,7 @@
         <v>5</v>
       </c>
       <c r="C1531">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17274,7 +17274,7 @@
         <v>4</v>
       </c>
       <c r="C1533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
@@ -17406,7 +17406,7 @@
         <v>4</v>
       </c>
       <c r="C1545">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
@@ -17425,7 +17425,7 @@
         <v>44274</v>
       </c>
       <c r="B1547" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1547">
         <v>1</v>
@@ -17436,43 +17436,43 @@
         <v>44274</v>
       </c>
       <c r="B1548" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1548">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B1549" t="s">
         <v>3</v>
       </c>
       <c r="C1549">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B1550" t="s">
         <v>3</v>
       </c>
       <c r="C1550">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
       <c r="A1551" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B1551" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1551">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
@@ -17480,7 +17480,7 @@
         <v>44276</v>
       </c>
       <c r="B1552" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1552">
         <v>3</v>
@@ -17488,24 +17488,24 @@
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B1553" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B1554" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1554">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
@@ -17513,10 +17513,10 @@
         <v>44277</v>
       </c>
       <c r="B1555" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
@@ -17524,7 +17524,7 @@
         <v>44277</v>
       </c>
       <c r="B1556" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1556">
         <v>2</v>
@@ -17532,24 +17532,24 @@
     </row>
     <row r="1557" spans="1:3">
       <c r="A1557" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1557" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
       <c r="A1558" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B1558" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1558">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
@@ -17557,10 +17557,10 @@
         <v>44278</v>
       </c>
       <c r="B1559" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
@@ -17568,7 +17568,7 @@
         <v>44278</v>
       </c>
       <c r="B1560" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1560">
         <v>1</v>
@@ -17576,21 +17576,21 @@
     </row>
     <row r="1561" spans="1:3">
       <c r="A1561" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B1561" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1561">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B1562" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1562">
         <v>1</v>
@@ -17601,26 +17601,26 @@
         <v>44279</v>
       </c>
       <c r="B1563" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1564" t="s">
         <v>4</v>
       </c>
       <c r="C1564">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1565" t="s">
         <v>5</v>
@@ -17631,10 +17631,10 @@
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1566" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1566">
         <v>1</v>
@@ -17642,24 +17642,24 @@
     </row>
     <row r="1567" spans="1:3">
       <c r="A1567" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1567" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1567">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
       <c r="A1568" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1568" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1568">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
@@ -17667,7 +17667,7 @@
         <v>44281</v>
       </c>
       <c r="B1569" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1569">
         <v>1</v>
@@ -17675,10 +17675,10 @@
     </row>
     <row r="1570" spans="1:3">
       <c r="A1570" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B1570" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1570">
         <v>1</v>
@@ -17686,43 +17686,43 @@
     </row>
     <row r="1571" spans="1:3">
       <c r="A1571" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B1571" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1571">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
       <c r="A1572" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B1572" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1572">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
       <c r="A1573" s="2">
-        <v>44283</v>
+        <v>44281</v>
       </c>
       <c r="B1573" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
       <c r="A1574" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B1574" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1574">
         <v>1</v>
@@ -17730,10 +17730,10 @@
     </row>
     <row r="1575" spans="1:3">
       <c r="A1575" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B1575" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1575">
         <v>1</v>
@@ -17741,21 +17741,21 @@
     </row>
     <row r="1576" spans="1:3">
       <c r="A1576" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B1576" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1576">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B1577" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1577">
         <v>1</v>
@@ -17763,12 +17763,518 @@
     </row>
     <row r="1578" spans="1:3">
       <c r="A1578" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3">
+      <c r="A1579" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3">
+      <c r="A1580" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3">
+      <c r="A1581" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3">
+      <c r="A1582" s="2">
         <v>44284</v>
       </c>
-      <c r="B1578" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1578">
+      <c r="B1582" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3">
+      <c r="A1583" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3">
+      <c r="A1584" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3">
+      <c r="A1585" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3">
+      <c r="A1586" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1586">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3">
+      <c r="A1587" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3">
+      <c r="A1588" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3">
+      <c r="A1589" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3">
+      <c r="A1590" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3">
+      <c r="A1591" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3">
+      <c r="A1592" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3">
+      <c r="A1593" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3">
+      <c r="A1594" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3">
+      <c r="A1595" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3">
+      <c r="A1596" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3">
+      <c r="A1597" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3">
+      <c r="A1598" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3">
+      <c r="A1599" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3">
+      <c r="A1600" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3">
+      <c r="A1601" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3">
+      <c r="A1602" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3">
+      <c r="A1603" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3">
+      <c r="A1604" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3">
+      <c r="A1605" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3">
+      <c r="A1606" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3">
+      <c r="A1607" s="2">
+        <v>44291</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1607">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3">
+      <c r="A1608" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3">
+      <c r="A1609" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3">
+      <c r="A1610" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3">
+      <c r="A1611" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3">
+      <c r="A1612" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3">
+      <c r="A1613" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3">
+      <c r="A1614" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1614">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3">
+      <c r="A1615" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3">
+      <c r="A1616" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3">
+      <c r="A1617" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3">
+      <c r="A1618" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3">
+      <c r="A1619" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3">
+      <c r="A1620" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3">
+      <c r="A1621" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1621">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3">
+      <c r="A1622" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3">
+      <c r="A1623" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1623">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:3">
+      <c r="A1624" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1624">
         <v>1</v>
       </c>
     </row>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1624"/>
+  <dimension ref="A1:C1631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7924,7 +7924,7 @@
         <v>5</v>
       </c>
       <c r="C683">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -12588,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="C1107">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -13281,7 +13281,7 @@
         <v>3</v>
       </c>
       <c r="C1170">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -15250,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="C1349">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -16449,7 +16449,7 @@
         <v>5</v>
       </c>
       <c r="C1458">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -17791,7 +17791,7 @@
         <v>4</v>
       </c>
       <c r="C1580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
@@ -17835,7 +17835,7 @@
         <v>4</v>
       </c>
       <c r="C1584">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
@@ -17868,7 +17868,7 @@
         <v>5</v>
       </c>
       <c r="C1587">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
@@ -18066,7 +18066,7 @@
         <v>4</v>
       </c>
       <c r="C1605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
@@ -18176,7 +18176,7 @@
         <v>5</v>
       </c>
       <c r="C1615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
@@ -18253,7 +18253,7 @@
         <v>3</v>
       </c>
       <c r="C1622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
@@ -18272,10 +18272,87 @@
         <v>44298</v>
       </c>
       <c r="B1624" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1624">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3">
+      <c r="A1625" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3">
+      <c r="A1626" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3">
+      <c r="A1627" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3">
+      <c r="A1628" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3">
+      <c r="A1629" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3">
+      <c r="A1630" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1630">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3">
+      <c r="A1631" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1631">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
+++ b/data/updated/data_indiana_covid_deaths_by_date_by_age_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1631"/>
+  <dimension ref="A1:C1662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2930,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="C229">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="C239">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -12775,7 +12775,7 @@
         <v>4</v>
       </c>
       <c r="C1124">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -13501,7 +13501,7 @@
         <v>3</v>
       </c>
       <c r="C1190">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -16218,7 +16218,7 @@
         <v>5</v>
       </c>
       <c r="C1437">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -17043,7 +17043,7 @@
         <v>5</v>
       </c>
       <c r="C1512">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17142,7 +17142,7 @@
         <v>7</v>
       </c>
       <c r="C1521">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17340,7 +17340,7 @@
         <v>3</v>
       </c>
       <c r="C1539">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
@@ -17593,7 +17593,7 @@
         <v>5</v>
       </c>
       <c r="C1562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
@@ -17601,7 +17601,7 @@
         <v>44279</v>
       </c>
       <c r="B1563" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1563">
         <v>1</v>
@@ -17612,10 +17612,10 @@
         <v>44279</v>
       </c>
       <c r="B1564" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1564">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
@@ -17623,21 +17623,21 @@
         <v>44279</v>
       </c>
       <c r="B1565" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1565">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B1566" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1566">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
@@ -17645,10 +17645,10 @@
         <v>44280</v>
       </c>
       <c r="B1567" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1567">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
@@ -17656,21 +17656,21 @@
         <v>44280</v>
       </c>
       <c r="B1568" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1568">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B1569" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
@@ -17678,7 +17678,7 @@
         <v>44281</v>
       </c>
       <c r="B1570" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1570">
         <v>1</v>
@@ -17689,10 +17689,10 @@
         <v>44281</v>
       </c>
       <c r="B1571" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1571">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
@@ -17700,10 +17700,10 @@
         <v>44281</v>
       </c>
       <c r="B1572" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1572">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
@@ -17711,21 +17711,21 @@
         <v>44281</v>
       </c>
       <c r="B1573" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
       <c r="A1574" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B1574" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
@@ -17733,7 +17733,7 @@
         <v>44282</v>
       </c>
       <c r="B1575" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1575">
         <v>1</v>
@@ -17744,21 +17744,21 @@
         <v>44282</v>
       </c>
       <c r="B1576" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1576">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B1577" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1577">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
@@ -17766,7 +17766,7 @@
         <v>44283</v>
       </c>
       <c r="B1578" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1578">
         <v>1</v>
@@ -17777,7 +17777,7 @@
         <v>44283</v>
       </c>
       <c r="B1579" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1579">
         <v>1</v>
@@ -17788,10 +17788,10 @@
         <v>44283</v>
       </c>
       <c r="B1580" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1580">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
@@ -17799,18 +17799,18 @@
         <v>44283</v>
       </c>
       <c r="B1581" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1581">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
       <c r="A1582" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B1582" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1582">
         <v>1</v>
@@ -17821,7 +17821,7 @@
         <v>44284</v>
       </c>
       <c r="B1583" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1583">
         <v>1</v>
@@ -17832,10 +17832,10 @@
         <v>44284</v>
       </c>
       <c r="B1584" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
@@ -17843,21 +17843,21 @@
         <v>44284</v>
       </c>
       <c r="B1585" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
       <c r="A1586" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B1586" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1586">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
@@ -17865,21 +17865,21 @@
         <v>44285</v>
       </c>
       <c r="B1587" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1587">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
       <c r="A1588" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B1588" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1588">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
@@ -17887,10 +17887,10 @@
         <v>44286</v>
       </c>
       <c r="B1589" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1589">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
@@ -17898,10 +17898,10 @@
         <v>44286</v>
       </c>
       <c r="B1590" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1590">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
@@ -17909,10 +17909,10 @@
         <v>44286</v>
       </c>
       <c r="B1591" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1591">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1592" spans="1:3">
@@ -17920,7 +17920,7 @@
         <v>44286</v>
       </c>
       <c r="B1592" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1592">
         <v>2</v>
@@ -17928,10 +17928,10 @@
     </row>
     <row r="1593" spans="1:3">
       <c r="A1593" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B1593" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1593">
         <v>2</v>
@@ -17942,10 +17942,10 @@
         <v>44287</v>
       </c>
       <c r="B1594" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
@@ -17953,7 +17953,7 @@
         <v>44287</v>
       </c>
       <c r="B1595" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1595">
         <v>1</v>
@@ -17964,21 +17964,21 @@
         <v>44287</v>
       </c>
       <c r="B1596" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1596">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
       <c r="A1597" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B1597" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1597">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
@@ -17986,7 +17986,7 @@
         <v>44288</v>
       </c>
       <c r="B1598" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1598">
         <v>1</v>
@@ -17997,10 +17997,10 @@
         <v>44288</v>
       </c>
       <c r="B1599" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1599">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
@@ -18008,18 +18008,18 @@
         <v>44288</v>
       </c>
       <c r="B1600" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1600">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
       <c r="A1601" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B1601" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1601">
         <v>1</v>
@@ -18030,10 +18030,10 @@
         <v>44289</v>
       </c>
       <c r="B1602" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1602">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
@@ -18041,18 +18041,18 @@
         <v>44289</v>
       </c>
       <c r="B1603" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1603">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1604" spans="1:3">
       <c r="A1604" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B1604" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1604">
         <v>1</v>
@@ -18063,10 +18063,10 @@
         <v>44290</v>
       </c>
       <c r="B1605" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
@@ -18074,7 +18074,7 @@
         <v>44290</v>
       </c>
       <c r="B1606" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1606">
         <v>2</v>
@@ -18082,7 +18082,7 @@
     </row>
     <row r="1607" spans="1:3">
       <c r="A1607" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B1607" t="s">
         <v>5</v>
@@ -18093,10 +18093,10 @@
     </row>
     <row r="1608" spans="1:3">
       <c r="A1608" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B1608" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1608">
         <v>2</v>
@@ -18107,7 +18107,7 @@
         <v>44292</v>
       </c>
       <c r="B1609" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1609">
         <v>2</v>
@@ -18115,7 +18115,7 @@
     </row>
     <row r="1610" spans="1:3">
       <c r="A1610" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B1610" t="s">
         <v>3</v>
@@ -18126,7 +18126,7 @@
     </row>
     <row r="1611" spans="1:3">
       <c r="A1611" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B1611" t="s">
         <v>4</v>
@@ -18140,18 +18140,18 @@
         <v>44293</v>
       </c>
       <c r="B1612" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1612">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1613" spans="1:3">
       <c r="A1613" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B1613" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1613">
         <v>1</v>
@@ -18159,13 +18159,13 @@
     </row>
     <row r="1614" spans="1:3">
       <c r="A1614" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B1614" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1614">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1615" spans="1:3">
@@ -18173,32 +18173,32 @@
         <v>44294</v>
       </c>
       <c r="B1615" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
       <c r="A1616" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B1616" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1616">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1617" spans="1:3">
       <c r="A1617" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B1617" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1617">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
@@ -18206,7 +18206,7 @@
         <v>44295</v>
       </c>
       <c r="B1618" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1618">
         <v>1</v>
@@ -18214,54 +18214,54 @@
     </row>
     <row r="1619" spans="1:3">
       <c r="A1619" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B1619" t="s">
         <v>3</v>
       </c>
       <c r="C1619">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1620" spans="1:3">
       <c r="A1620" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B1620" t="s">
         <v>4</v>
       </c>
       <c r="C1620">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1621" spans="1:3">
       <c r="A1621" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B1621" t="s">
         <v>5</v>
       </c>
       <c r="C1621">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
       <c r="A1622" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B1622" t="s">
         <v>3</v>
       </c>
       <c r="C1622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
       <c r="A1623" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B1623" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1623">
         <v>3</v>
@@ -18269,21 +18269,21 @@
     </row>
     <row r="1624" spans="1:3">
       <c r="A1624" s="2">
-        <v>44298</v>
+        <v>44296</v>
       </c>
       <c r="B1624" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1624">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1625" spans="1:3">
       <c r="A1625" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B1625" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1625">
         <v>1</v>
@@ -18291,18 +18291,18 @@
     </row>
     <row r="1626" spans="1:3">
       <c r="A1626" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B1626" t="s">
         <v>3</v>
       </c>
       <c r="C1626">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1627" spans="1:3">
       <c r="A1627" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B1627" t="s">
         <v>4</v>
@@ -18313,21 +18313,21 @@
     </row>
     <row r="1628" spans="1:3">
       <c r="A1628" s="2">
-        <v>44299</v>
+        <v>44297</v>
       </c>
       <c r="B1628" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1628">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
       <c r="A1629" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B1629" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1629">
         <v>1</v>
@@ -18335,24 +18335,365 @@
     </row>
     <row r="1630" spans="1:3">
       <c r="A1630" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B1630" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1630">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
       <c r="A1631" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1631">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3">
+      <c r="A1632" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3">
+      <c r="A1633" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3">
+      <c r="A1634" s="2">
         <v>44299</v>
       </c>
-      <c r="B1631" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1631">
-        <v>3</v>
+      <c r="B1634" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3">
+      <c r="A1635" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3">
+      <c r="A1636" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1636">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3">
+      <c r="A1637" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1637">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3">
+      <c r="A1638" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3">
+      <c r="A1639" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3">
+      <c r="A1640" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3">
+      <c r="A1641" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3">
+      <c r="A1642" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3">
+      <c r="A1643" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3">
+      <c r="A1644" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3">
+      <c r="A1645" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3">
+      <c r="A1646" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3">
+      <c r="A1647" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3">
+      <c r="A1648" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3">
+      <c r="A1649" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3">
+      <c r="A1650" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3">
+      <c r="A1651" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3">
+      <c r="A1652" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3">
+      <c r="A1653" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3">
+      <c r="A1654" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3">
+      <c r="A1655" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3">
+      <c r="A1656" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3">
+      <c r="A1657" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3">
+      <c r="A1658" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3">
+      <c r="A1659" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3">
+      <c r="A1660" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3">
+      <c r="A1661" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3">
+      <c r="A1662" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1662">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
